--- a/Getting Started/ReadMe.xlsx
+++ b/Getting Started/ReadMe.xlsx
@@ -11,14 +11,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Energy use - by Regions" sheetId="22" r:id="rId1"/>
-    <sheet name="Energy use - by Income" sheetId="23" r:id="rId2"/>
-    <sheet name="Energy use - Subtotal Regions" sheetId="24" r:id="rId3"/>
-    <sheet name="Energy use - Subtotal Income" sheetId="25" r:id="rId4"/>
-    <sheet name="Energy use - Data" sheetId="26" r:id="rId5"/>
-    <sheet name="Energy use - SimpleChart" sheetId="27" r:id="rId6"/>
-    <sheet name="Energy use - Chart" sheetId="28" r:id="rId7"/>
-    <sheet name="Energy use - Pivot" sheetId="29" r:id="rId8"/>
+    <sheet name="Energy use - by Regions" sheetId="2" r:id="rId1"/>
+    <sheet name="Energy use - by Income" sheetId="3" r:id="rId2"/>
+    <sheet name="Energy use - Subtotal Regions" sheetId="4" r:id="rId3"/>
+    <sheet name="Energy use - Subtotal Income" sheetId="5" r:id="rId4"/>
+    <sheet name="Energy use - Data" sheetId="6" r:id="rId5"/>
+    <sheet name="Energy use - SimpleChart" sheetId="7" r:id="rId6"/>
+    <sheet name="Energy use - Chart" sheetId="8" r:id="rId7"/>
+    <sheet name="Energy use - Pivot" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Table" localSheetId="2">'Energy use - Subtotal Regions'!$A$1:$G$138</definedName>
@@ -1105,25 +1105,25 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.01163437242267</c:v>
+                  <c:v>5.61076762116707</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.55160675071439</c:v>
+                  <c:v>2.55160110474637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.20866937521392</c:v>
+                  <c:v>2.00613213814739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.37249835090049</c:v>
+                  <c:v>4.8225034441193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.77948832206119</c:v>
+                  <c:v>5.79318650333884</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.80203395044921</c:v>
+                  <c:v>5.96948461463209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.13021999075945</c:v>
+                  <c:v>2.18261268903057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1171,25 +1171,25 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>11.086359426138618</c:v>
+                  <c:v>10.783441436854755</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.268350151121842</c:v>
+                  <c:v>10.437319976882115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.295084050317806</c:v>
+                  <c:v>11.299539634951133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.830795928682129</c:v>
+                  <c:v>9.609592774538529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.84287390568827</c:v>
+                  <c:v>6.849722996327095</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.134331910166885</c:v>
+                  <c:v>11.985800514910006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.294844908989733</c:v>
+                  <c:v>8.839452258661977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,25 +1237,25 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>28.3086498915421</c:v>
+                  <c:v>27.8011105999282</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20.2298829953543</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.6016159633868</c:v>
+                  <c:v>21.2038647179359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.7315389670567</c:v>
+                  <c:v>18.7409428569756</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.90625948931535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.8236056643897</c:v>
+                  <c:v>21.8363053072406</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.6202174857789</c:v>
+                  <c:v>22.5424273452835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1406,25 +1406,25 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>11.086359426138618</c:v>
+                  <c:v>10.783441436854755</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.268350151121842</c:v>
+                  <c:v>10.437319976882115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.295084050317806</c:v>
+                  <c:v>11.299539634951133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.830795928682129</c:v>
+                  <c:v>9.609592774538529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.84287390568827</c:v>
+                  <c:v>6.849722996327095</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.134331910166885</c:v>
+                  <c:v>11.985800514910006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.294844908989733</c:v>
+                  <c:v>8.839452258661977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1487,25 +1487,25 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.01163437242267</c:v>
+                  <c:v>5.61076762116707</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.55160675071439</c:v>
+                  <c:v>2.55160110474637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.20866937521392</c:v>
+                  <c:v>2.00613213814739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.37249835090049</c:v>
+                  <c:v>4.8225034441193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.77948832206119</c:v>
+                  <c:v>5.79318650333884</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.80203395044921</c:v>
+                  <c:v>5.96948461463209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.13021999075945</c:v>
+                  <c:v>2.18261268903057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,25 +1553,25 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>28.3086498915421</c:v>
+                  <c:v>27.8011105999282</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20.2298829953543</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.6016159633868</c:v>
+                  <c:v>21.2038647179359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.7315389670567</c:v>
+                  <c:v>18.7409428569756</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.90625948931535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.8236056643897</c:v>
+                  <c:v>21.8363053072406</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.6202174857789</c:v>
+                  <c:v>22.5424273452835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1746,144 +1746,144 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" refreshedDate="43854.75275624787" createdVersion="5" recordCount="131">
+<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" refreshedDate="44152.61149504122" createdVersion="5" recordCount="131">
   <cacheSource type="worksheet">
     <worksheetSource sheet="Energy use - Data" ref="$A$1:$G$132"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="175" maxValue="15715" count="131">
-        <n v="235"/>
-        <n v="3535"/>
-        <n v="175"/>
-        <n v="475"/>
-        <n v="535"/>
-        <n v="715"/>
-        <n v="775"/>
-        <n v="835"/>
-        <n v="1255"/>
-        <n v="1135"/>
-        <n v="1435"/>
-        <n v="955"/>
-        <n v="1015"/>
-        <n v="1615"/>
-        <n v="1375"/>
-        <n v="1915"/>
-        <n v="1675"/>
-        <n v="1795"/>
-        <n v="1195"/>
-        <n v="7315"/>
-        <n v="2455"/>
-        <n v="2035"/>
-        <n v="2275"/>
-        <n v="2335"/>
-        <n v="2635"/>
-        <n v="2515"/>
-        <n v="2575"/>
-        <n v="2815"/>
-        <n v="5875"/>
-        <n v="2995"/>
-        <n v="3115"/>
-        <n v="3175"/>
-        <n v="2395"/>
-        <n v="3415"/>
-        <n v="3475"/>
-        <n v="3895"/>
-        <n v="3955"/>
-        <n v="12595"/>
-        <n v="4195"/>
-        <n v="4255"/>
-        <n v="4435"/>
-        <n v="4555"/>
-        <n v="4735"/>
-        <n v="4855"/>
-        <n v="3235"/>
-        <n v="4915"/>
-        <n v="5275"/>
-        <n v="5455"/>
-        <n v="5935"/>
-        <n v="5755"/>
-        <n v="5695"/>
-        <n v="5995"/>
-        <n v="6775"/>
-        <n v="6475"/>
-        <n v="6295"/>
-        <n v="6655"/>
-        <n v="6715"/>
-        <n v="6595"/>
-        <n v="6835"/>
-        <n v="6895"/>
-        <n v="6955"/>
-        <n v="7075"/>
-        <n v="7015"/>
-        <n v="7135"/>
-        <n v="7195"/>
-        <n v="7495"/>
-        <n v="15595"/>
-        <n v="7555"/>
-        <n v="7255"/>
-        <n v="8635"/>
-        <n v="7735"/>
-        <n v="7855"/>
-        <n v="8515"/>
-        <n v="8575"/>
-        <n v="10075"/>
-        <n v="9475"/>
-        <n v="9955"/>
-        <n v="9175"/>
-        <n v="8935"/>
-        <n v="9715"/>
-        <n v="9655"/>
-        <n v="8815"/>
-        <n v="9835"/>
-        <n v="9535"/>
-        <n v="10195"/>
-        <n v="10615"/>
-        <n v="10495"/>
-        <n v="10735"/>
-        <n v="10435"/>
-        <n v="10315"/>
-        <n v="10375"/>
-        <n v="9355"/>
-        <n v="10555"/>
-        <n v="10855"/>
-        <n v="10975"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="177" maxValue="15976" count="131">
+        <n v="238"/>
+        <n v="3593"/>
+        <n v="177"/>
+        <n v="482"/>
+        <n v="543"/>
+        <n v="726"/>
+        <n v="787"/>
+        <n v="848"/>
+        <n v="1275"/>
+        <n v="1153"/>
+        <n v="1458"/>
+        <n v="970"/>
+        <n v="1031"/>
+        <n v="1641"/>
+        <n v="1397"/>
+        <n v="1946"/>
+        <n v="1702"/>
+        <n v="1824"/>
+        <n v="1214"/>
+        <n v="7436"/>
+        <n v="2495"/>
+        <n v="2068"/>
+        <n v="2312"/>
+        <n v="2373"/>
+        <n v="2678"/>
+        <n v="2556"/>
+        <n v="2617"/>
+        <n v="2861"/>
+        <n v="5972"/>
+        <n v="3044"/>
+        <n v="3166"/>
+        <n v="3227"/>
+        <n v="2434"/>
+        <n v="3471"/>
+        <n v="3532"/>
+        <n v="3959"/>
+        <n v="4020"/>
+        <n v="12804"/>
+        <n v="4264"/>
+        <n v="4325"/>
+        <n v="4508"/>
+        <n v="4630"/>
+        <n v="4813"/>
+        <n v="4935"/>
+        <n v="3288"/>
+        <n v="4996"/>
+        <n v="5362"/>
+        <n v="5545"/>
+        <n v="6033"/>
+        <n v="5850"/>
+        <n v="5789"/>
+        <n v="6094"/>
+        <n v="6887"/>
+        <n v="6582"/>
+        <n v="6399"/>
+        <n v="6765"/>
+        <n v="6826"/>
+        <n v="6704"/>
+        <n v="6948"/>
+        <n v="7009"/>
+        <n v="7070"/>
+        <n v="7192"/>
+        <n v="7131"/>
+        <n v="7253"/>
+        <n v="7314"/>
+        <n v="7619"/>
+        <n v="15854"/>
+        <n v="7680"/>
+        <n v="7375"/>
+        <n v="8778"/>
+        <n v="7863"/>
+        <n v="7985"/>
+        <n v="8656"/>
+        <n v="8717"/>
+        <n v="10242"/>
+        <n v="9632"/>
+        <n v="10120"/>
+        <n v="9327"/>
+        <n v="9083"/>
+        <n v="9876"/>
+        <n v="9815"/>
+        <n v="8961"/>
+        <n v="9998"/>
+        <n v="9693"/>
+        <n v="10364"/>
+        <n v="10791"/>
+        <n v="10669"/>
+        <n v="10913"/>
+        <n v="10608"/>
+        <n v="10486"/>
+        <n v="10547"/>
+        <n v="9510"/>
+        <n v="10730"/>
         <n v="11035"/>
-        <n v="11635"/>
-        <n v="11095"/>
-        <n v="11155"/>
-        <n v="11335"/>
-        <n v="11575"/>
-        <n v="11935"/>
-        <n v="11995"/>
-        <n v="12055"/>
-        <n v="12235"/>
-        <n v="12355"/>
-        <n v="12775"/>
-        <n v="12415"/>
-        <n v="13195"/>
-        <n v="13255"/>
-        <n v="15715"/>
-        <n v="12895"/>
-        <n v="4135"/>
-        <n v="8215"/>
-        <n v="12295"/>
-        <n v="13135"/>
-        <n v="13315"/>
-        <n v="2155"/>
-        <n v="13975"/>
+        <n v="11157"/>
+        <n v="11218"/>
+        <n v="11828"/>
+        <n v="11279"/>
+        <n v="11340"/>
+        <n v="11523"/>
+        <n v="11767"/>
+        <n v="12133"/>
+        <n v="12194"/>
+        <n v="12255"/>
+        <n v="12438"/>
+        <n v="12560"/>
+        <n v="12987"/>
+        <n v="12621"/>
+        <n v="13414"/>
+        <n v="13475"/>
+        <n v="15976"/>
+        <n v="13109"/>
+        <n v="4203"/>
+        <n v="8351"/>
+        <n v="12499"/>
+        <n v="13353"/>
+        <n v="13536"/>
+        <n v="2190"/>
+        <n v="14207"/>
+        <n v="14939"/>
+        <n v="14146"/>
+        <n v="14085"/>
         <n v="14695"/>
-        <n v="13915"/>
-        <n v="13855"/>
-        <n v="14455"/>
-        <n v="14515"/>
-        <n v="14575"/>
-        <n v="14035"/>
-        <n v="14815"/>
-        <n v="415"/>
-        <n v="4795"/>
-        <n v="14995"/>
-        <n v="14935"/>
+        <n v="14756"/>
+        <n v="14817"/>
+        <n v="14268"/>
+        <n v="15061"/>
+        <n v="421"/>
+        <n v="4874"/>
+        <n v="15244"/>
+        <n v="15183"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Country Code" numFmtId="0">
@@ -2181,138 +2181,138 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Value" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.13021999075945" maxValue="34.6202174857789" count="131">
-        <n v="13.9268322746106"/>
-        <n v="10.7846775038301"/>
-        <n v="13.2191007102569"/>
-        <n v="9.8566903101176404"/>
-        <n v="8.2734441014301296"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.00613213814739" maxValue="27.8011105999282" count="131">
+        <n v="13.926853706187099"/>
+        <n v="9.7949868737997097"/>
+        <n v="15.0186485489535"/>
+        <n v="9.6968078091358407"/>
+        <n v="9.8797048615707297"/>
         <n v="8.7878196826640007"/>
         <n v="12.967170741226001"/>
-        <n v="11.8561751802562"/>
-        <n v="4.3724983509004902"/>
-        <n v="14.137126870992599"/>
-        <n v="6.4708047213014597"/>
-        <n v="9.4737500610031802"/>
-        <n v="5.0732450126131399"/>
-        <n v="8.4727547118846207"/>
-        <n v="5.0883708198424102"/>
-        <n v="13.141350210409501"/>
-        <n v="10.9381077444546"/>
-        <n v="9.3141015437310308"/>
-        <n v="7.0769741631531398"/>
-        <n v="7.91821835852096"/>
-        <n v="9.8798302770474695"/>
-        <n v="5.7794883220611899"/>
-        <n v="11.2087490872287"/>
-        <n v="6.0116343724226704"/>
-        <n v="18.808340212706401"/>
-        <n v="2.1302199907594499"/>
-        <n v="10.846396464930599"/>
-        <n v="14.7284256551486"/>
-        <n v="11.632762691818"/>
-        <n v="2.2086693752139199"/>
-        <n v="13.131959621290999"/>
+        <n v="11.6131627655112"/>
+        <n v="4.8225034441192998"/>
+        <n v="14.6915953146197"/>
+        <n v="6.4728619326794004"/>
+        <n v="9.5428153253807597"/>
+        <n v="6.7981682406095603"/>
+        <n v="9.0685064754372"/>
+        <n v="5.0883717472027303"/>
+        <n v="12.532967301796999"/>
+        <n v="10.510285890473501"/>
+        <n v="9.3822418081158201"/>
+        <n v="7.0855273238507399"/>
+        <n v="7.6416606386720796"/>
+        <n v="9.5028067445809601"/>
+        <n v="5.7931865033388403"/>
+        <n v="11.208749087227901"/>
+        <n v="5.6107676211670698"/>
+        <n v="18.3786365531125"/>
+        <n v="2.1826126890305702"/>
+        <n v="8.4723448043506693"/>
+        <n v="15.2715482724736"/>
+        <n v="11.6248288668409"/>
+        <n v="2.00613213814739"/>
+        <n v="12.981743730680799"/>
         <n v="8.2407100267253401"/>
-        <n v="5.2414124738099099"/>
+        <n v="5.1049203156887302"/>
         <n v="16.6754467983192"/>
-        <n v="18.219900041541599"/>
-        <n v="12.9185884220571"/>
-        <n v="12.811121433041301"/>
-        <n v="11.2037779607292"/>
-        <n v="6.3066836955783003"/>
-        <n v="3.0298532987460498"/>
-        <n v="6.6743625459797604"/>
+        <n v="17.923781625957002"/>
+        <n v="13.1761912785825"/>
+        <n v="13.167350041173099"/>
+        <n v="11.1990339183287"/>
+        <n v="6.3440317023997199"/>
+        <n v="3.0695827472392501"/>
+        <n v="6.7205855128900698"/>
         <n v="10.971047725797799"/>
-        <n v="6.5133333632220403"/>
-        <n v="7.8489885574624703"/>
-        <n v="12.486107901698"/>
-        <n v="12.073109652819699"/>
+        <n v="5.7051939841663204"/>
+        <n v="9.8075188000238391"/>
+        <n v="12.4386889136177"/>
+        <n v="16.436698013656098"/>
         <n v="12.636415027498"/>
-        <n v="9.09844355782778"/>
-        <n v="4.4463864124600398"/>
-        <n v="7.3555436109512504"/>
-        <n v="28.3086498915421"/>
-        <n v="11.0253900535672"/>
-        <n v="2.5516067507143898"/>
-        <n v="8.9271092714799707"/>
-        <n v="11.958339492257201"/>
-        <n v="5.9148650233483"/>
-        <n v="11.0926978781243"/>
+        <n v="8.9842198370747202"/>
+        <n v="4.3663820614918603"/>
+        <n v="7.4466687073662898"/>
+        <n v="27.801110599928201"/>
+        <n v="11.0628765010226"/>
+        <n v="2.55160110474637"/>
+        <n v="8.2219822855446605"/>
+        <n v="11.627929853255401"/>
+        <n v="4.9783588178640601"/>
+        <n v="9.9221296578637403"/>
         <n v="18.627241229879701"/>
-        <n v="12.4027301695831"/>
-        <n v="14.9393433841578"/>
-        <n v="8.6742774657602606"/>
+        <n v="12.384749683531"/>
+        <n v="14.9907284103395"/>
+        <n v="8.7466406937768593"/>
         <n v="11.2883403894183"/>
-        <n v="9.8297564183978796"/>
-        <n v="5.62038297316355"/>
-        <n v="5.6662384151852097"/>
-        <n v="6.3501289143159498"/>
-        <n v="7.5814248440730303"/>
-        <n v="8.3564760582890099"/>
-        <n v="5.1614016977375599"/>
-        <n v="10.936907481914799"/>
-        <n v="10.905040676304001"/>
-        <n v="6.0066208767820797"/>
-        <n v="11.801846564495801"/>
+        <n v="9.8699009765868499"/>
+        <n v="5.5757576188729301"/>
+        <n v="5.9712423800179897"/>
+        <n v="6.6785130503533798"/>
+        <n v="7.41653866509645"/>
+        <n v="7.6351779858525601"/>
+        <n v="6.5833550833512504"/>
+        <n v="10.9536117071886"/>
+        <n v="12.5574674628511"/>
+        <n v="5.0924915782773699"/>
+        <n v="11.794277384301999"/>
         <n v="14.7640286995235"/>
-        <n v="8.6152434542178398"/>
-        <n v="18.7315389670567"/>
-        <n v="17.3567636901487"/>
-        <n v="11.554063081539001"/>
-        <n v="6.5009120488392496"/>
-        <n v="6.5235994615858797"/>
-        <n v="9.9925018727164492"/>
-        <n v="13.7268829117249"/>
-        <n v="2.6684689852821402"/>
-        <n v="13.5541897985856"/>
-        <n v="13.343425714103001"/>
-        <n v="5.8020339504492098"/>
+        <n v="8.19313128978248"/>
+        <n v="18.7409428569756"/>
+        <n v="16.634585239776801"/>
+        <n v="11.5540630815391"/>
+        <n v="7.6384207164340401"/>
+        <n v="6.0479679083672098"/>
+        <n v="9.9925116937175904"/>
+        <n v="12.0855760934295"/>
+        <n v="2.5731716213785401"/>
+        <n v="11.495900610069"/>
+        <n v="13.094276269597099"/>
+        <n v="5.9694846146320897"/>
         <n v="11.382024161288699"/>
-        <n v="8.17138377461254"/>
-        <n v="8.3021285816483807"/>
-        <n v="6.3404851970539502"/>
-        <n v="7.8702694982575503"/>
-        <n v="10.5895835357781"/>
-        <n v="11.7976259660288"/>
-        <n v="6.9447944148518097"/>
-        <n v="9.9817837935229505"/>
-        <n v="19.601615963386799"/>
-        <n v="14.668933465392"/>
-        <n v="15.8959064602442"/>
-        <n v="14.6126828603155"/>
-        <n v="10.355052378465899"/>
-        <n v="14.1295033809615"/>
-        <n v="6.8799888249657499"/>
-        <n v="12.957054352097501"/>
-        <n v="5.2920889117701497"/>
-        <n v="7.6097087230025204"/>
-        <n v="10.9846623422318"/>
-        <n v="7.8838939899120799"/>
-        <n v="16.910351941122801"/>
-        <n v="9.8286814708089807"/>
-        <n v="9.5310086141069199"/>
-        <n v="4.8565692651680896"/>
-        <n v="34.620217485778902"/>
-        <n v="13.677304429264501"/>
-        <n v="21.823605664389699"/>
-        <n v="11.143859711890601"/>
-        <n v="12.8419744425891"/>
-        <n v="9.3774402265855006"/>
+        <n v="8.1749616155990594"/>
+        <n v="8.2880791547284307"/>
+        <n v="7.5807728516316297"/>
+        <n v="7.2118121929025598"/>
+        <n v="10.5896117702995"/>
+        <n v="11.775689118754901"/>
+        <n v="6.4250315844702497"/>
+        <n v="9.2096350525129793"/>
+        <n v="21.2038647179359"/>
+        <n v="14.5906742116443"/>
+        <n v="14.5659749793173"/>
+        <n v="14.6762213765242"/>
+        <n v="10.355052378466"/>
+        <n v="14.127432762285199"/>
+        <n v="7.2014055315453698"/>
+        <n v="12.9570154582313"/>
+        <n v="5.2941714849891897"/>
+        <n v="8.0694129254962004"/>
+        <n v="10.138222587159101"/>
+        <n v="7.8838987651725301"/>
+        <n v="16.4830958205483"/>
+        <n v="9.8503916168188006"/>
+        <n v="9.5388665220377007"/>
+        <n v="4.6451870597287499"/>
+        <n v="22.5424273452835"/>
+        <n v="13.6026856151363"/>
+        <n v="21.8363053072406"/>
+        <n v="11.9978632788909"/>
+        <n v="13.8386248241867"/>
+        <n v="9.5007103448796197"/>
         <n v="20.229882995354298"/>
-        <n v="8.0226275798468105"/>
-        <n v="5.2352884386124998"/>
-        <n v="7.9707074567669398"/>
-        <n v="3.2524877994469401"/>
-        <n v="2.2873256035985601"/>
-        <n v="12.057296190985801"/>
-        <n v="15.229634545109899"/>
-        <n v="3.0948861089844901"/>
-        <n v="3.5442821519410601"/>
-        <n v="8.6968363664082098"/>
-        <n v="14.7172381997693"/>
+        <n v="9.7192153740222906"/>
+        <n v="4.3822156573238003"/>
+        <n v="7.8619592883568101"/>
+        <n v="2.8722298168001998"/>
+        <n v="2.0676317080184798"/>
+        <n v="10.990166505343"/>
+        <n v="15.2296345449426"/>
+        <n v="2.7569707468739102"/>
+        <n v="4.3714363481506897"/>
+        <n v="9.6254251479762694"/>
+        <n v="14.858234559761501"/>
         <n v="7.9062594893153504"/>
-        <n v="15.201246940512"/>
+        <n v="14.4973749429689"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -3944,137 +3944,137 @@
     </pivotField>
     <pivotField dataField="1" compact="0" showAll="0">
       <items count="132">
-        <item x="25"/>
         <item x="29"/>
         <item x="122"/>
+        <item x="25"/>
         <item x="52"/>
         <item x="82"/>
-        <item x="39"/>
         <item x="125"/>
         <item x="121"/>
+        <item x="39"/>
+        <item x="48"/>
         <item x="126"/>
+        <item x="119"/>
+        <item x="110"/>
         <item x="8"/>
-        <item x="48"/>
-        <item x="110"/>
-        <item x="12"/>
+        <item x="55"/>
         <item x="14"/>
-        <item x="68"/>
-        <item x="119"/>
+        <item x="71"/>
         <item x="32"/>
         <item x="103"/>
         <item x="63"/>
-        <item x="64"/>
+        <item x="23"/>
+        <item x="42"/>
         <item x="21"/>
         <item x="85"/>
-        <item x="55"/>
-        <item x="71"/>
-        <item x="23"/>
+        <item x="64"/>
+        <item x="79"/>
         <item x="38"/>
+        <item x="93"/>
+        <item x="10"/>
+        <item x="68"/>
+        <item x="65"/>
+        <item x="40"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="101"/>
+        <item x="90"/>
+        <item x="66"/>
+        <item x="49"/>
         <item x="89"/>
-        <item x="65"/>
-        <item x="10"/>
+        <item x="67"/>
         <item x="78"/>
-        <item x="42"/>
-        <item x="79"/>
-        <item x="40"/>
-        <item x="101"/>
-        <item x="93"/>
-        <item x="18"/>
-        <item x="49"/>
-        <item x="66"/>
-        <item x="104"/>
-        <item x="43"/>
-        <item x="90"/>
+        <item x="19"/>
+        <item x="120"/>
         <item x="106"/>
         <item x="129"/>
-        <item x="19"/>
-        <item x="120"/>
-        <item x="118"/>
+        <item x="104"/>
         <item x="87"/>
+        <item x="74"/>
+        <item x="53"/>
         <item x="31"/>
-        <item x="4"/>
         <item x="88"/>
-        <item x="67"/>
+        <item x="26"/>
+        <item x="60"/>
+        <item x="5"/>
+        <item x="47"/>
         <item x="13"/>
-        <item x="74"/>
-        <item x="60"/>
-        <item x="127"/>
-        <item x="5"/>
-        <item x="53"/>
-        <item x="47"/>
+        <item x="94"/>
         <item x="17"/>
         <item x="116"/>
+        <item x="20"/>
+        <item x="109"/>
         <item x="11"/>
-        <item x="109"/>
+        <item x="127"/>
+        <item x="3"/>
+        <item x="118"/>
+        <item x="1"/>
+        <item x="43"/>
         <item x="108"/>
         <item x="62"/>
-        <item x="3"/>
-        <item x="20"/>
-        <item x="94"/>
+        <item x="4"/>
+        <item x="56"/>
         <item x="80"/>
+        <item x="105"/>
         <item x="99"/>
+        <item x="16"/>
         <item x="91"/>
-        <item x="1"/>
-        <item x="26"/>
-        <item x="70"/>
         <item x="69"/>
-        <item x="16"/>
         <item x="41"/>
-        <item x="105"/>
+        <item x="123"/>
         <item x="51"/>
-        <item x="56"/>
-        <item x="114"/>
         <item x="37"/>
         <item x="22"/>
         <item x="61"/>
         <item x="86"/>
+        <item x="83"/>
         <item x="77"/>
+        <item x="7"/>
         <item x="28"/>
+        <item x="54"/>
         <item x="92"/>
         <item x="72"/>
-        <item x="7"/>
-        <item x="54"/>
-        <item x="123"/>
-        <item x="45"/>
+        <item x="114"/>
+        <item x="81"/>
         <item x="58"/>
         <item x="44"/>
+        <item x="15"/>
+        <item x="70"/>
         <item x="46"/>
-        <item x="36"/>
-        <item x="115"/>
-        <item x="35"/>
         <item x="102"/>
         <item x="6"/>
         <item x="30"/>
-        <item x="15"/>
-        <item x="2"/>
         <item x="84"/>
-        <item x="83"/>
+        <item x="36"/>
+        <item x="35"/>
         <item x="112"/>
-        <item x="81"/>
+        <item x="115"/>
         <item x="0"/>
         <item x="100"/>
+        <item x="130"/>
+        <item x="97"/>
+        <item x="96"/>
+        <item x="98"/>
         <item x="9"/>
-        <item x="98"/>
-        <item x="96"/>
+        <item x="73"/>
         <item x="128"/>
+        <item x="59"/>
+        <item x="2"/>
+        <item x="124"/>
         <item x="27"/>
-        <item x="73"/>
-        <item x="59"/>
-        <item x="130"/>
-        <item x="124"/>
-        <item x="97"/>
-        <item x="33"/>
+        <item x="45"/>
         <item x="107"/>
         <item x="76"/>
+        <item x="33"/>
         <item x="34"/>
+        <item x="24"/>
         <item x="57"/>
         <item x="75"/>
-        <item x="24"/>
+        <item x="117"/>
         <item x="95"/>
-        <item x="117"/>
         <item x="113"/>
+        <item x="111"/>
         <item x="50"/>
-        <item x="111"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4475,13 +4475,14 @@
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.003906" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.003906" customWidth="1"/>
-    <col min="4" max="4" width="16.574219" customWidth="1"/>
-    <col min="5" max="5" width="16.003906" customWidth="1"/>
-    <col min="6" max="6" width="12.28125" customWidth="1"/>
+    <col min="1" max="1" width="24.285156" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.285156" customWidth="1"/>
+    <col min="4" max="4" width="15.855469" customWidth="1"/>
+    <col min="5" max="5" width="15.285156" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4509,19 +4510,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>6.0116343724226704</v>
+        <v>5.6107676211670698</v>
       </c>
       <c r="C2">
-        <v>28.3086498915421</v>
+        <v>27.801110599928201</v>
       </c>
       <c r="D2">
-        <v>11.086359426138618</v>
+        <v>10.783441436854755</v>
       </c>
       <c r="E2">
         <v>8.7878196826640007</v>
       </c>
       <c r="F2">
-        <v>5.7422497111855328</v>
+        <v>5.6227460687895539</v>
       </c>
     </row>
     <row r="3">
@@ -4529,19 +4530,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>2.5516067507143898</v>
+        <v>2.55160110474637</v>
       </c>
       <c r="C3">
         <v>20.229882995354298</v>
       </c>
       <c r="D3">
-        <v>10.268350151121842</v>
+        <v>10.437319976882115</v>
       </c>
       <c r="E3">
-        <v>10.472317957122</v>
+        <v>10.47233207438275</v>
       </c>
       <c r="F3">
-        <v>3.9645327709604148</v>
+        <v>3.8526298348193393</v>
       </c>
     </row>
     <row r="4">
@@ -4549,19 +4550,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2.2086693752139199</v>
+        <v>2.00613213814739</v>
       </c>
       <c r="C4">
-        <v>19.601615963386799</v>
+        <v>21.2038647179359</v>
       </c>
       <c r="D4">
-        <v>11.295084050317806</v>
+        <v>11.299539634951133</v>
       </c>
       <c r="E4">
-        <v>11.206263523978951</v>
+        <v>11.203891502778301</v>
       </c>
       <c r="F4">
-        <v>4.855283359794325</v>
+        <v>4.9438313166687946</v>
       </c>
     </row>
     <row r="5">
@@ -4569,19 +4570,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>4.3724983509004902</v>
+        <v>4.8225034441192998</v>
       </c>
       <c r="C5">
-        <v>18.7315389670567</v>
+        <v>18.7409428569756</v>
       </c>
       <c r="D5">
-        <v>9.8307959286821287</v>
+        <v>9.6095927745385286</v>
       </c>
       <c r="E5">
-        <v>9.8297564183978796</v>
+        <v>9.7949868737997097</v>
       </c>
       <c r="F5">
-        <v>3.5680379789523644</v>
+        <v>3.6024922761623217</v>
       </c>
     </row>
     <row r="6">
@@ -4589,19 +4590,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>5.7794883220611899</v>
+        <v>5.7931865033388403</v>
       </c>
       <c r="C6">
         <v>7.9062594893153504</v>
       </c>
       <c r="D6">
-        <v>6.8428739056882701</v>
+        <v>6.8497229963270954</v>
       </c>
       <c r="E6">
-        <v>6.8428739056882701</v>
+        <v>6.8497229963270954</v>
       </c>
       <c r="F6">
-        <v>1.5038543143974459</v>
+        <v>1.4941682375260967</v>
       </c>
     </row>
     <row r="7">
@@ -4609,19 +4610,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>5.8020339504492098</v>
+        <v>5.9694846146320897</v>
       </c>
       <c r="C7">
-        <v>21.823605664389699</v>
+        <v>21.8363053072406</v>
       </c>
       <c r="D7">
-        <v>12.134331910166885</v>
+        <v>11.985800514910006</v>
       </c>
       <c r="E7">
-        <v>9.9817837935229505</v>
+        <v>9.2096350525129793</v>
       </c>
       <c r="F7">
-        <v>6.1828583890988025</v>
+        <v>6.3722690133128772</v>
       </c>
     </row>
     <row r="8">
@@ -4629,19 +4630,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>2.1302199907594499</v>
+        <v>2.1826126890305702</v>
       </c>
       <c r="C8">
-        <v>34.620217485778902</v>
+        <v>22.5424273452835</v>
       </c>
       <c r="D8">
-        <v>9.2948449089897327</v>
+        <v>8.8394522586619768</v>
       </c>
       <c r="E8">
-        <v>7.1918014307397957</v>
+        <v>7.3962925222670943</v>
       </c>
       <c r="F8">
-        <v>7.0467510330497083</v>
+        <v>5.4281189733475612</v>
       </c>
     </row>
   </sheetData>
@@ -4658,13 +4659,14 @@
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.851562" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.003906" customWidth="1"/>
-    <col min="4" max="4" width="16.574219" customWidth="1"/>
-    <col min="5" max="5" width="16.003906" customWidth="1"/>
-    <col min="6" max="6" width="12.28125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.285156" customWidth="1"/>
+    <col min="4" max="4" width="15.855469" customWidth="1"/>
+    <col min="5" max="5" width="15.285156" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4692,19 +4694,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>2.1302199907594499</v>
+        <v>2.1826126890305702</v>
       </c>
       <c r="C2">
-        <v>34.620217485778902</v>
+        <v>22.5424273452835</v>
       </c>
       <c r="D2">
-        <v>7.3292103773681028</v>
+        <v>6.5505693654039359</v>
       </c>
       <c r="E2">
-        <v>5.0732450126131399</v>
+        <v>4.3822156573238003</v>
       </c>
       <c r="F2">
-        <v>9.2207941858885061</v>
+        <v>5.8073982391740753</v>
       </c>
     </row>
     <row r="3">
@@ -4712,19 +4714,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>3.5442821519410601</v>
+        <v>4.3714363481506897</v>
       </c>
       <c r="C3">
-        <v>14.6126828603155</v>
+        <v>16.436698013656098</v>
       </c>
       <c r="D3">
-        <v>9.7657048427101376</v>
+        <v>9.7891127759077001</v>
       </c>
       <c r="E3">
-        <v>9.9817837935229505</v>
+        <v>9.2096350525129793</v>
       </c>
       <c r="F3">
-        <v>3.1107321545253361</v>
+        <v>3.2210640392601899</v>
       </c>
     </row>
     <row r="4">
@@ -4732,19 +4734,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>3.0948861089844901</v>
+        <v>2.7569707468739102</v>
       </c>
       <c r="C4">
-        <v>21.823605664389699</v>
+        <v>21.8363053072406</v>
       </c>
       <c r="D4">
-        <v>10.491929846015697</v>
+        <v>10.398541155147704</v>
       </c>
       <c r="E4">
-        <v>9.9925018727164492</v>
+        <v>9.8797048615707297</v>
       </c>
       <c r="F4">
-        <v>4.2380147613711037</v>
+        <v>4.2572130144990954</v>
       </c>
     </row>
     <row r="5">
@@ -4752,19 +4754,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>2.2086693752139199</v>
+        <v>2.00613213814739</v>
       </c>
       <c r="C5">
-        <v>28.3086498915421</v>
+        <v>27.801110599928201</v>
       </c>
       <c r="D5">
-        <v>11.163744912352058</v>
+        <v>11.185855003934162</v>
       </c>
       <c r="E5">
-        <v>10.9982188896825</v>
+        <v>11.0169621134102</v>
       </c>
       <c r="F5">
-        <v>4.9384200310967152</v>
+        <v>4.9372266635138065</v>
       </c>
     </row>
   </sheetData>
@@ -4784,12 +4786,12 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="9.140625"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.710938" customWidth="1"/>
-    <col min="4" max="4" width="25.003906" customWidth="1"/>
-    <col min="5" max="5" width="20.851562" customWidth="1"/>
+    <col min="2" max="2" width="15.425781" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="24.285156" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="12.28125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4817,7 +4819,7 @@
     </row>
     <row r="2" outlineLevel="2">
       <c r="A2" s="2">
-        <v>7495</v>
+        <v>7619</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -4835,12 +4837,12 @@
         <v>2014</v>
       </c>
       <c r="G2" s="2">
-        <v>6.3501289143159498</v>
+        <v>6.6785130503533798</v>
       </c>
     </row>
     <row r="3" outlineLevel="2">
       <c r="A3" s="3">
-        <v>2335</v>
+        <v>2373</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -4858,12 +4860,12 @@
         <v>2014</v>
       </c>
       <c r="G3" s="3">
-        <v>6.0116343724226704</v>
+        <v>5.6107676211670698</v>
       </c>
     </row>
     <row r="4" outlineLevel="2">
       <c r="A4" s="2">
-        <v>5695</v>
+        <v>5789</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -4881,12 +4883,12 @@
         <v>2014</v>
       </c>
       <c r="G4" s="2">
-        <v>28.3086498915421</v>
+        <v>27.801110599928201</v>
       </c>
     </row>
     <row r="5" outlineLevel="2">
       <c r="A5" s="3">
-        <v>11155</v>
+        <v>11340</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -4904,12 +4906,12 @@
         <v>2014</v>
       </c>
       <c r="G5" s="3">
-        <v>14.6126828603155</v>
+        <v>14.6762213765242</v>
       </c>
     </row>
     <row r="6" outlineLevel="2">
       <c r="A6" s="2">
-        <v>9715</v>
+        <v>9876</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>31</v>
@@ -4927,12 +4929,12 @@
         <v>2014</v>
       </c>
       <c r="G6" s="2">
-        <v>6.5235994615858797</v>
+        <v>6.0479679083672098</v>
       </c>
     </row>
     <row r="7" outlineLevel="2">
       <c r="A7" s="3">
-        <v>7315</v>
+        <v>7436</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>33</v>
@@ -4950,12 +4952,12 @@
         <v>2014</v>
       </c>
       <c r="G7" s="3">
-        <v>7.91821835852096</v>
+        <v>7.6416606386720796</v>
       </c>
     </row>
     <row r="8" outlineLevel="2">
       <c r="A8" s="2">
-        <v>1795</v>
+        <v>1824</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>35</v>
@@ -4973,12 +4975,12 @@
         <v>2014</v>
       </c>
       <c r="G8" s="2">
-        <v>9.3141015437310308</v>
+        <v>9.3822418081158201</v>
       </c>
     </row>
     <row r="9" outlineLevel="2">
       <c r="A9" s="3">
-        <v>10075</v>
+        <v>10242</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>37</v>
@@ -4996,12 +4998,12 @@
         <v>2014</v>
       </c>
       <c r="G9" s="3">
-        <v>8.6152434542178398</v>
+        <v>8.19313128978248</v>
       </c>
     </row>
     <row r="10" outlineLevel="2">
       <c r="A10" s="2">
-        <v>10735</v>
+        <v>10913</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>39</v>
@@ -5019,12 +5021,12 @@
         <v>2014</v>
       </c>
       <c r="G10" s="2">
-        <v>8.17138377461254</v>
+        <v>8.1749616155990594</v>
       </c>
     </row>
     <row r="11" outlineLevel="2">
       <c r="A11" s="3">
-        <v>12415</v>
+        <v>12621</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>41</v>
@@ -5042,12 +5044,12 @@
         <v>2014</v>
       </c>
       <c r="G11" s="3">
-        <v>16.910351941122801</v>
+        <v>16.4830958205483</v>
       </c>
     </row>
     <row r="12" outlineLevel="2">
       <c r="A12" s="2">
-        <v>9535</v>
+        <v>9693</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>43</v>
@@ -5065,12 +5067,12 @@
         <v>2014</v>
       </c>
       <c r="G12" s="2">
-        <v>13.5541897985856</v>
+        <v>11.495900610069</v>
       </c>
     </row>
     <row r="13" outlineLevel="2">
       <c r="A13" s="3">
-        <v>7075</v>
+        <v>7192</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>45</v>
@@ -5093,7 +5095,7 @@
     </row>
     <row r="14" outlineLevel="2">
       <c r="A14" s="2">
-        <v>6295</v>
+        <v>6399</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>47</v>
@@ -5111,12 +5113,12 @@
         <v>2014</v>
       </c>
       <c r="G14" s="2">
-        <v>11.958339492257201</v>
+        <v>11.627929853255401</v>
       </c>
     </row>
     <row r="15" outlineLevel="2">
       <c r="A15" s="3">
-        <v>13915</v>
+        <v>14146</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>49</v>
@@ -5134,12 +5136,12 @@
         <v>2014</v>
       </c>
       <c r="G15" s="3">
-        <v>7.9707074567669398</v>
+        <v>7.8619592883568101</v>
       </c>
     </row>
     <row r="16" outlineLevel="2">
       <c r="A16" s="2">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>51</v>
@@ -5171,12 +5173,12 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2">
         <f>SUBTOTAL(1,G2:G16)</f>
-        <v>11.086359426138621</v>
+        <v>10.783441436854757</v>
       </c>
     </row>
     <row r="18" outlineLevel="2">
       <c r="A18" s="3">
-        <v>9655</v>
+        <v>9815</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>54</v>
@@ -5194,12 +5196,12 @@
         <v>2014</v>
       </c>
       <c r="G18" s="3">
-        <v>9.9925018727164492</v>
+        <v>9.9925116937175904</v>
       </c>
     </row>
     <row r="19" outlineLevel="2">
       <c r="A19" s="2">
-        <v>5995</v>
+        <v>6094</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>56</v>
@@ -5217,12 +5219,12 @@
         <v>2014</v>
       </c>
       <c r="G19" s="2">
-        <v>11.0253900535672</v>
+        <v>11.0628765010226</v>
       </c>
     </row>
     <row r="20" outlineLevel="2">
       <c r="A20" s="3">
-        <v>6775</v>
+        <v>6887</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>58</v>
@@ -5240,12 +5242,12 @@
         <v>2014</v>
       </c>
       <c r="G20" s="3">
-        <v>2.5516067507143898</v>
+        <v>2.55160110474637</v>
       </c>
     </row>
     <row r="21" outlineLevel="2">
       <c r="A21" s="2">
-        <v>6595</v>
+        <v>6704</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>60</v>
@@ -5268,7 +5270,7 @@
     </row>
     <row r="22" outlineLevel="2">
       <c r="A22" s="3">
-        <v>8935</v>
+        <v>9083</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>62</v>
@@ -5286,12 +5288,12 @@
         <v>2014</v>
       </c>
       <c r="G22" s="3">
-        <v>6.5009120488392496</v>
+        <v>7.6384207164340401</v>
       </c>
     </row>
     <row r="23" outlineLevel="2">
       <c r="A23" s="2">
-        <v>6895</v>
+        <v>7009</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>64</v>
@@ -5309,12 +5311,12 @@
         <v>2014</v>
       </c>
       <c r="G23" s="2">
-        <v>14.9393433841578</v>
+        <v>14.9907284103395</v>
       </c>
     </row>
     <row r="24" outlineLevel="2">
       <c r="A24" s="3">
-        <v>8575</v>
+        <v>8717</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>66</v>
@@ -5337,7 +5339,7 @@
     </row>
     <row r="25" outlineLevel="2">
       <c r="A25" s="2">
-        <v>8515</v>
+        <v>8656</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>68</v>
@@ -5355,12 +5357,12 @@
         <v>2014</v>
       </c>
       <c r="G25" s="2">
-        <v>11.801846564495801</v>
+        <v>11.794277384301999</v>
       </c>
     </row>
     <row r="26" outlineLevel="2">
       <c r="A26" s="3">
-        <v>8635</v>
+        <v>8778</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>70</v>
@@ -5378,12 +5380,12 @@
         <v>2014</v>
       </c>
       <c r="G26" s="3">
-        <v>10.936907481914799</v>
+        <v>10.9536117071886</v>
       </c>
     </row>
     <row r="27" outlineLevel="2">
       <c r="A27" s="2">
-        <v>7255</v>
+        <v>7375</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>72</v>
@@ -5401,12 +5403,12 @@
         <v>2014</v>
       </c>
       <c r="G27" s="2">
-        <v>5.1614016977375599</v>
+        <v>6.5833550833512504</v>
       </c>
     </row>
     <row r="28" outlineLevel="2">
       <c r="A28" s="3">
-        <v>7135</v>
+        <v>7253</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>74</v>
@@ -5424,12 +5426,12 @@
         <v>2014</v>
       </c>
       <c r="G28" s="3">
-        <v>5.62038297316355</v>
+        <v>5.5757576188729301</v>
       </c>
     </row>
     <row r="29" outlineLevel="2">
       <c r="A29" s="2">
-        <v>15595</v>
+        <v>15854</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>76</v>
@@ -5447,12 +5449,12 @@
         <v>2014</v>
       </c>
       <c r="G29" s="2">
-        <v>7.5814248440730303</v>
+        <v>7.41653866509645</v>
       </c>
     </row>
     <row r="30" outlineLevel="2">
       <c r="A30" s="3">
-        <v>10555</v>
+        <v>10730</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>78</v>
@@ -5470,12 +5472,12 @@
         <v>2014</v>
       </c>
       <c r="G30" s="3">
-        <v>11.7976259660288</v>
+        <v>11.775689118754901</v>
       </c>
     </row>
     <row r="31" outlineLevel="2">
       <c r="A31" s="2">
-        <v>9355</v>
+        <v>9510</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>80</v>
@@ -5493,12 +5495,12 @@
         <v>2014</v>
       </c>
       <c r="G31" s="2">
-        <v>10.5895835357781</v>
+        <v>10.5896117702995</v>
       </c>
     </row>
     <row r="32" outlineLevel="2">
       <c r="A32" s="3">
-        <v>4795</v>
+        <v>4874</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>82</v>
@@ -5516,12 +5518,12 @@
         <v>2014</v>
       </c>
       <c r="G32" s="3">
-        <v>14.7172381997693</v>
+        <v>14.858234559761501</v>
       </c>
     </row>
     <row r="33" outlineLevel="2">
       <c r="A33" s="2">
-        <v>14815</v>
+        <v>15061</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>84</v>
@@ -5539,12 +5541,12 @@
         <v>2014</v>
       </c>
       <c r="G33" s="2">
-        <v>3.5442821519410601</v>
+        <v>4.3714363481506897</v>
       </c>
     </row>
     <row r="34" outlineLevel="2">
       <c r="A34" s="3">
-        <v>14035</v>
+        <v>14268</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>86</v>
@@ -5562,12 +5564,12 @@
         <v>2014</v>
       </c>
       <c r="G34" s="3">
-        <v>3.0948861089844901</v>
+        <v>2.7569707468739102</v>
       </c>
     </row>
     <row r="35" outlineLevel="2">
       <c r="A35" s="2">
-        <v>14575</v>
+        <v>14817</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>88</v>
@@ -5585,12 +5587,12 @@
         <v>2014</v>
       </c>
       <c r="G35" s="2">
-        <v>15.229634545109899</v>
+        <v>15.2296345449426</v>
       </c>
     </row>
     <row r="36" outlineLevel="2">
       <c r="A36" s="3">
-        <v>13975</v>
+        <v>14207</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>90</v>
@@ -5608,12 +5610,12 @@
         <v>2014</v>
       </c>
       <c r="G36" s="3">
-        <v>8.0226275798468105</v>
+        <v>9.7192153740222906</v>
       </c>
     </row>
     <row r="37" outlineLevel="2">
       <c r="A37" s="2">
-        <v>2155</v>
+        <v>2190</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>92</v>
@@ -5636,7 +5638,7 @@
     </row>
     <row r="38" outlineLevel="2">
       <c r="A38" s="3">
-        <v>13315</v>
+        <v>13536</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>94</v>
@@ -5654,12 +5656,12 @@
         <v>2014</v>
       </c>
       <c r="G38" s="3">
-        <v>9.3774402265855006</v>
+        <v>9.5007103448796197</v>
       </c>
     </row>
     <row r="39" outlineLevel="2">
       <c r="A39" s="2">
-        <v>4135</v>
+        <v>4203</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>96</v>
@@ -5677,12 +5679,12 @@
         <v>2014</v>
       </c>
       <c r="G39" s="2">
-        <v>13.677304429264501</v>
+        <v>13.6026856151363</v>
       </c>
     </row>
     <row r="40" outlineLevel="2">
       <c r="A40" s="3">
-        <v>13255</v>
+        <v>13475</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>98</v>
@@ -5700,12 +5702,12 @@
         <v>2014</v>
       </c>
       <c r="G40" s="3">
-        <v>9.5310086141069199</v>
+        <v>9.5388665220377007</v>
       </c>
     </row>
     <row r="41" outlineLevel="2">
       <c r="A41" s="2">
-        <v>13195</v>
+        <v>13414</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>100</v>
@@ -5723,12 +5725,12 @@
         <v>2014</v>
       </c>
       <c r="G41" s="2">
-        <v>9.8286814708089807</v>
+        <v>9.8503916168188006</v>
       </c>
     </row>
     <row r="42" outlineLevel="2">
       <c r="A42" s="3">
-        <v>12775</v>
+        <v>12987</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>102</v>
@@ -5746,12 +5748,12 @@
         <v>2014</v>
       </c>
       <c r="G42" s="3">
-        <v>7.8838939899120799</v>
+        <v>7.8838987651725301</v>
       </c>
     </row>
     <row r="43" outlineLevel="2">
       <c r="A43" s="2">
-        <v>12055</v>
+        <v>12255</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>104</v>
@@ -5769,12 +5771,12 @@
         <v>2014</v>
       </c>
       <c r="G43" s="2">
-        <v>5.2920889117701497</v>
+        <v>5.2941714849891897</v>
       </c>
     </row>
     <row r="44" outlineLevel="2">
       <c r="A44" s="3">
-        <v>11995</v>
+        <v>12194</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>106</v>
@@ -5792,12 +5794,12 @@
         <v>2014</v>
       </c>
       <c r="G44" s="3">
-        <v>12.957054352097501</v>
+        <v>12.9570154582313</v>
       </c>
     </row>
     <row r="45" outlineLevel="2">
       <c r="A45" s="2">
-        <v>11575</v>
+        <v>11767</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>108</v>
@@ -5815,12 +5817,12 @@
         <v>2014</v>
       </c>
       <c r="G45" s="2">
-        <v>14.1295033809615</v>
+        <v>14.127432762285199</v>
       </c>
     </row>
     <row r="46" outlineLevel="2">
       <c r="A46" s="3">
-        <v>11335</v>
+        <v>11523</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>110</v>
@@ -5838,12 +5840,12 @@
         <v>2014</v>
       </c>
       <c r="G46" s="3">
-        <v>10.355052378465899</v>
+        <v>10.355052378466</v>
       </c>
     </row>
     <row r="47" outlineLevel="2">
       <c r="A47" s="2">
-        <v>10495</v>
+        <v>10669</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>112</v>
@@ -5866,7 +5868,7 @@
     </row>
     <row r="48" outlineLevel="2">
       <c r="A48" s="3">
-        <v>5275</v>
+        <v>5362</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>114</v>
@@ -5889,7 +5891,7 @@
     </row>
     <row r="49" outlineLevel="2">
       <c r="A49" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>116</v>
@@ -5907,12 +5909,12 @@
         <v>2014</v>
       </c>
       <c r="G49" s="2">
-        <v>13.9268322746106</v>
+        <v>13.926853706187099</v>
       </c>
     </row>
     <row r="50" outlineLevel="2">
       <c r="A50" s="3">
-        <v>4195</v>
+        <v>4264</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>118</v>
@@ -5930,12 +5932,12 @@
         <v>2014</v>
       </c>
       <c r="G50" s="3">
-        <v>6.3066836955783003</v>
+        <v>6.3440317023997199</v>
       </c>
     </row>
     <row r="51" outlineLevel="2">
       <c r="A51" s="2">
-        <v>1195</v>
+        <v>1214</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>120</v>
@@ -5953,12 +5955,12 @@
         <v>2014</v>
       </c>
       <c r="G51" s="2">
-        <v>7.0769741631531398</v>
+        <v>7.0855273238507399</v>
       </c>
     </row>
     <row r="52" outlineLevel="2">
       <c r="A52" s="3">
-        <v>1375</v>
+        <v>1397</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>122</v>
@@ -5976,12 +5978,12 @@
         <v>2014</v>
       </c>
       <c r="G52" s="3">
-        <v>5.0883708198424102</v>
+        <v>5.0883717472027303</v>
       </c>
     </row>
     <row r="53" outlineLevel="2">
       <c r="A53" s="2">
-        <v>3115</v>
+        <v>3166</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>124</v>
@@ -5999,12 +6001,12 @@
         <v>2014</v>
       </c>
       <c r="G53" s="2">
-        <v>13.131959621290999</v>
+        <v>12.981743730680799</v>
       </c>
     </row>
     <row r="54" outlineLevel="2">
       <c r="A54" s="3">
-        <v>5875</v>
+        <v>5972</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>126</v>
@@ -6022,12 +6024,12 @@
         <v>2014</v>
       </c>
       <c r="G54" s="3">
-        <v>11.632762691818</v>
+        <v>11.6248288668409</v>
       </c>
     </row>
     <row r="55" outlineLevel="2">
       <c r="A55" s="2">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>128</v>
@@ -6045,12 +6047,12 @@
         <v>2014</v>
       </c>
       <c r="G55" s="2">
-        <v>9.4737500610031802</v>
+        <v>9.5428153253807597</v>
       </c>
     </row>
     <row r="56" outlineLevel="2">
       <c r="A56" s="3">
-        <v>1435</v>
+        <v>1458</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>130</v>
@@ -6068,12 +6070,12 @@
         <v>2014</v>
       </c>
       <c r="G56" s="3">
-        <v>6.4708047213014597</v>
+        <v>6.4728619326794004</v>
       </c>
     </row>
     <row r="57" outlineLevel="2">
       <c r="A57" s="2">
-        <v>4435</v>
+        <v>4508</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>132</v>
@@ -6091,12 +6093,12 @@
         <v>2014</v>
       </c>
       <c r="G57" s="2">
-        <v>6.6743625459797604</v>
+        <v>6.7205855128900698</v>
       </c>
     </row>
     <row r="58" outlineLevel="2">
       <c r="A58" s="3">
-        <v>3415</v>
+        <v>3471</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>134</v>
@@ -6119,7 +6121,7 @@
     </row>
     <row r="59" outlineLevel="2">
       <c r="A59" s="2">
-        <v>4555</v>
+        <v>4630</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>136</v>
@@ -6142,7 +6144,7 @@
     </row>
     <row r="60" outlineLevel="2">
       <c r="A60" s="3">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>138</v>
@@ -6165,7 +6167,7 @@
     </row>
     <row r="61" outlineLevel="2">
       <c r="A61" s="2">
-        <v>4855</v>
+        <v>4935</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>140</v>
@@ -6183,12 +6185,12 @@
         <v>2014</v>
       </c>
       <c r="G61" s="2">
-        <v>7.8489885574624703</v>
+        <v>9.8075188000238391</v>
       </c>
     </row>
     <row r="62" outlineLevel="2">
       <c r="A62" s="3">
-        <v>3235</v>
+        <v>3288</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>142</v>
@@ -6206,12 +6208,12 @@
         <v>2014</v>
       </c>
       <c r="G62" s="3">
-        <v>12.486107901698</v>
+        <v>12.4386889136177</v>
       </c>
     </row>
     <row r="63" outlineLevel="2">
       <c r="A63" s="2">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>144</v>
@@ -6229,12 +6231,12 @@
         <v>2014</v>
       </c>
       <c r="G63" s="2">
-        <v>8.2734441014301296</v>
+        <v>9.8797048615707297</v>
       </c>
     </row>
     <row r="64" outlineLevel="2">
       <c r="A64" s="3">
-        <v>3175</v>
+        <v>3227</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>146</v>
@@ -6257,7 +6259,7 @@
     </row>
     <row r="65" outlineLevel="2">
       <c r="A65" s="2">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>148</v>
@@ -6275,7 +6277,7 @@
         <v>2014</v>
       </c>
       <c r="G65" s="2">
-        <v>11.8561751802562</v>
+        <v>11.6131627655112</v>
       </c>
     </row>
     <row r="66" outlineLevel="1">
@@ -6289,12 +6291,12 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2">
         <f>SUBTOTAL(1,G18:G65)</f>
-        <v>10.268350151121847</v>
+        <v>10.437319976882121</v>
       </c>
     </row>
     <row r="67" outlineLevel="2">
       <c r="A67" s="3">
-        <v>2635</v>
+        <v>2678</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>151</v>
@@ -6312,12 +6314,12 @@
         <v>2014</v>
       </c>
       <c r="G67" s="3">
-        <v>18.808340212706401</v>
+        <v>18.3786365531125</v>
       </c>
     </row>
     <row r="68" outlineLevel="2">
       <c r="A68" s="2">
-        <v>2995</v>
+        <v>3044</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>153</v>
@@ -6335,12 +6337,12 @@
         <v>2014</v>
       </c>
       <c r="G68" s="2">
-        <v>2.2086693752139199</v>
+        <v>2.00613213814739</v>
       </c>
     </row>
     <row r="69" outlineLevel="2">
       <c r="A69" s="3">
-        <v>2815</v>
+        <v>2861</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>155</v>
@@ -6358,12 +6360,12 @@
         <v>2014</v>
       </c>
       <c r="G69" s="3">
-        <v>14.7284256551486</v>
+        <v>15.2715482724736</v>
       </c>
     </row>
     <row r="70" outlineLevel="2">
       <c r="A70" s="2">
-        <v>2275</v>
+        <v>2312</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>157</v>
@@ -6381,12 +6383,12 @@
         <v>2014</v>
       </c>
       <c r="G70" s="2">
-        <v>11.2087490872287</v>
+        <v>11.208749087227901</v>
       </c>
     </row>
     <row r="71" outlineLevel="2">
       <c r="A71" s="3">
-        <v>5455</v>
+        <v>5545</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>159</v>
@@ -6404,12 +6406,12 @@
         <v>2014</v>
       </c>
       <c r="G71" s="3">
-        <v>9.09844355782778</v>
+        <v>8.9842198370747202</v>
       </c>
     </row>
     <row r="72" outlineLevel="2">
       <c r="A72" s="2">
-        <v>11635</v>
+        <v>11828</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>161</v>
@@ -6427,12 +6429,12 @@
         <v>2014</v>
       </c>
       <c r="G72" s="2">
-        <v>14.668933465392</v>
+        <v>14.5906742116443</v>
       </c>
     </row>
     <row r="73" outlineLevel="2">
       <c r="A73" s="3">
-        <v>11095</v>
+        <v>11279</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>163</v>
@@ -6450,12 +6452,12 @@
         <v>2014</v>
       </c>
       <c r="G73" s="3">
-        <v>15.8959064602442</v>
+        <v>14.5659749793173</v>
       </c>
     </row>
     <row r="74" outlineLevel="2">
       <c r="A74" s="2">
-        <v>1675</v>
+        <v>1702</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>165</v>
@@ -6473,12 +6475,12 @@
         <v>2014</v>
       </c>
       <c r="G74" s="2">
-        <v>10.9381077444546</v>
+        <v>10.510285890473501</v>
       </c>
     </row>
     <row r="75" outlineLevel="2">
       <c r="A75" s="3">
-        <v>1615</v>
+        <v>1641</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>167</v>
@@ -6496,12 +6498,12 @@
         <v>2014</v>
       </c>
       <c r="G75" s="3">
-        <v>8.4727547118846207</v>
+        <v>9.0685064754372</v>
       </c>
     </row>
     <row r="76" outlineLevel="2">
       <c r="A76" s="2">
-        <v>13135</v>
+        <v>13353</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>169</v>
@@ -6519,12 +6521,12 @@
         <v>2014</v>
       </c>
       <c r="G76" s="2">
-        <v>12.8419744425891</v>
+        <v>13.8386248241867</v>
       </c>
     </row>
     <row r="77" outlineLevel="2">
       <c r="A77" s="3">
-        <v>14455</v>
+        <v>14695</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>171</v>
@@ -6542,12 +6544,12 @@
         <v>2014</v>
       </c>
       <c r="G77" s="3">
-        <v>2.2873256035985601</v>
+        <v>2.0676317080184798</v>
       </c>
     </row>
     <row r="78" outlineLevel="2">
       <c r="A78" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>173</v>
@@ -6565,12 +6567,12 @@
         <v>2014</v>
       </c>
       <c r="G78" s="2">
-        <v>9.8566903101176404</v>
+        <v>9.6968078091358407</v>
       </c>
     </row>
     <row r="79" outlineLevel="2">
       <c r="A79" s="3">
-        <v>11035</v>
+        <v>11218</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>175</v>
@@ -6588,12 +6590,12 @@
         <v>2014</v>
       </c>
       <c r="G79" s="3">
-        <v>19.601615963386799</v>
+        <v>21.2038647179359</v>
       </c>
     </row>
     <row r="80" outlineLevel="2">
       <c r="A80" s="2">
-        <v>9175</v>
+        <v>9327</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>177</v>
@@ -6611,12 +6613,12 @@
         <v>2014</v>
       </c>
       <c r="G80" s="2">
-        <v>11.554063081539001</v>
+        <v>11.5540630815391</v>
       </c>
     </row>
     <row r="81" outlineLevel="2">
       <c r="A81" s="3">
-        <v>10435</v>
+        <v>10608</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>179</v>
@@ -6634,12 +6636,12 @@
         <v>2014</v>
       </c>
       <c r="G81" s="3">
-        <v>8.3021285816483807</v>
+        <v>8.2880791547284307</v>
       </c>
     </row>
     <row r="82" outlineLevel="2">
       <c r="A82" s="2">
-        <v>14935</v>
+        <v>15183</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>181</v>
@@ -6657,12 +6659,12 @@
         <v>2014</v>
       </c>
       <c r="G82" s="2">
-        <v>15.201246940512</v>
+        <v>14.4973749429689</v>
       </c>
     </row>
     <row r="83" outlineLevel="2">
       <c r="A83" s="3">
-        <v>3895</v>
+        <v>3959</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>183</v>
@@ -6680,12 +6682,12 @@
         <v>2014</v>
       </c>
       <c r="G83" s="3">
-        <v>12.9185884220571</v>
+        <v>13.1761912785825</v>
       </c>
     </row>
     <row r="84" outlineLevel="2">
       <c r="A84" s="2">
-        <v>3475</v>
+        <v>3532</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>185</v>
@@ -6703,12 +6705,12 @@
         <v>2014</v>
       </c>
       <c r="G84" s="2">
-        <v>18.219900041541599</v>
+        <v>17.923781625957002</v>
       </c>
     </row>
     <row r="85" outlineLevel="2">
       <c r="A85" s="3">
-        <v>5935</v>
+        <v>6033</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>187</v>
@@ -6726,12 +6728,12 @@
         <v>2014</v>
       </c>
       <c r="G85" s="3">
-        <v>4.4463864124600398</v>
+        <v>4.3663820614918603</v>
       </c>
     </row>
     <row r="86" outlineLevel="2">
       <c r="A86" s="2">
-        <v>5755</v>
+        <v>5850</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>189</v>
@@ -6749,12 +6751,12 @@
         <v>2014</v>
       </c>
       <c r="G86" s="2">
-        <v>7.3555436109512504</v>
+        <v>7.4466687073662898</v>
       </c>
     </row>
     <row r="87" outlineLevel="2">
       <c r="A87" s="3">
-        <v>12595</v>
+        <v>12804</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>191</v>
@@ -6772,12 +6774,12 @@
         <v>2014</v>
       </c>
       <c r="G87" s="3">
-        <v>11.2037779607292</v>
+        <v>11.1990339183287</v>
       </c>
     </row>
     <row r="88" outlineLevel="2">
       <c r="A88" s="2">
-        <v>6955</v>
+        <v>7070</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>193</v>
@@ -6795,7 +6797,7 @@
         <v>2014</v>
       </c>
       <c r="G88" s="2">
-        <v>8.6742774657602606</v>
+        <v>8.7466406937768593</v>
       </c>
     </row>
     <row r="89" outlineLevel="1">
@@ -6809,12 +6811,12 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2">
         <f>SUBTOTAL(1,G67:G88)</f>
-        <v>11.295084050317806</v>
+        <v>11.299539634951135</v>
       </c>
     </row>
     <row r="90" outlineLevel="2">
       <c r="A90" s="3">
-        <v>7015</v>
+        <v>7131</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>196</v>
@@ -6832,12 +6834,12 @@
         <v>2014</v>
       </c>
       <c r="G90" s="3">
-        <v>9.8297564183978796</v>
+        <v>9.8699009765868499</v>
       </c>
     </row>
     <row r="91" outlineLevel="2">
       <c r="A91" s="2">
-        <v>6835</v>
+        <v>6948</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>198</v>
@@ -6855,12 +6857,12 @@
         <v>2014</v>
       </c>
       <c r="G91" s="2">
-        <v>12.4027301695831</v>
+        <v>12.384749683531</v>
       </c>
     </row>
     <row r="92" outlineLevel="2">
       <c r="A92" s="3">
-        <v>6715</v>
+        <v>6826</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>200</v>
@@ -6878,12 +6880,12 @@
         <v>2014</v>
       </c>
       <c r="G92" s="3">
-        <v>11.0926978781243</v>
+        <v>9.9221296578637403</v>
       </c>
     </row>
     <row r="93" outlineLevel="2">
       <c r="A93" s="2">
-        <v>1255</v>
+        <v>1275</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>202</v>
@@ -6901,12 +6903,12 @@
         <v>2014</v>
       </c>
       <c r="G93" s="2">
-        <v>4.3724983509004902</v>
+        <v>4.8225034441192998</v>
       </c>
     </row>
     <row r="94" outlineLevel="2">
       <c r="A94" s="3">
-        <v>6655</v>
+        <v>6765</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>204</v>
@@ -6924,12 +6926,12 @@
         <v>2014</v>
       </c>
       <c r="G94" s="3">
-        <v>5.9148650233483</v>
+        <v>4.9783588178640601</v>
       </c>
     </row>
     <row r="95" outlineLevel="2">
       <c r="A95" s="2">
-        <v>14515</v>
+        <v>14756</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>206</v>
@@ -6947,12 +6949,12 @@
         <v>2014</v>
       </c>
       <c r="G95" s="2">
-        <v>12.057296190985801</v>
+        <v>10.990166505343</v>
       </c>
     </row>
     <row r="96" outlineLevel="2">
       <c r="A96" s="3">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>208</v>
@@ -6970,12 +6972,12 @@
         <v>2014</v>
       </c>
       <c r="G96" s="3">
-        <v>8.6968363664082098</v>
+        <v>9.6254251479762694</v>
       </c>
     </row>
     <row r="97" outlineLevel="2">
       <c r="A97" s="2">
-        <v>3535</v>
+        <v>3593</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>210</v>
@@ -6993,12 +6995,12 @@
         <v>2014</v>
       </c>
       <c r="G97" s="2">
-        <v>10.7846775038301</v>
+        <v>9.7949868737997097</v>
       </c>
     </row>
     <row r="98" outlineLevel="2">
       <c r="A98" s="3">
-        <v>11935</v>
+        <v>12133</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>212</v>
@@ -7016,12 +7018,12 @@
         <v>2014</v>
       </c>
       <c r="G98" s="3">
-        <v>6.8799888249657499</v>
+        <v>7.2014055315453698</v>
       </c>
     </row>
     <row r="99" outlineLevel="2">
       <c r="A99" s="2">
-        <v>3955</v>
+        <v>4020</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>214</v>
@@ -7039,12 +7041,12 @@
         <v>2014</v>
       </c>
       <c r="G99" s="2">
-        <v>12.811121433041301</v>
+        <v>13.167350041173099</v>
       </c>
     </row>
     <row r="100" outlineLevel="2">
       <c r="A100" s="3">
-        <v>12235</v>
+        <v>12438</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>216</v>
@@ -7062,12 +7064,12 @@
         <v>2014</v>
       </c>
       <c r="G100" s="3">
-        <v>7.6097087230025204</v>
+        <v>8.0694129254962004</v>
       </c>
     </row>
     <row r="101" outlineLevel="2">
       <c r="A101" s="2">
-        <v>9475</v>
+        <v>9632</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>218</v>
@@ -7085,12 +7087,12 @@
         <v>2014</v>
       </c>
       <c r="G101" s="2">
-        <v>18.7315389670567</v>
+        <v>18.7409428569756</v>
       </c>
     </row>
     <row r="102" outlineLevel="2">
       <c r="A102" s="3">
-        <v>7855</v>
+        <v>7985</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>220</v>
@@ -7108,12 +7110,12 @@
         <v>2014</v>
       </c>
       <c r="G102" s="3">
-        <v>6.0066208767820797</v>
+        <v>5.0924915782773699</v>
       </c>
     </row>
     <row r="103" outlineLevel="2">
       <c r="A103" s="2">
-        <v>8815</v>
+        <v>8961</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>222</v>
@@ -7131,12 +7133,12 @@
         <v>2014</v>
       </c>
       <c r="G103" s="2">
-        <v>13.7268829117249</v>
+        <v>12.0855760934295</v>
       </c>
     </row>
     <row r="104" outlineLevel="2">
       <c r="A104" s="3">
-        <v>10855</v>
+        <v>11035</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>224</v>
@@ -7154,12 +7156,12 @@
         <v>2014</v>
       </c>
       <c r="G104" s="3">
-        <v>6.9447944148518097</v>
+        <v>6.4250315844702497</v>
       </c>
     </row>
     <row r="105" outlineLevel="2">
       <c r="A105" s="2">
-        <v>7735</v>
+        <v>7863</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>226</v>
@@ -7177,12 +7179,12 @@
         <v>2014</v>
       </c>
       <c r="G105" s="2">
-        <v>10.905040676304001</v>
+        <v>12.5574674628511</v>
       </c>
     </row>
     <row r="106" outlineLevel="2">
       <c r="A106" s="3">
-        <v>7555</v>
+        <v>7680</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>228</v>
@@ -7200,7 +7202,7 @@
         <v>2014</v>
       </c>
       <c r="G106" s="3">
-        <v>8.3564760582890099</v>
+        <v>7.6351779858525601</v>
       </c>
     </row>
     <row r="107" outlineLevel="1">
@@ -7214,12 +7216,12 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3">
         <f>SUBTOTAL(1,G90:G106)</f>
-        <v>9.8307959286821323</v>
+        <v>9.6095927745385286</v>
       </c>
     </row>
     <row r="108" outlineLevel="2">
       <c r="A108" s="2">
-        <v>14995</v>
+        <v>15244</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>231</v>
@@ -7242,7 +7244,7 @@
     </row>
     <row r="109" outlineLevel="2">
       <c r="A109" s="3">
-        <v>2035</v>
+        <v>2068</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>233</v>
@@ -7260,7 +7262,7 @@
         <v>2014</v>
       </c>
       <c r="G109" s="3">
-        <v>5.7794883220611899</v>
+        <v>5.7931865033388403</v>
       </c>
     </row>
     <row r="110" outlineLevel="1">
@@ -7274,12 +7276,12 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3">
         <f>SUBTOTAL(1,G108:G109)</f>
-        <v>6.8428739056882701</v>
+        <v>6.8497229963270954</v>
       </c>
     </row>
     <row r="111" outlineLevel="2">
       <c r="A111" s="2">
-        <v>6475</v>
+        <v>6582</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>236</v>
@@ -7297,12 +7299,12 @@
         <v>2014</v>
       </c>
       <c r="G111" s="2">
-        <v>8.9271092714799707</v>
+        <v>8.2219822855446605</v>
       </c>
     </row>
     <row r="112" outlineLevel="2">
       <c r="A112" s="3">
-        <v>10615</v>
+        <v>10791</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>238</v>
@@ -7320,12 +7322,12 @@
         <v>2014</v>
       </c>
       <c r="G112" s="3">
-        <v>5.8020339504492098</v>
+        <v>5.9694846146320897</v>
       </c>
     </row>
     <row r="113" outlineLevel="2">
       <c r="A113" s="2">
-        <v>1135</v>
+        <v>1153</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>240</v>
@@ -7343,12 +7345,12 @@
         <v>2014</v>
       </c>
       <c r="G113" s="2">
-        <v>14.137126870992599</v>
+        <v>14.6915953146197</v>
       </c>
     </row>
     <row r="114" outlineLevel="2">
       <c r="A114" s="3">
-        <v>8215</v>
+        <v>8351</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>242</v>
@@ -7366,12 +7368,12 @@
         <v>2014</v>
       </c>
       <c r="G114" s="3">
-        <v>21.823605664389699</v>
+        <v>21.8363053072406</v>
       </c>
     </row>
     <row r="115" outlineLevel="2">
       <c r="A115" s="2">
-        <v>10975</v>
+        <v>11157</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>244</v>
@@ -7389,7 +7391,7 @@
         <v>2014</v>
       </c>
       <c r="G115" s="2">
-        <v>9.9817837935229505</v>
+        <v>9.2096350525129793</v>
       </c>
     </row>
     <row r="116" outlineLevel="1">
@@ -7403,12 +7405,12 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2">
         <f>SUBTOTAL(1,G111:G115)</f>
-        <v>12.134331910166887</v>
+        <v>11.985800514910006</v>
       </c>
     </row>
     <row r="117" outlineLevel="2">
       <c r="A117" s="3">
-        <v>2395</v>
+        <v>2434</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>247</v>
@@ -7426,12 +7428,12 @@
         <v>2014</v>
       </c>
       <c r="G117" s="3">
-        <v>5.2414124738099099</v>
+        <v>5.1049203156887302</v>
       </c>
     </row>
     <row r="118" outlineLevel="2">
       <c r="A118" s="2">
-        <v>2455</v>
+        <v>2495</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>249</v>
@@ -7449,12 +7451,12 @@
         <v>2014</v>
       </c>
       <c r="G118" s="2">
-        <v>9.8798302770474695</v>
+        <v>9.5028067445809601</v>
       </c>
     </row>
     <row r="119" outlineLevel="2">
       <c r="A119" s="3">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>251</v>
@@ -7472,12 +7474,12 @@
         <v>2014</v>
       </c>
       <c r="G119" s="3">
-        <v>13.2191007102569</v>
+        <v>15.0186485489535</v>
       </c>
     </row>
     <row r="120" outlineLevel="2">
       <c r="A120" s="2">
-        <v>7195</v>
+        <v>7314</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>253</v>
@@ -7495,12 +7497,12 @@
         <v>2014</v>
       </c>
       <c r="G120" s="2">
-        <v>5.6662384151852097</v>
+        <v>5.9712423800179897</v>
       </c>
     </row>
     <row r="121" outlineLevel="2">
       <c r="A121" s="3">
-        <v>9835</v>
+        <v>9998</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>255</v>
@@ -7518,12 +7520,12 @@
         <v>2014</v>
       </c>
       <c r="G121" s="3">
-        <v>2.6684689852821402</v>
+        <v>2.5731716213785401</v>
       </c>
     </row>
     <row r="122" outlineLevel="2">
       <c r="A122" s="2">
-        <v>10375</v>
+        <v>10547</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>257</v>
@@ -7541,12 +7543,12 @@
         <v>2014</v>
       </c>
       <c r="G122" s="2">
-        <v>7.8702694982575503</v>
+        <v>7.2118121929025598</v>
       </c>
     </row>
     <row r="123" outlineLevel="2">
       <c r="A123" s="3">
-        <v>4735</v>
+        <v>4813</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>259</v>
@@ -7564,12 +7566,12 @@
         <v>2014</v>
       </c>
       <c r="G123" s="3">
-        <v>6.5133333632220403</v>
+        <v>5.7051939841663204</v>
       </c>
     </row>
     <row r="124" outlineLevel="2">
       <c r="A124" s="2">
-        <v>13855</v>
+        <v>14085</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>261</v>
@@ -7587,12 +7589,12 @@
         <v>2014</v>
       </c>
       <c r="G124" s="2">
-        <v>3.2524877994469401</v>
+        <v>2.8722298168001998</v>
       </c>
     </row>
     <row r="125" outlineLevel="2">
       <c r="A125" s="3">
-        <v>1915</v>
+        <v>1946</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>263</v>
@@ -7610,12 +7612,12 @@
         <v>2014</v>
       </c>
       <c r="G125" s="3">
-        <v>13.141350210409501</v>
+        <v>12.532967301796999</v>
       </c>
     </row>
     <row r="126" outlineLevel="2">
       <c r="A126" s="2">
-        <v>4915</v>
+        <v>4996</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>265</v>
@@ -7633,12 +7635,12 @@
         <v>2014</v>
       </c>
       <c r="G126" s="2">
-        <v>12.073109652819699</v>
+        <v>16.436698013656098</v>
       </c>
     </row>
     <row r="127" outlineLevel="2">
       <c r="A127" s="3">
-        <v>14695</v>
+        <v>14939</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>267</v>
@@ -7656,12 +7658,12 @@
         <v>2014</v>
       </c>
       <c r="G127" s="3">
-        <v>5.2352884386124998</v>
+        <v>4.3822156573238003</v>
       </c>
     </row>
     <row r="128" outlineLevel="2">
       <c r="A128" s="2">
-        <v>9955</v>
+        <v>10120</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>269</v>
@@ -7679,12 +7681,12 @@
         <v>2014</v>
       </c>
       <c r="G128" s="2">
-        <v>17.3567636901487</v>
+        <v>16.634585239776801</v>
       </c>
     </row>
     <row r="129" outlineLevel="2">
       <c r="A129" s="3">
-        <v>12355</v>
+        <v>12560</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>271</v>
@@ -7702,12 +7704,12 @@
         <v>2014</v>
       </c>
       <c r="G129" s="3">
-        <v>10.9846623422318</v>
+        <v>10.138222587159101</v>
       </c>
     </row>
     <row r="130" outlineLevel="2">
       <c r="A130" s="2">
-        <v>2575</v>
+        <v>2617</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>273</v>
@@ -7725,12 +7727,12 @@
         <v>2014</v>
       </c>
       <c r="G130" s="2">
-        <v>10.846396464930599</v>
+        <v>8.4723448043506693</v>
       </c>
     </row>
     <row r="131" outlineLevel="2">
       <c r="A131" s="3">
-        <v>12295</v>
+        <v>12499</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>275</v>
@@ -7748,12 +7750,12 @@
         <v>2014</v>
       </c>
       <c r="G131" s="3">
-        <v>11.143859711890601</v>
+        <v>11.9978632788909</v>
       </c>
     </row>
     <row r="132" outlineLevel="2">
       <c r="A132" s="2">
-        <v>10315</v>
+        <v>10486</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>277</v>
@@ -7771,12 +7773,12 @@
         <v>2014</v>
       </c>
       <c r="G132" s="2">
-        <v>6.3404851970539502</v>
+        <v>7.5807728516316297</v>
       </c>
     </row>
     <row r="133" outlineLevel="2">
       <c r="A133" s="3">
-        <v>2515</v>
+        <v>2556</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>279</v>
@@ -7794,12 +7796,12 @@
         <v>2014</v>
       </c>
       <c r="G133" s="3">
-        <v>2.1302199907594499</v>
+        <v>2.1826126890305702</v>
       </c>
     </row>
     <row r="134" outlineLevel="2">
       <c r="A134" s="2">
-        <v>12895</v>
+        <v>13109</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>281</v>
@@ -7817,12 +7819,12 @@
         <v>2014</v>
       </c>
       <c r="G134" s="2">
-        <v>34.620217485778902</v>
+        <v>22.5424273452835</v>
       </c>
     </row>
     <row r="135" outlineLevel="2">
       <c r="A135" s="3">
-        <v>15715</v>
+        <v>15976</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>283</v>
@@ -7840,12 +7842,12 @@
         <v>2014</v>
       </c>
       <c r="G135" s="3">
-        <v>4.8565692651680896</v>
+        <v>4.6451870597287499</v>
       </c>
     </row>
     <row r="136" outlineLevel="2">
       <c r="A136" s="2">
-        <v>4255</v>
+        <v>4325</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>285</v>
@@ -7863,12 +7865,12 @@
         <v>2014</v>
       </c>
       <c r="G136" s="2">
-        <v>3.0298532987460498</v>
+        <v>3.0695827472392501</v>
       </c>
     </row>
     <row r="137" outlineLevel="2">
       <c r="A137" s="3">
-        <v>10195</v>
+        <v>10364</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>287</v>
@@ -7886,12 +7888,12 @@
         <v>2014</v>
       </c>
       <c r="G137" s="3">
-        <v>13.343425714103001</v>
+        <v>13.094276269597099</v>
       </c>
     </row>
     <row r="138" outlineLevel="2">
       <c r="A138" s="2">
-        <v>1015</v>
+        <v>1031</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>289</v>
@@ -7909,7 +7911,7 @@
         <v>2014</v>
       </c>
       <c r="G138" s="2">
-        <v>5.0732450126131399</v>
+        <v>6.7981682406095603</v>
       </c>
     </row>
     <row r="139" outlineLevel="1">
@@ -7923,7 +7925,7 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5">
         <f>SUBTOTAL(1,G117:G138)</f>
-        <v>9.2948449089897345</v>
+        <v>8.8394522586619768</v>
       </c>
     </row>
     <row r="140">
@@ -7937,7 +7939,7 @@
       <c r="F140" s="5"/>
       <c r="G140" s="5">
         <f>SUBTOTAL(1,G2:G138)</f>
-        <v>10.333095983973292</v>
+        <v>10.250323113259618</v>
       </c>
     </row>
   </sheetData>
@@ -7955,12 +7957,12 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="9.140625"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.710938" customWidth="1"/>
-    <col min="4" max="4" width="25.003906" customWidth="1"/>
-    <col min="5" max="5" width="20.851562" customWidth="1"/>
+    <col min="2" max="2" width="15.425781" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="24.285156" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="12.28125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7988,7 +7990,7 @@
     </row>
     <row r="2" outlineLevel="2">
       <c r="A2" s="2">
-        <v>7495</v>
+        <v>7619</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -8006,12 +8008,12 @@
         <v>2014</v>
       </c>
       <c r="G2" s="2">
-        <v>6.3501289143159498</v>
+        <v>6.6785130503533798</v>
       </c>
     </row>
     <row r="3" outlineLevel="2">
       <c r="A3" s="3">
-        <v>8575</v>
+        <v>8717</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>66</v>
@@ -8034,7 +8036,7 @@
     </row>
     <row r="4" outlineLevel="2">
       <c r="A4" s="2">
-        <v>8515</v>
+        <v>8656</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>68</v>
@@ -8052,12 +8054,12 @@
         <v>2014</v>
       </c>
       <c r="G4" s="2">
-        <v>11.801846564495801</v>
+        <v>11.794277384301999</v>
       </c>
     </row>
     <row r="5" outlineLevel="2">
       <c r="A5" s="3">
-        <v>8635</v>
+        <v>8778</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>70</v>
@@ -8075,12 +8077,12 @@
         <v>2014</v>
       </c>
       <c r="G5" s="3">
-        <v>10.936907481914799</v>
+        <v>10.9536117071886</v>
       </c>
     </row>
     <row r="6" outlineLevel="2">
       <c r="A6" s="2">
-        <v>7555</v>
+        <v>7680</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>228</v>
@@ -8098,12 +8100,12 @@
         <v>2014</v>
       </c>
       <c r="G6" s="2">
-        <v>8.3564760582890099</v>
+        <v>7.6351779858525601</v>
       </c>
     </row>
     <row r="7" outlineLevel="2">
       <c r="A7" s="3">
-        <v>14995</v>
+        <v>15244</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>231</v>
@@ -8126,7 +8128,7 @@
     </row>
     <row r="8" outlineLevel="2">
       <c r="A8" s="2">
-        <v>7075</v>
+        <v>7192</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>45</v>
@@ -8149,7 +8151,7 @@
     </row>
     <row r="9" outlineLevel="2">
       <c r="A9" s="3">
-        <v>6895</v>
+        <v>7009</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>64</v>
@@ -8167,12 +8169,12 @@
         <v>2014</v>
       </c>
       <c r="G9" s="3">
-        <v>14.9393433841578</v>
+        <v>14.9907284103395</v>
       </c>
     </row>
     <row r="10" outlineLevel="2">
       <c r="A10" s="2">
-        <v>6835</v>
+        <v>6948</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>198</v>
@@ -8190,12 +8192,12 @@
         <v>2014</v>
       </c>
       <c r="G10" s="2">
-        <v>12.4027301695831</v>
+        <v>12.384749683531</v>
       </c>
     </row>
     <row r="11" outlineLevel="2">
       <c r="A11" s="3">
-        <v>6595</v>
+        <v>6704</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>60</v>
@@ -8218,7 +8220,7 @@
     </row>
     <row r="12" outlineLevel="2">
       <c r="A12" s="2">
-        <v>6775</v>
+        <v>6887</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>58</v>
@@ -8236,12 +8238,12 @@
         <v>2014</v>
       </c>
       <c r="G12" s="2">
-        <v>2.5516067507143898</v>
+        <v>2.55160110474637</v>
       </c>
     </row>
     <row r="13" outlineLevel="2">
       <c r="A13" s="3">
-        <v>5995</v>
+        <v>6094</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>56</v>
@@ -8259,12 +8261,12 @@
         <v>2014</v>
       </c>
       <c r="G13" s="3">
-        <v>11.0253900535672</v>
+        <v>11.0628765010226</v>
       </c>
     </row>
     <row r="14" outlineLevel="2">
       <c r="A14" s="2">
-        <v>5695</v>
+        <v>5789</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -8282,12 +8284,12 @@
         <v>2014</v>
       </c>
       <c r="G14" s="2">
-        <v>28.3086498915421</v>
+        <v>27.801110599928201</v>
       </c>
     </row>
     <row r="15" outlineLevel="2">
       <c r="A15" s="3">
-        <v>5275</v>
+        <v>5362</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>114</v>
@@ -8310,7 +8312,7 @@
     </row>
     <row r="16" outlineLevel="2">
       <c r="A16" s="2">
-        <v>3235</v>
+        <v>3288</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>142</v>
@@ -8328,12 +8330,12 @@
         <v>2014</v>
       </c>
       <c r="G16" s="2">
-        <v>12.486107901698</v>
+        <v>12.4386889136177</v>
       </c>
     </row>
     <row r="17" outlineLevel="2">
       <c r="A17" s="3">
-        <v>4555</v>
+        <v>4630</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>136</v>
@@ -8356,7 +8358,7 @@
     </row>
     <row r="18" outlineLevel="2">
       <c r="A18" s="2">
-        <v>9475</v>
+        <v>9632</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>218</v>
@@ -8374,12 +8376,12 @@
         <v>2014</v>
       </c>
       <c r="G18" s="2">
-        <v>18.7315389670567</v>
+        <v>18.7409428569756</v>
       </c>
     </row>
     <row r="19" outlineLevel="2">
       <c r="A19" s="3">
-        <v>4435</v>
+        <v>4508</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>132</v>
@@ -8397,12 +8399,12 @@
         <v>2014</v>
       </c>
       <c r="G19" s="3">
-        <v>6.6743625459797604</v>
+        <v>6.7205855128900698</v>
       </c>
     </row>
     <row r="20" outlineLevel="2">
       <c r="A20" s="2">
-        <v>10495</v>
+        <v>10669</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>112</v>
@@ -8425,7 +8427,7 @@
     </row>
     <row r="21" outlineLevel="2">
       <c r="A21" s="3">
-        <v>10555</v>
+        <v>10730</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>78</v>
@@ -8443,12 +8445,12 @@
         <v>2014</v>
       </c>
       <c r="G21" s="3">
-        <v>11.7976259660288</v>
+        <v>11.775689118754901</v>
       </c>
     </row>
     <row r="22" outlineLevel="2">
       <c r="A22" s="2">
-        <v>4795</v>
+        <v>4874</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>82</v>
@@ -8466,12 +8468,12 @@
         <v>2014</v>
       </c>
       <c r="G22" s="2">
-        <v>14.7172381997693</v>
+        <v>14.858234559761501</v>
       </c>
     </row>
     <row r="23" outlineLevel="2">
       <c r="A23" s="3">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>208</v>
@@ -8489,12 +8491,12 @@
         <v>2014</v>
       </c>
       <c r="G23" s="3">
-        <v>8.6968363664082098</v>
+        <v>9.6254251479762694</v>
       </c>
     </row>
     <row r="24" outlineLevel="2">
       <c r="A24" s="2">
-        <v>14455</v>
+        <v>14695</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>171</v>
@@ -8512,12 +8514,12 @@
         <v>2014</v>
       </c>
       <c r="G24" s="2">
-        <v>2.2873256035985601</v>
+        <v>2.0676317080184798</v>
       </c>
     </row>
     <row r="25" outlineLevel="2">
       <c r="A25" s="3">
-        <v>2155</v>
+        <v>2190</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>92</v>
@@ -8540,7 +8542,7 @@
     </row>
     <row r="26" outlineLevel="2">
       <c r="A26" s="2">
-        <v>13315</v>
+        <v>13536</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>94</v>
@@ -8558,12 +8560,12 @@
         <v>2014</v>
       </c>
       <c r="G26" s="2">
-        <v>9.3774402265855006</v>
+        <v>9.5007103448796197</v>
       </c>
     </row>
     <row r="27" outlineLevel="2">
       <c r="A27" s="3">
-        <v>4135</v>
+        <v>4203</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>96</v>
@@ -8581,12 +8583,12 @@
         <v>2014</v>
       </c>
       <c r="G27" s="3">
-        <v>13.677304429264501</v>
+        <v>13.6026856151363</v>
       </c>
     </row>
     <row r="28" outlineLevel="2">
       <c r="A28" s="2">
-        <v>13255</v>
+        <v>13475</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>98</v>
@@ -8604,12 +8606,12 @@
         <v>2014</v>
       </c>
       <c r="G28" s="2">
-        <v>9.5310086141069199</v>
+        <v>9.5388665220377007</v>
       </c>
     </row>
     <row r="29" outlineLevel="2">
       <c r="A29" s="3">
-        <v>13195</v>
+        <v>13414</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>100</v>
@@ -8627,12 +8629,12 @@
         <v>2014</v>
       </c>
       <c r="G29" s="3">
-        <v>9.8286814708089807</v>
+        <v>9.8503916168188006</v>
       </c>
     </row>
     <row r="30" outlineLevel="2">
       <c r="A30" s="2">
-        <v>12415</v>
+        <v>12621</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>41</v>
@@ -8650,12 +8652,12 @@
         <v>2014</v>
       </c>
       <c r="G30" s="2">
-        <v>16.910351941122801</v>
+        <v>16.4830958205483</v>
       </c>
     </row>
     <row r="31" outlineLevel="2">
       <c r="A31" s="3">
-        <v>12235</v>
+        <v>12438</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>216</v>
@@ -8673,12 +8675,12 @@
         <v>2014</v>
       </c>
       <c r="G31" s="3">
-        <v>7.6097087230025204</v>
+        <v>8.0694129254962004</v>
       </c>
     </row>
     <row r="32" outlineLevel="2">
       <c r="A32" s="2">
-        <v>11935</v>
+        <v>12133</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>212</v>
@@ -8696,12 +8698,12 @@
         <v>2014</v>
       </c>
       <c r="G32" s="2">
-        <v>6.8799888249657499</v>
+        <v>7.2014055315453698</v>
       </c>
     </row>
     <row r="33" outlineLevel="2">
       <c r="A33" s="3">
-        <v>11575</v>
+        <v>11767</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>108</v>
@@ -8719,12 +8721,12 @@
         <v>2014</v>
       </c>
       <c r="G33" s="3">
-        <v>14.1295033809615</v>
+        <v>14.127432762285199</v>
       </c>
     </row>
     <row r="34" outlineLevel="2">
       <c r="A34" s="2">
-        <v>11335</v>
+        <v>11523</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>110</v>
@@ -8742,12 +8744,12 @@
         <v>2014</v>
       </c>
       <c r="G34" s="2">
-        <v>10.355052378465899</v>
+        <v>10.355052378466</v>
       </c>
     </row>
     <row r="35" outlineLevel="2">
       <c r="A35" s="3">
-        <v>11035</v>
+        <v>11218</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>175</v>
@@ -8765,12 +8767,12 @@
         <v>2014</v>
       </c>
       <c r="G35" s="3">
-        <v>19.601615963386799</v>
+        <v>21.2038647179359</v>
       </c>
     </row>
     <row r="36" outlineLevel="2">
       <c r="A36" s="2">
-        <v>10855</v>
+        <v>11035</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>224</v>
@@ -8788,12 +8790,12 @@
         <v>2014</v>
       </c>
       <c r="G36" s="2">
-        <v>6.9447944148518097</v>
+        <v>6.4250315844702497</v>
       </c>
     </row>
     <row r="37" outlineLevel="2">
       <c r="A37" s="3">
-        <v>10735</v>
+        <v>10913</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>39</v>
@@ -8811,12 +8813,12 @@
         <v>2014</v>
       </c>
       <c r="G37" s="3">
-        <v>8.17138377461254</v>
+        <v>8.1749616155990594</v>
       </c>
     </row>
     <row r="38" outlineLevel="2">
       <c r="A38" s="2">
-        <v>4195</v>
+        <v>4264</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>118</v>
@@ -8834,12 +8836,12 @@
         <v>2014</v>
       </c>
       <c r="G38" s="2">
-        <v>6.3066836955783003</v>
+        <v>6.3440317023997199</v>
       </c>
     </row>
     <row r="39" outlineLevel="2">
       <c r="A39" s="3">
-        <v>14935</v>
+        <v>15183</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>181</v>
@@ -8857,12 +8859,12 @@
         <v>2014</v>
       </c>
       <c r="G39" s="3">
-        <v>15.201246940512</v>
+        <v>14.4973749429689</v>
       </c>
     </row>
     <row r="40" outlineLevel="2">
       <c r="A40" s="2">
-        <v>2275</v>
+        <v>2312</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>157</v>
@@ -8880,12 +8882,12 @@
         <v>2014</v>
       </c>
       <c r="G40" s="2">
-        <v>11.2087490872287</v>
+        <v>11.208749087227901</v>
       </c>
     </row>
     <row r="41" outlineLevel="2">
       <c r="A41" s="3">
-        <v>1795</v>
+        <v>1824</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>35</v>
@@ -8903,12 +8905,12 @@
         <v>2014</v>
       </c>
       <c r="G41" s="3">
-        <v>9.3141015437310308</v>
+        <v>9.3822418081158201</v>
       </c>
     </row>
     <row r="42" outlineLevel="2">
       <c r="A42" s="2">
-        <v>1255</v>
+        <v>1275</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>202</v>
@@ -8926,12 +8928,12 @@
         <v>2014</v>
       </c>
       <c r="G42" s="2">
-        <v>4.3724983509004902</v>
+        <v>4.8225034441192998</v>
       </c>
     </row>
     <row r="43" outlineLevel="2">
       <c r="A43" s="3">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>138</v>
@@ -8954,7 +8956,7 @@
     </row>
     <row r="44" outlineLevel="2">
       <c r="A44" s="2">
-        <v>2035</v>
+        <v>2068</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>233</v>
@@ -8972,12 +8974,12 @@
         <v>2014</v>
       </c>
       <c r="G44" s="2">
-        <v>5.7794883220611899</v>
+        <v>5.7931865033388403</v>
       </c>
     </row>
     <row r="45" outlineLevel="2">
       <c r="A45" s="3">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>51</v>
@@ -9000,7 +9002,7 @@
     </row>
     <row r="46" outlineLevel="2">
       <c r="A46" s="2">
-        <v>5875</v>
+        <v>5972</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>126</v>
@@ -9018,12 +9020,12 @@
         <v>2014</v>
       </c>
       <c r="G46" s="2">
-        <v>11.632762691818</v>
+        <v>11.6248288668409</v>
       </c>
     </row>
     <row r="47" outlineLevel="2">
       <c r="A47" s="3">
-        <v>2995</v>
+        <v>3044</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>153</v>
@@ -9041,12 +9043,12 @@
         <v>2014</v>
       </c>
       <c r="G47" s="3">
-        <v>2.2086693752139199</v>
+        <v>2.00613213814739</v>
       </c>
     </row>
     <row r="48" outlineLevel="2">
       <c r="A48" s="2">
-        <v>3115</v>
+        <v>3166</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>124</v>
@@ -9064,12 +9066,12 @@
         <v>2014</v>
       </c>
       <c r="G48" s="2">
-        <v>13.131959621290999</v>
+        <v>12.981743730680799</v>
       </c>
     </row>
     <row r="49" outlineLevel="2">
       <c r="A49" s="3">
-        <v>3175</v>
+        <v>3227</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>146</v>
@@ -9092,7 +9094,7 @@
     </row>
     <row r="50" outlineLevel="2">
       <c r="A50" s="2">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>128</v>
@@ -9110,12 +9112,12 @@
         <v>2014</v>
       </c>
       <c r="G50" s="2">
-        <v>9.4737500610031802</v>
+        <v>9.5428153253807597</v>
       </c>
     </row>
     <row r="51" outlineLevel="2">
       <c r="A51" s="3">
-        <v>3415</v>
+        <v>3471</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>134</v>
@@ -9147,12 +9149,12 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3">
         <f>SUBTOTAL(1,G2:G51)</f>
-        <v>11.16374491235206</v>
+        <v>11.18585500393416</v>
       </c>
     </row>
     <row r="53" outlineLevel="2">
       <c r="A53" s="2">
-        <v>2515</v>
+        <v>2556</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>279</v>
@@ -9170,12 +9172,12 @@
         <v>2014</v>
       </c>
       <c r="G53" s="2">
-        <v>2.1302199907594499</v>
+        <v>2.1826126890305702</v>
       </c>
     </row>
     <row r="54" outlineLevel="2">
       <c r="A54" s="3">
-        <v>1015</v>
+        <v>1031</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>289</v>
@@ -9193,12 +9195,12 @@
         <v>2014</v>
       </c>
       <c r="G54" s="3">
-        <v>5.0732450126131399</v>
+        <v>6.7981682406095603</v>
       </c>
     </row>
     <row r="55" outlineLevel="2">
       <c r="A55" s="2">
-        <v>9835</v>
+        <v>9998</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>255</v>
@@ -9216,12 +9218,12 @@
         <v>2014</v>
       </c>
       <c r="G55" s="2">
-        <v>2.6684689852821402</v>
+        <v>2.5731716213785401</v>
       </c>
     </row>
     <row r="56" outlineLevel="2">
       <c r="A56" s="3">
-        <v>10615</v>
+        <v>10791</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>238</v>
@@ -9239,12 +9241,12 @@
         <v>2014</v>
       </c>
       <c r="G56" s="3">
-        <v>5.8020339504492098</v>
+        <v>5.9694846146320897</v>
       </c>
     </row>
     <row r="57" outlineLevel="2">
       <c r="A57" s="2">
-        <v>13975</v>
+        <v>14207</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>90</v>
@@ -9262,12 +9264,12 @@
         <v>2014</v>
       </c>
       <c r="G57" s="2">
-        <v>8.0226275798468105</v>
+        <v>9.7192153740222906</v>
       </c>
     </row>
     <row r="58" outlineLevel="2">
       <c r="A58" s="3">
-        <v>14695</v>
+        <v>14939</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>267</v>
@@ -9285,12 +9287,12 @@
         <v>2014</v>
       </c>
       <c r="G58" s="3">
-        <v>5.2352884386124998</v>
+        <v>4.3822156573238003</v>
       </c>
     </row>
     <row r="59" outlineLevel="2">
       <c r="A59" s="2">
-        <v>12895</v>
+        <v>13109</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>281</v>
@@ -9308,12 +9310,12 @@
         <v>2014</v>
       </c>
       <c r="G59" s="2">
-        <v>34.620217485778902</v>
+        <v>22.5424273452835</v>
       </c>
     </row>
     <row r="60" outlineLevel="2">
       <c r="A60" s="3">
-        <v>4255</v>
+        <v>4325</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>285</v>
@@ -9331,12 +9333,12 @@
         <v>2014</v>
       </c>
       <c r="G60" s="3">
-        <v>3.0298532987460498</v>
+        <v>3.0695827472392501</v>
       </c>
     </row>
     <row r="61" outlineLevel="2">
       <c r="A61" s="2">
-        <v>5935</v>
+        <v>6033</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>187</v>
@@ -9354,12 +9356,12 @@
         <v>2014</v>
       </c>
       <c r="G61" s="2">
-        <v>4.4463864124600398</v>
+        <v>4.3663820614918603</v>
       </c>
     </row>
     <row r="62" outlineLevel="2">
       <c r="A62" s="3">
-        <v>10315</v>
+        <v>10486</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>277</v>
@@ -9377,12 +9379,12 @@
         <v>2014</v>
       </c>
       <c r="G62" s="3">
-        <v>6.3404851970539502</v>
+        <v>7.5807728516316297</v>
       </c>
     </row>
     <row r="63" outlineLevel="2">
       <c r="A63" s="2">
-        <v>13855</v>
+        <v>14085</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>261</v>
@@ -9400,7 +9402,7 @@
         <v>2014</v>
       </c>
       <c r="G63" s="2">
-        <v>3.2524877994469401</v>
+        <v>2.8722298168001998</v>
       </c>
     </row>
     <row r="64" outlineLevel="1">
@@ -9414,12 +9416,12 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2">
         <f>SUBTOTAL(1,G53:G63)</f>
-        <v>7.3292103773681028</v>
+        <v>6.5505693654039359</v>
       </c>
     </row>
     <row r="65" outlineLevel="2">
       <c r="A65" s="3">
-        <v>10435</v>
+        <v>10608</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>179</v>
@@ -9437,12 +9439,12 @@
         <v>2014</v>
       </c>
       <c r="G65" s="3">
-        <v>8.3021285816483807</v>
+        <v>8.2880791547284307</v>
       </c>
     </row>
     <row r="66" outlineLevel="2">
       <c r="A66" s="2">
-        <v>10375</v>
+        <v>10547</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>257</v>
@@ -9460,12 +9462,12 @@
         <v>2014</v>
       </c>
       <c r="G66" s="2">
-        <v>7.8702694982575503</v>
+        <v>7.2118121929025598</v>
       </c>
     </row>
     <row r="67" outlineLevel="2">
       <c r="A67" s="3">
-        <v>1135</v>
+        <v>1153</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>240</v>
@@ -9483,12 +9485,12 @@
         <v>2014</v>
       </c>
       <c r="G67" s="3">
-        <v>14.137126870992599</v>
+        <v>14.6915953146197</v>
       </c>
     </row>
     <row r="68" outlineLevel="2">
       <c r="A68" s="2">
-        <v>12355</v>
+        <v>12560</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>271</v>
@@ -9506,12 +9508,12 @@
         <v>2014</v>
       </c>
       <c r="G68" s="2">
-        <v>10.9846623422318</v>
+        <v>10.138222587159101</v>
       </c>
     </row>
     <row r="69" outlineLevel="2">
       <c r="A69" s="3">
-        <v>10975</v>
+        <v>11157</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>244</v>
@@ -9529,12 +9531,12 @@
         <v>2014</v>
       </c>
       <c r="G69" s="3">
-        <v>9.9817837935229505</v>
+        <v>9.2096350525129793</v>
       </c>
     </row>
     <row r="70" outlineLevel="2">
       <c r="A70" s="2">
-        <v>12595</v>
+        <v>12804</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>191</v>
@@ -9552,12 +9554,12 @@
         <v>2014</v>
       </c>
       <c r="G70" s="2">
-        <v>11.2037779607292</v>
+        <v>11.1990339183287</v>
       </c>
     </row>
     <row r="71" outlineLevel="2">
       <c r="A71" s="3">
-        <v>9535</v>
+        <v>9693</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>43</v>
@@ -9575,12 +9577,12 @@
         <v>2014</v>
       </c>
       <c r="G71" s="3">
-        <v>13.5541897985856</v>
+        <v>11.495900610069</v>
       </c>
     </row>
     <row r="72" outlineLevel="2">
       <c r="A72" s="2">
-        <v>11155</v>
+        <v>11340</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>29</v>
@@ -9598,12 +9600,12 @@
         <v>2014</v>
       </c>
       <c r="G72" s="2">
-        <v>14.6126828603155</v>
+        <v>14.6762213765242</v>
       </c>
     </row>
     <row r="73" outlineLevel="2">
       <c r="A73" s="3">
-        <v>8815</v>
+        <v>8961</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>222</v>
@@ -9621,12 +9623,12 @@
         <v>2014</v>
       </c>
       <c r="G73" s="3">
-        <v>13.7268829117249</v>
+        <v>12.0855760934295</v>
       </c>
     </row>
     <row r="74" outlineLevel="2">
       <c r="A74" s="2">
-        <v>1615</v>
+        <v>1641</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>167</v>
@@ -9644,12 +9646,12 @@
         <v>2014</v>
       </c>
       <c r="G74" s="2">
-        <v>8.4727547118846207</v>
+        <v>9.0685064754372</v>
       </c>
     </row>
     <row r="75" outlineLevel="2">
       <c r="A75" s="3">
-        <v>9715</v>
+        <v>9876</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>31</v>
@@ -9667,12 +9669,12 @@
         <v>2014</v>
       </c>
       <c r="G75" s="3">
-        <v>6.5235994615858797</v>
+        <v>6.0479679083672098</v>
       </c>
     </row>
     <row r="76" outlineLevel="2">
       <c r="A76" s="2">
-        <v>8935</v>
+        <v>9083</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>62</v>
@@ -9690,12 +9692,12 @@
         <v>2014</v>
       </c>
       <c r="G76" s="2">
-        <v>6.5009120488392496</v>
+        <v>7.6384207164340401</v>
       </c>
     </row>
     <row r="77" outlineLevel="2">
       <c r="A77" s="3">
-        <v>5755</v>
+        <v>5850</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>189</v>
@@ -9713,12 +9715,12 @@
         <v>2014</v>
       </c>
       <c r="G77" s="3">
-        <v>7.3555436109512504</v>
+        <v>7.4466687073662898</v>
       </c>
     </row>
     <row r="78" outlineLevel="2">
       <c r="A78" s="2">
-        <v>7315</v>
+        <v>7436</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>33</v>
@@ -9736,12 +9738,12 @@
         <v>2014</v>
       </c>
       <c r="G78" s="2">
-        <v>7.91821835852096</v>
+        <v>7.6416606386720796</v>
       </c>
     </row>
     <row r="79" outlineLevel="2">
       <c r="A79" s="3">
-        <v>2455</v>
+        <v>2495</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>249</v>
@@ -9759,12 +9761,12 @@
         <v>2014</v>
       </c>
       <c r="G79" s="3">
-        <v>9.8798302770474695</v>
+        <v>9.5028067445809601</v>
       </c>
     </row>
     <row r="80" outlineLevel="2">
       <c r="A80" s="2">
-        <v>2395</v>
+        <v>2434</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>247</v>
@@ -9782,12 +9784,12 @@
         <v>2014</v>
       </c>
       <c r="G80" s="2">
-        <v>5.2414124738099099</v>
+        <v>5.1049203156887302</v>
       </c>
     </row>
     <row r="81" outlineLevel="2">
       <c r="A81" s="3">
-        <v>4915</v>
+        <v>4996</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>265</v>
@@ -9805,12 +9807,12 @@
         <v>2014</v>
       </c>
       <c r="G81" s="3">
-        <v>12.073109652819699</v>
+        <v>16.436698013656098</v>
       </c>
     </row>
     <row r="82" outlineLevel="2">
       <c r="A82" s="2">
-        <v>6475</v>
+        <v>6582</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>236</v>
@@ -9828,12 +9830,12 @@
         <v>2014</v>
       </c>
       <c r="G82" s="2">
-        <v>8.9271092714799707</v>
+        <v>8.2219822855446605</v>
       </c>
     </row>
     <row r="83" outlineLevel="2">
       <c r="A83" s="3">
-        <v>6295</v>
+        <v>6399</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>47</v>
@@ -9851,12 +9853,12 @@
         <v>2014</v>
       </c>
       <c r="G83" s="3">
-        <v>11.958339492257201</v>
+        <v>11.627929853255401</v>
       </c>
     </row>
     <row r="84" outlineLevel="2">
       <c r="A84" s="2">
-        <v>14515</v>
+        <v>14756</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>206</v>
@@ -9874,12 +9876,12 @@
         <v>2014</v>
       </c>
       <c r="G84" s="2">
-        <v>12.057296190985801</v>
+        <v>10.990166505343</v>
       </c>
     </row>
     <row r="85" outlineLevel="2">
       <c r="A85" s="3">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>251</v>
@@ -9897,12 +9899,12 @@
         <v>2014</v>
       </c>
       <c r="G85" s="3">
-        <v>13.2191007102569</v>
+        <v>15.0186485489535</v>
       </c>
     </row>
     <row r="86" outlineLevel="2">
       <c r="A86" s="2">
-        <v>7195</v>
+        <v>7314</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>253</v>
@@ -9920,12 +9922,12 @@
         <v>2014</v>
       </c>
       <c r="G86" s="2">
-        <v>5.6662384151852097</v>
+        <v>5.9712423800179897</v>
       </c>
     </row>
     <row r="87" outlineLevel="2">
       <c r="A87" s="3">
-        <v>2575</v>
+        <v>2617</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>273</v>
@@ -9943,12 +9945,12 @@
         <v>2014</v>
       </c>
       <c r="G87" s="3">
-        <v>10.846396464930599</v>
+        <v>8.4723448043506693</v>
       </c>
     </row>
     <row r="88" outlineLevel="2">
       <c r="A88" s="2">
-        <v>3955</v>
+        <v>4020</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>214</v>
@@ -9966,12 +9968,12 @@
         <v>2014</v>
       </c>
       <c r="G88" s="2">
-        <v>12.811121433041301</v>
+        <v>13.167350041173099</v>
       </c>
     </row>
     <row r="89" outlineLevel="2">
       <c r="A89" s="3">
-        <v>14815</v>
+        <v>15061</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>84</v>
@@ -9989,12 +9991,12 @@
         <v>2014</v>
       </c>
       <c r="G89" s="3">
-        <v>3.5442821519410601</v>
+        <v>4.3714363481506897</v>
       </c>
     </row>
     <row r="90" outlineLevel="2">
       <c r="A90" s="2">
-        <v>7255</v>
+        <v>7375</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>72</v>
@@ -10012,12 +10014,12 @@
         <v>2014</v>
       </c>
       <c r="G90" s="2">
-        <v>5.1614016977375599</v>
+        <v>6.5833550833512504</v>
       </c>
     </row>
     <row r="91" outlineLevel="2">
       <c r="A91" s="3">
-        <v>12295</v>
+        <v>12499</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>275</v>
@@ -10035,7 +10037,7 @@
         <v>2014</v>
       </c>
       <c r="G91" s="3">
-        <v>11.143859711890601</v>
+        <v>11.9978632788909</v>
       </c>
     </row>
     <row r="92" outlineLevel="1">
@@ -10049,12 +10051,12 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3">
         <f>SUBTOTAL(1,G65:G91)</f>
-        <v>9.7657048427101376</v>
+        <v>9.7891127759077037</v>
       </c>
     </row>
     <row r="93" outlineLevel="2">
       <c r="A93" s="2">
-        <v>14575</v>
+        <v>14817</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>88</v>
@@ -10072,12 +10074,12 @@
         <v>2014</v>
       </c>
       <c r="G93" s="2">
-        <v>15.229634545109899</v>
+        <v>15.2296345449426</v>
       </c>
     </row>
     <row r="94" outlineLevel="2">
       <c r="A94" s="3">
-        <v>11995</v>
+        <v>12194</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>106</v>
@@ -10095,12 +10097,12 @@
         <v>2014</v>
       </c>
       <c r="G94" s="3">
-        <v>12.957054352097501</v>
+        <v>12.9570154582313</v>
       </c>
     </row>
     <row r="95" outlineLevel="2">
       <c r="A95" s="2">
-        <v>12055</v>
+        <v>12255</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>104</v>
@@ -10118,12 +10120,12 @@
         <v>2014</v>
       </c>
       <c r="G95" s="2">
-        <v>5.2920889117701497</v>
+        <v>5.2941714849891897</v>
       </c>
     </row>
     <row r="96" outlineLevel="2">
       <c r="A96" s="3">
-        <v>1435</v>
+        <v>1458</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>130</v>
@@ -10141,12 +10143,12 @@
         <v>2014</v>
       </c>
       <c r="G96" s="3">
-        <v>6.4708047213014597</v>
+        <v>6.4728619326794004</v>
       </c>
     </row>
     <row r="97" outlineLevel="2">
       <c r="A97" s="2">
-        <v>15715</v>
+        <v>15976</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>283</v>
@@ -10164,12 +10166,12 @@
         <v>2014</v>
       </c>
       <c r="G97" s="2">
-        <v>4.8565692651680896</v>
+        <v>4.6451870597287499</v>
       </c>
     </row>
     <row r="98" outlineLevel="2">
       <c r="A98" s="3">
-        <v>12775</v>
+        <v>12987</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>102</v>
@@ -10187,12 +10189,12 @@
         <v>2014</v>
       </c>
       <c r="G98" s="3">
-        <v>7.8838939899120799</v>
+        <v>7.8838987651725301</v>
       </c>
     </row>
     <row r="99" outlineLevel="2">
       <c r="A99" s="2">
-        <v>14035</v>
+        <v>14268</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>86</v>
@@ -10210,12 +10212,12 @@
         <v>2014</v>
       </c>
       <c r="G99" s="2">
-        <v>3.0948861089844901</v>
+        <v>2.7569707468739102</v>
       </c>
     </row>
     <row r="100" outlineLevel="2">
       <c r="A100" s="3">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>148</v>
@@ -10233,12 +10235,12 @@
         <v>2014</v>
       </c>
       <c r="G100" s="3">
-        <v>11.8561751802562</v>
+        <v>11.6131627655112</v>
       </c>
     </row>
     <row r="101" outlineLevel="2">
       <c r="A101" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>173</v>
@@ -10256,12 +10258,12 @@
         <v>2014</v>
       </c>
       <c r="G101" s="2">
-        <v>9.8566903101176404</v>
+        <v>9.6968078091358407</v>
       </c>
     </row>
     <row r="102" outlineLevel="2">
       <c r="A102" s="3">
-        <v>13915</v>
+        <v>14146</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>49</v>
@@ -10279,12 +10281,12 @@
         <v>2014</v>
       </c>
       <c r="G102" s="3">
-        <v>7.9707074567669398</v>
+        <v>7.8619592883568101</v>
       </c>
     </row>
     <row r="103" outlineLevel="2">
       <c r="A103" s="2">
-        <v>3535</v>
+        <v>3593</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>210</v>
@@ -10302,12 +10304,12 @@
         <v>2014</v>
       </c>
       <c r="G103" s="2">
-        <v>10.7846775038301</v>
+        <v>9.7949868737997097</v>
       </c>
     </row>
     <row r="104" outlineLevel="2">
       <c r="A104" s="3">
-        <v>13135</v>
+        <v>13353</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>169</v>
@@ -10325,12 +10327,12 @@
         <v>2014</v>
       </c>
       <c r="G104" s="3">
-        <v>12.8419744425891</v>
+        <v>13.8386248241867</v>
       </c>
     </row>
     <row r="105" outlineLevel="2">
       <c r="A105" s="2">
-        <v>8215</v>
+        <v>8351</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>242</v>
@@ -10348,12 +10350,12 @@
         <v>2014</v>
       </c>
       <c r="G105" s="2">
-        <v>21.823605664389699</v>
+        <v>21.8363053072406</v>
       </c>
     </row>
     <row r="106" outlineLevel="2">
       <c r="A106" s="3">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>144</v>
@@ -10371,12 +10373,12 @@
         <v>2014</v>
       </c>
       <c r="G106" s="3">
-        <v>8.2734441014301296</v>
+        <v>9.8797048615707297</v>
       </c>
     </row>
     <row r="107" outlineLevel="2">
       <c r="A107" s="2">
-        <v>10195</v>
+        <v>10364</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>287</v>
@@ -10394,12 +10396,12 @@
         <v>2014</v>
       </c>
       <c r="G107" s="2">
-        <v>13.343425714103001</v>
+        <v>13.094276269597099</v>
       </c>
     </row>
     <row r="108" outlineLevel="2">
       <c r="A108" s="3">
-        <v>11635</v>
+        <v>11828</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>161</v>
@@ -10417,12 +10419,12 @@
         <v>2014</v>
       </c>
       <c r="G108" s="3">
-        <v>14.668933465392</v>
+        <v>14.5906742116443</v>
       </c>
     </row>
     <row r="109" outlineLevel="2">
       <c r="A109" s="2">
-        <v>3895</v>
+        <v>3959</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>183</v>
@@ -10440,12 +10442,12 @@
         <v>2014</v>
       </c>
       <c r="G109" s="2">
-        <v>12.9185884220571</v>
+        <v>13.1761912785825</v>
       </c>
     </row>
     <row r="110" outlineLevel="2">
       <c r="A110" s="3">
-        <v>3475</v>
+        <v>3532</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>185</v>
@@ -10463,12 +10465,12 @@
         <v>2014</v>
       </c>
       <c r="G110" s="3">
-        <v>18.219900041541599</v>
+        <v>17.923781625957002</v>
       </c>
     </row>
     <row r="111" outlineLevel="2">
       <c r="A111" s="2">
-        <v>4735</v>
+        <v>4813</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>259</v>
@@ -10486,12 +10488,12 @@
         <v>2014</v>
       </c>
       <c r="G111" s="2">
-        <v>6.5133333632220403</v>
+        <v>5.7051939841663204</v>
       </c>
     </row>
     <row r="112" outlineLevel="2">
       <c r="A112" s="3">
-        <v>4855</v>
+        <v>4935</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>140</v>
@@ -10509,12 +10511,12 @@
         <v>2014</v>
       </c>
       <c r="G112" s="3">
-        <v>7.8489885574624703</v>
+        <v>9.8075188000238391</v>
       </c>
     </row>
     <row r="113" outlineLevel="2">
       <c r="A113" s="2">
-        <v>5455</v>
+        <v>5545</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>159</v>
@@ -10532,12 +10534,12 @@
         <v>2014</v>
       </c>
       <c r="G113" s="2">
-        <v>9.09844355782778</v>
+        <v>8.9842198370747202</v>
       </c>
     </row>
     <row r="114" outlineLevel="2">
       <c r="A114" s="3">
-        <v>6655</v>
+        <v>6765</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>204</v>
@@ -10555,12 +10557,12 @@
         <v>2014</v>
       </c>
       <c r="G114" s="3">
-        <v>5.9148650233483</v>
+        <v>4.9783588178640601</v>
       </c>
     </row>
     <row r="115" outlineLevel="2">
       <c r="A115" s="2">
-        <v>6715</v>
+        <v>6826</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>200</v>
@@ -10578,12 +10580,12 @@
         <v>2014</v>
       </c>
       <c r="G115" s="2">
-        <v>11.0926978781243</v>
+        <v>9.9221296578637403</v>
       </c>
     </row>
     <row r="116" outlineLevel="2">
       <c r="A116" s="3">
-        <v>2815</v>
+        <v>2861</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>155</v>
@@ -10601,12 +10603,12 @@
         <v>2014</v>
       </c>
       <c r="G116" s="3">
-        <v>14.7284256551486</v>
+        <v>15.2715482724736</v>
       </c>
     </row>
     <row r="117" outlineLevel="2">
       <c r="A117" s="2">
-        <v>6955</v>
+        <v>7070</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>193</v>
@@ -10624,12 +10626,12 @@
         <v>2014</v>
       </c>
       <c r="G117" s="2">
-        <v>8.6742774657602606</v>
+        <v>8.7466406937768593</v>
       </c>
     </row>
     <row r="118" outlineLevel="2">
       <c r="A118" s="3">
-        <v>7015</v>
+        <v>7131</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>196</v>
@@ -10647,12 +10649,12 @@
         <v>2014</v>
       </c>
       <c r="G118" s="3">
-        <v>9.8297564183978796</v>
+        <v>9.8699009765868499</v>
       </c>
     </row>
     <row r="119" outlineLevel="2">
       <c r="A119" s="2">
-        <v>7135</v>
+        <v>7253</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>74</v>
@@ -10670,12 +10672,12 @@
         <v>2014</v>
       </c>
       <c r="G119" s="2">
-        <v>5.62038297316355</v>
+        <v>5.5757576188729301</v>
       </c>
     </row>
     <row r="120" outlineLevel="2">
       <c r="A120" s="3">
-        <v>2635</v>
+        <v>2678</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>151</v>
@@ -10693,12 +10695,12 @@
         <v>2014</v>
       </c>
       <c r="G120" s="3">
-        <v>18.808340212706401</v>
+        <v>18.3786365531125</v>
       </c>
     </row>
     <row r="121" outlineLevel="2">
       <c r="A121" s="2">
-        <v>15595</v>
+        <v>15854</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>76</v>
@@ -10716,12 +10718,12 @@
         <v>2014</v>
       </c>
       <c r="G121" s="2">
-        <v>7.5814248440730303</v>
+        <v>7.41653866509645</v>
       </c>
     </row>
     <row r="122" outlineLevel="2">
       <c r="A122" s="3">
-        <v>2335</v>
+        <v>2373</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>25</v>
@@ -10739,12 +10741,12 @@
         <v>2014</v>
       </c>
       <c r="G122" s="3">
-        <v>6.0116343724226704</v>
+        <v>5.6107676211670698</v>
       </c>
     </row>
     <row r="123" outlineLevel="2">
       <c r="A123" s="2">
-        <v>7735</v>
+        <v>7863</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>226</v>
@@ -10762,12 +10764,12 @@
         <v>2014</v>
       </c>
       <c r="G123" s="2">
-        <v>10.905040676304001</v>
+        <v>12.5574674628511</v>
       </c>
     </row>
     <row r="124" outlineLevel="2">
       <c r="A124" s="3">
-        <v>7855</v>
+        <v>7985</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>220</v>
@@ -10785,12 +10787,12 @@
         <v>2014</v>
       </c>
       <c r="G124" s="3">
-        <v>6.0066208767820797</v>
+        <v>5.0924915782773699</v>
       </c>
     </row>
     <row r="125" outlineLevel="2">
       <c r="A125" s="2">
-        <v>10075</v>
+        <v>10242</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>37</v>
@@ -10808,12 +10810,12 @@
         <v>2014</v>
       </c>
       <c r="G125" s="2">
-        <v>8.6152434542178398</v>
+        <v>8.19313128978248</v>
       </c>
     </row>
     <row r="126" outlineLevel="2">
       <c r="A126" s="3">
-        <v>9955</v>
+        <v>10120</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>269</v>
@@ -10831,12 +10833,12 @@
         <v>2014</v>
       </c>
       <c r="G126" s="3">
-        <v>17.3567636901487</v>
+        <v>16.634585239776801</v>
       </c>
     </row>
     <row r="127" outlineLevel="2">
       <c r="A127" s="2">
-        <v>9175</v>
+        <v>9327</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>177</v>
@@ -10854,12 +10856,12 @@
         <v>2014</v>
       </c>
       <c r="G127" s="2">
-        <v>11.554063081539001</v>
+        <v>11.5540630815391</v>
       </c>
     </row>
     <row r="128" outlineLevel="2">
       <c r="A128" s="3">
-        <v>9655</v>
+        <v>9815</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>54</v>
@@ -10877,12 +10879,12 @@
         <v>2014</v>
       </c>
       <c r="G128" s="3">
-        <v>9.9925018727164492</v>
+        <v>9.9925116937175904</v>
       </c>
     </row>
     <row r="129" outlineLevel="2">
       <c r="A129" s="2">
-        <v>1195</v>
+        <v>1214</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>120</v>
@@ -10900,12 +10902,12 @@
         <v>2014</v>
       </c>
       <c r="G129" s="2">
-        <v>7.0769741631531398</v>
+        <v>7.0855273238507399</v>
       </c>
     </row>
     <row r="130" outlineLevel="2">
       <c r="A130" s="3">
-        <v>9355</v>
+        <v>9510</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>80</v>
@@ -10923,12 +10925,12 @@
         <v>2014</v>
       </c>
       <c r="G130" s="3">
-        <v>10.5895835357781</v>
+        <v>10.5896117702995</v>
       </c>
     </row>
     <row r="131" outlineLevel="2">
       <c r="A131" s="2">
-        <v>1675</v>
+        <v>1702</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>165</v>
@@ -10946,12 +10948,12 @@
         <v>2014</v>
       </c>
       <c r="G131" s="2">
-        <v>10.9381077444546</v>
+        <v>10.510285890473501</v>
       </c>
     </row>
     <row r="132" outlineLevel="2">
       <c r="A132" s="3">
-        <v>1915</v>
+        <v>1946</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>263</v>
@@ -10969,12 +10971,12 @@
         <v>2014</v>
       </c>
       <c r="G132" s="3">
-        <v>13.141350210409501</v>
+        <v>12.532967301796999</v>
       </c>
     </row>
     <row r="133" outlineLevel="2">
       <c r="A133" s="2">
-        <v>1375</v>
+        <v>1397</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>122</v>
@@ -10992,12 +10994,12 @@
         <v>2014</v>
       </c>
       <c r="G133" s="2">
-        <v>5.0883708198424102</v>
+        <v>5.0883717472027303</v>
       </c>
     </row>
     <row r="134" outlineLevel="2">
       <c r="A134" s="3">
-        <v>11095</v>
+        <v>11279</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>163</v>
@@ -11015,12 +11017,12 @@
         <v>2014</v>
       </c>
       <c r="G134" s="3">
-        <v>15.8959064602442</v>
+        <v>14.5659749793173</v>
       </c>
     </row>
     <row r="135" outlineLevel="2">
       <c r="A135" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>116</v>
@@ -11038,7 +11040,7 @@
         <v>2014</v>
       </c>
       <c r="G135" s="2">
-        <v>13.9268322746106</v>
+        <v>13.926853706187099</v>
       </c>
     </row>
     <row r="136" outlineLevel="1">
@@ -11052,7 +11054,7 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5">
         <f>SUBTOTAL(1,G93:G135)</f>
-        <v>10.491929846015701</v>
+        <v>10.398541155147706</v>
       </c>
     </row>
     <row r="137">
@@ -11066,7 +11068,7 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5">
         <f>SUBTOTAL(1,G2:G135)</f>
-        <v>10.333095983973291</v>
+        <v>10.250323113259626</v>
       </c>
     </row>
   </sheetData>
@@ -11081,14 +11083,15 @@
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.710938" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.003906" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.851562" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.003906" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.425781" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.285156" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.2851562" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11116,7 +11119,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
@@ -11134,12 +11137,12 @@
         <v>2014</v>
       </c>
       <c r="G2">
-        <v>13.9268322746106</v>
+        <v>13.926853706187099</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3535</v>
+        <v>3593</v>
       </c>
       <c r="B3" t="s">
         <v>210</v>
@@ -11157,12 +11160,12 @@
         <v>2014</v>
       </c>
       <c r="G3">
-        <v>10.7846775038301</v>
+        <v>9.7949868737997097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
         <v>251</v>
@@ -11180,12 +11183,12 @@
         <v>2014</v>
       </c>
       <c r="G4">
-        <v>13.2191007102569</v>
+        <v>15.0186485489535</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
         <v>173</v>
@@ -11203,12 +11206,12 @@
         <v>2014</v>
       </c>
       <c r="G5">
-        <v>9.8566903101176404</v>
+        <v>9.6968078091358407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="B6" t="s">
         <v>144</v>
@@ -11226,12 +11229,12 @@
         <v>2014</v>
       </c>
       <c r="G6">
-        <v>8.2734441014301296</v>
+        <v>9.8797048615707297</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
@@ -11254,7 +11257,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="B8" t="s">
         <v>138</v>
@@ -11277,7 +11280,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="B9" t="s">
         <v>148</v>
@@ -11295,12 +11298,12 @@
         <v>2014</v>
       </c>
       <c r="G9">
-        <v>11.8561751802562</v>
+        <v>11.6131627655112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1255</v>
+        <v>1275</v>
       </c>
       <c r="B10" t="s">
         <v>202</v>
@@ -11318,12 +11321,12 @@
         <v>2014</v>
       </c>
       <c r="G10">
-        <v>4.3724983509004902</v>
+        <v>4.8225034441192998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1135</v>
+        <v>1153</v>
       </c>
       <c r="B11" t="s">
         <v>240</v>
@@ -11341,12 +11344,12 @@
         <v>2014</v>
       </c>
       <c r="G11">
-        <v>14.137126870992599</v>
+        <v>14.6915953146197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1435</v>
+        <v>1458</v>
       </c>
       <c r="B12" t="s">
         <v>130</v>
@@ -11364,12 +11367,12 @@
         <v>2014</v>
       </c>
       <c r="G12">
-        <v>6.4708047213014597</v>
+        <v>6.4728619326794004</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B13" t="s">
         <v>128</v>
@@ -11387,12 +11390,12 @@
         <v>2014</v>
       </c>
       <c r="G13">
-        <v>9.4737500610031802</v>
+        <v>9.5428153253807597</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1015</v>
+        <v>1031</v>
       </c>
       <c r="B14" t="s">
         <v>289</v>
@@ -11410,12 +11413,12 @@
         <v>2014</v>
       </c>
       <c r="G14">
-        <v>5.0732450126131399</v>
+        <v>6.7981682406095603</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1615</v>
+        <v>1641</v>
       </c>
       <c r="B15" t="s">
         <v>167</v>
@@ -11433,12 +11436,12 @@
         <v>2014</v>
       </c>
       <c r="G15">
-        <v>8.4727547118846207</v>
+        <v>9.0685064754372</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1375</v>
+        <v>1397</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -11456,12 +11459,12 @@
         <v>2014</v>
       </c>
       <c r="G16">
-        <v>5.0883708198424102</v>
+        <v>5.0883717472027303</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1915</v>
+        <v>1946</v>
       </c>
       <c r="B17" t="s">
         <v>263</v>
@@ -11479,12 +11482,12 @@
         <v>2014</v>
       </c>
       <c r="G17">
-        <v>13.141350210409501</v>
+        <v>12.532967301796999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1675</v>
+        <v>1702</v>
       </c>
       <c r="B18" t="s">
         <v>165</v>
@@ -11502,12 +11505,12 @@
         <v>2014</v>
       </c>
       <c r="G18">
-        <v>10.9381077444546</v>
+        <v>10.510285890473501</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1795</v>
+        <v>1824</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -11525,12 +11528,12 @@
         <v>2014</v>
       </c>
       <c r="G19">
-        <v>9.3141015437310308</v>
+        <v>9.3822418081158201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1195</v>
+        <v>1214</v>
       </c>
       <c r="B20" t="s">
         <v>120</v>
@@ -11548,12 +11551,12 @@
         <v>2014</v>
       </c>
       <c r="G20">
-        <v>7.0769741631531398</v>
+        <v>7.0855273238507399</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>7315</v>
+        <v>7436</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -11571,12 +11574,12 @@
         <v>2014</v>
       </c>
       <c r="G21">
-        <v>7.91821835852096</v>
+        <v>7.6416606386720796</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2455</v>
+        <v>2495</v>
       </c>
       <c r="B22" t="s">
         <v>249</v>
@@ -11594,12 +11597,12 @@
         <v>2014</v>
       </c>
       <c r="G22">
-        <v>9.8798302770474695</v>
+        <v>9.5028067445809601</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2035</v>
+        <v>2068</v>
       </c>
       <c r="B23" t="s">
         <v>233</v>
@@ -11617,12 +11620,12 @@
         <v>2014</v>
       </c>
       <c r="G23">
-        <v>5.7794883220611899</v>
+        <v>5.7931865033388403</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2275</v>
+        <v>2312</v>
       </c>
       <c r="B24" t="s">
         <v>157</v>
@@ -11640,12 +11643,12 @@
         <v>2014</v>
       </c>
       <c r="G24">
-        <v>11.2087490872287</v>
+        <v>11.208749087227901</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2335</v>
+        <v>2373</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -11663,12 +11666,12 @@
         <v>2014</v>
       </c>
       <c r="G25">
-        <v>6.0116343724226704</v>
+        <v>5.6107676211670698</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2635</v>
+        <v>2678</v>
       </c>
       <c r="B26" t="s">
         <v>151</v>
@@ -11686,12 +11689,12 @@
         <v>2014</v>
       </c>
       <c r="G26">
-        <v>18.808340212706401</v>
+        <v>18.3786365531125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2515</v>
+        <v>2556</v>
       </c>
       <c r="B27" t="s">
         <v>279</v>
@@ -11709,12 +11712,12 @@
         <v>2014</v>
       </c>
       <c r="G27">
-        <v>2.1302199907594499</v>
+        <v>2.1826126890305702</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2575</v>
+        <v>2617</v>
       </c>
       <c r="B28" t="s">
         <v>273</v>
@@ -11732,12 +11735,12 @@
         <v>2014</v>
       </c>
       <c r="G28">
-        <v>10.846396464930599</v>
+        <v>8.4723448043506693</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2815</v>
+        <v>2861</v>
       </c>
       <c r="B29" t="s">
         <v>155</v>
@@ -11755,12 +11758,12 @@
         <v>2014</v>
       </c>
       <c r="G29">
-        <v>14.7284256551486</v>
+        <v>15.2715482724736</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>5875</v>
+        <v>5972</v>
       </c>
       <c r="B30" t="s">
         <v>126</v>
@@ -11778,12 +11781,12 @@
         <v>2014</v>
       </c>
       <c r="G30">
-        <v>11.632762691818</v>
+        <v>11.6248288668409</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2995</v>
+        <v>3044</v>
       </c>
       <c r="B31" t="s">
         <v>153</v>
@@ -11801,12 +11804,12 @@
         <v>2014</v>
       </c>
       <c r="G31">
-        <v>2.2086693752139199</v>
+        <v>2.00613213814739</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>3115</v>
+        <v>3166</v>
       </c>
       <c r="B32" t="s">
         <v>124</v>
@@ -11824,12 +11827,12 @@
         <v>2014</v>
       </c>
       <c r="G32">
-        <v>13.131959621290999</v>
+        <v>12.981743730680799</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>3175</v>
+        <v>3227</v>
       </c>
       <c r="B33" t="s">
         <v>146</v>
@@ -11852,7 +11855,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>2395</v>
+        <v>2434</v>
       </c>
       <c r="B34" t="s">
         <v>247</v>
@@ -11870,12 +11873,12 @@
         <v>2014</v>
       </c>
       <c r="G34">
-        <v>5.2414124738099099</v>
+        <v>5.1049203156887302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>3415</v>
+        <v>3471</v>
       </c>
       <c r="B35" t="s">
         <v>134</v>
@@ -11898,7 +11901,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>3475</v>
+        <v>3532</v>
       </c>
       <c r="B36" t="s">
         <v>185</v>
@@ -11916,12 +11919,12 @@
         <v>2014</v>
       </c>
       <c r="G36">
-        <v>18.219900041541599</v>
+        <v>17.923781625957002</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>3895</v>
+        <v>3959</v>
       </c>
       <c r="B37" t="s">
         <v>183</v>
@@ -11939,12 +11942,12 @@
         <v>2014</v>
       </c>
       <c r="G37">
-        <v>12.9185884220571</v>
+        <v>13.1761912785825</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>3955</v>
+        <v>4020</v>
       </c>
       <c r="B38" t="s">
         <v>214</v>
@@ -11962,12 +11965,12 @@
         <v>2014</v>
       </c>
       <c r="G38">
-        <v>12.811121433041301</v>
+        <v>13.167350041173099</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>12595</v>
+        <v>12804</v>
       </c>
       <c r="B39" t="s">
         <v>191</v>
@@ -11985,12 +11988,12 @@
         <v>2014</v>
       </c>
       <c r="G39">
-        <v>11.2037779607292</v>
+        <v>11.1990339183287</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>4195</v>
+        <v>4264</v>
       </c>
       <c r="B40" t="s">
         <v>118</v>
@@ -12008,12 +12011,12 @@
         <v>2014</v>
       </c>
       <c r="G40">
-        <v>6.3066836955783003</v>
+        <v>6.3440317023997199</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>4255</v>
+        <v>4325</v>
       </c>
       <c r="B41" t="s">
         <v>285</v>
@@ -12031,12 +12034,12 @@
         <v>2014</v>
       </c>
       <c r="G41">
-        <v>3.0298532987460498</v>
+        <v>3.0695827472392501</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>4435</v>
+        <v>4508</v>
       </c>
       <c r="B42" t="s">
         <v>132</v>
@@ -12054,12 +12057,12 @@
         <v>2014</v>
       </c>
       <c r="G42">
-        <v>6.6743625459797604</v>
+        <v>6.7205855128900698</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>4555</v>
+        <v>4630</v>
       </c>
       <c r="B43" t="s">
         <v>136</v>
@@ -12082,7 +12085,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>4735</v>
+        <v>4813</v>
       </c>
       <c r="B44" t="s">
         <v>259</v>
@@ -12100,12 +12103,12 @@
         <v>2014</v>
       </c>
       <c r="G44">
-        <v>6.5133333632220403</v>
+        <v>5.7051939841663204</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>4855</v>
+        <v>4935</v>
       </c>
       <c r="B45" t="s">
         <v>140</v>
@@ -12123,12 +12126,12 @@
         <v>2014</v>
       </c>
       <c r="G45">
-        <v>7.8489885574624703</v>
+        <v>9.8075188000238391</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>3235</v>
+        <v>3288</v>
       </c>
       <c r="B46" t="s">
         <v>142</v>
@@ -12146,12 +12149,12 @@
         <v>2014</v>
       </c>
       <c r="G46">
-        <v>12.486107901698</v>
+        <v>12.4386889136177</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>4915</v>
+        <v>4996</v>
       </c>
       <c r="B47" t="s">
         <v>265</v>
@@ -12169,12 +12172,12 @@
         <v>2014</v>
       </c>
       <c r="G47">
-        <v>12.073109652819699</v>
+        <v>16.436698013656098</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>5275</v>
+        <v>5362</v>
       </c>
       <c r="B48" t="s">
         <v>114</v>
@@ -12197,7 +12200,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>5455</v>
+        <v>5545</v>
       </c>
       <c r="B49" t="s">
         <v>159</v>
@@ -12215,12 +12218,12 @@
         <v>2014</v>
       </c>
       <c r="G49">
-        <v>9.09844355782778</v>
+        <v>8.9842198370747202</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>5935</v>
+        <v>6033</v>
       </c>
       <c r="B50" t="s">
         <v>187</v>
@@ -12238,12 +12241,12 @@
         <v>2014</v>
       </c>
       <c r="G50">
-        <v>4.4463864124600398</v>
+        <v>4.3663820614918603</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>5755</v>
+        <v>5850</v>
       </c>
       <c r="B51" t="s">
         <v>189</v>
@@ -12261,12 +12264,12 @@
         <v>2014</v>
       </c>
       <c r="G51">
-        <v>7.3555436109512504</v>
+        <v>7.4466687073662898</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>5695</v>
+        <v>5789</v>
       </c>
       <c r="B52" t="s">
         <v>27</v>
@@ -12284,12 +12287,12 @@
         <v>2014</v>
       </c>
       <c r="G52">
-        <v>28.3086498915421</v>
+        <v>27.801110599928201</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>5995</v>
+        <v>6094</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
@@ -12307,12 +12310,12 @@
         <v>2014</v>
       </c>
       <c r="G53">
-        <v>11.0253900535672</v>
+        <v>11.0628765010226</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>6775</v>
+        <v>6887</v>
       </c>
       <c r="B54" t="s">
         <v>58</v>
@@ -12330,12 +12333,12 @@
         <v>2014</v>
       </c>
       <c r="G54">
-        <v>2.5516067507143898</v>
+        <v>2.55160110474637</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>6475</v>
+        <v>6582</v>
       </c>
       <c r="B55" t="s">
         <v>236</v>
@@ -12353,12 +12356,12 @@
         <v>2014</v>
       </c>
       <c r="G55">
-        <v>8.9271092714799707</v>
+        <v>8.2219822855446605</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>6295</v>
+        <v>6399</v>
       </c>
       <c r="B56" t="s">
         <v>47</v>
@@ -12376,12 +12379,12 @@
         <v>2014</v>
       </c>
       <c r="G56">
-        <v>11.958339492257201</v>
+        <v>11.627929853255401</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>6655</v>
+        <v>6765</v>
       </c>
       <c r="B57" t="s">
         <v>204</v>
@@ -12399,12 +12402,12 @@
         <v>2014</v>
       </c>
       <c r="G57">
-        <v>5.9148650233483</v>
+        <v>4.9783588178640601</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>6715</v>
+        <v>6826</v>
       </c>
       <c r="B58" t="s">
         <v>200</v>
@@ -12422,12 +12425,12 @@
         <v>2014</v>
       </c>
       <c r="G58">
-        <v>11.0926978781243</v>
+        <v>9.9221296578637403</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>6595</v>
+        <v>6704</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -12450,7 +12453,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>6835</v>
+        <v>6948</v>
       </c>
       <c r="B60" t="s">
         <v>198</v>
@@ -12468,12 +12471,12 @@
         <v>2014</v>
       </c>
       <c r="G60">
-        <v>12.4027301695831</v>
+        <v>12.384749683531</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>6895</v>
+        <v>7009</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
@@ -12491,12 +12494,12 @@
         <v>2014</v>
       </c>
       <c r="G61">
-        <v>14.9393433841578</v>
+        <v>14.9907284103395</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>6955</v>
+        <v>7070</v>
       </c>
       <c r="B62" t="s">
         <v>193</v>
@@ -12514,12 +12517,12 @@
         <v>2014</v>
       </c>
       <c r="G62">
-        <v>8.6742774657602606</v>
+        <v>8.7466406937768593</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>7075</v>
+        <v>7192</v>
       </c>
       <c r="B63" t="s">
         <v>45</v>
@@ -12542,7 +12545,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>7015</v>
+        <v>7131</v>
       </c>
       <c r="B64" t="s">
         <v>196</v>
@@ -12560,12 +12563,12 @@
         <v>2014</v>
       </c>
       <c r="G64">
-        <v>9.8297564183978796</v>
+        <v>9.8699009765868499</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>7135</v>
+        <v>7253</v>
       </c>
       <c r="B65" t="s">
         <v>74</v>
@@ -12583,12 +12586,12 @@
         <v>2014</v>
       </c>
       <c r="G65">
-        <v>5.62038297316355</v>
+        <v>5.5757576188729301</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>7195</v>
+        <v>7314</v>
       </c>
       <c r="B66" t="s">
         <v>253</v>
@@ -12606,12 +12609,12 @@
         <v>2014</v>
       </c>
       <c r="G66">
-        <v>5.6662384151852097</v>
+        <v>5.9712423800179897</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>7495</v>
+        <v>7619</v>
       </c>
       <c r="B67" t="s">
         <v>23</v>
@@ -12629,12 +12632,12 @@
         <v>2014</v>
       </c>
       <c r="G67">
-        <v>6.3501289143159498</v>
+        <v>6.6785130503533798</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>15595</v>
+        <v>15854</v>
       </c>
       <c r="B68" t="s">
         <v>76</v>
@@ -12652,12 +12655,12 @@
         <v>2014</v>
       </c>
       <c r="G68">
-        <v>7.5814248440730303</v>
+        <v>7.41653866509645</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>7555</v>
+        <v>7680</v>
       </c>
       <c r="B69" t="s">
         <v>228</v>
@@ -12675,12 +12678,12 @@
         <v>2014</v>
       </c>
       <c r="G69">
-        <v>8.3564760582890099</v>
+        <v>7.6351779858525601</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>7255</v>
+        <v>7375</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
@@ -12698,12 +12701,12 @@
         <v>2014</v>
       </c>
       <c r="G70">
-        <v>5.1614016977375599</v>
+        <v>6.5833550833512504</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>8635</v>
+        <v>8778</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
@@ -12721,12 +12724,12 @@
         <v>2014</v>
       </c>
       <c r="G71">
-        <v>10.936907481914799</v>
+        <v>10.9536117071886</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>7735</v>
+        <v>7863</v>
       </c>
       <c r="B72" t="s">
         <v>226</v>
@@ -12744,12 +12747,12 @@
         <v>2014</v>
       </c>
       <c r="G72">
-        <v>10.905040676304001</v>
+        <v>12.5574674628511</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>7855</v>
+        <v>7985</v>
       </c>
       <c r="B73" t="s">
         <v>220</v>
@@ -12767,12 +12770,12 @@
         <v>2014</v>
       </c>
       <c r="G73">
-        <v>6.0066208767820797</v>
+        <v>5.0924915782773699</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>8515</v>
+        <v>8656</v>
       </c>
       <c r="B74" t="s">
         <v>68</v>
@@ -12790,12 +12793,12 @@
         <v>2014</v>
       </c>
       <c r="G74">
-        <v>11.801846564495801</v>
+        <v>11.794277384301999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>8575</v>
+        <v>8717</v>
       </c>
       <c r="B75" t="s">
         <v>66</v>
@@ -12818,7 +12821,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>10075</v>
+        <v>10242</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
@@ -12836,12 +12839,12 @@
         <v>2014</v>
       </c>
       <c r="G76">
-        <v>8.6152434542178398</v>
+        <v>8.19313128978248</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>9475</v>
+        <v>9632</v>
       </c>
       <c r="B77" t="s">
         <v>218</v>
@@ -12859,12 +12862,12 @@
         <v>2014</v>
       </c>
       <c r="G77">
-        <v>18.7315389670567</v>
+        <v>18.7409428569756</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>9955</v>
+        <v>10120</v>
       </c>
       <c r="B78" t="s">
         <v>269</v>
@@ -12882,12 +12885,12 @@
         <v>2014</v>
       </c>
       <c r="G78">
-        <v>17.3567636901487</v>
+        <v>16.634585239776801</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>9175</v>
+        <v>9327</v>
       </c>
       <c r="B79" t="s">
         <v>177</v>
@@ -12905,12 +12908,12 @@
         <v>2014</v>
       </c>
       <c r="G79">
-        <v>11.554063081539001</v>
+        <v>11.5540630815391</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>8935</v>
+        <v>9083</v>
       </c>
       <c r="B80" t="s">
         <v>62</v>
@@ -12928,12 +12931,12 @@
         <v>2014</v>
       </c>
       <c r="G80">
-        <v>6.5009120488392496</v>
+        <v>7.6384207164340401</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>9715</v>
+        <v>9876</v>
       </c>
       <c r="B81" t="s">
         <v>31</v>
@@ -12951,12 +12954,12 @@
         <v>2014</v>
       </c>
       <c r="G81">
-        <v>6.5235994615858797</v>
+        <v>6.0479679083672098</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>9655</v>
+        <v>9815</v>
       </c>
       <c r="B82" t="s">
         <v>54</v>
@@ -12974,12 +12977,12 @@
         <v>2014</v>
       </c>
       <c r="G82">
-        <v>9.9925018727164492</v>
+        <v>9.9925116937175904</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>8815</v>
+        <v>8961</v>
       </c>
       <c r="B83" t="s">
         <v>222</v>
@@ -12997,12 +13000,12 @@
         <v>2014</v>
       </c>
       <c r="G83">
-        <v>13.7268829117249</v>
+        <v>12.0855760934295</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>9835</v>
+        <v>9998</v>
       </c>
       <c r="B84" t="s">
         <v>255</v>
@@ -13020,12 +13023,12 @@
         <v>2014</v>
       </c>
       <c r="G84">
-        <v>2.6684689852821402</v>
+        <v>2.5731716213785401</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>9535</v>
+        <v>9693</v>
       </c>
       <c r="B85" t="s">
         <v>43</v>
@@ -13043,12 +13046,12 @@
         <v>2014</v>
       </c>
       <c r="G85">
-        <v>13.5541897985856</v>
+        <v>11.495900610069</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>10195</v>
+        <v>10364</v>
       </c>
       <c r="B86" t="s">
         <v>287</v>
@@ -13066,12 +13069,12 @@
         <v>2014</v>
       </c>
       <c r="G86">
-        <v>13.343425714103001</v>
+        <v>13.094276269597099</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>10615</v>
+        <v>10791</v>
       </c>
       <c r="B87" t="s">
         <v>238</v>
@@ -13089,12 +13092,12 @@
         <v>2014</v>
       </c>
       <c r="G87">
-        <v>5.8020339504492098</v>
+        <v>5.9694846146320897</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>10495</v>
+        <v>10669</v>
       </c>
       <c r="B88" t="s">
         <v>112</v>
@@ -13117,7 +13120,7 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>10735</v>
+        <v>10913</v>
       </c>
       <c r="B89" t="s">
         <v>39</v>
@@ -13135,12 +13138,12 @@
         <v>2014</v>
       </c>
       <c r="G89">
-        <v>8.17138377461254</v>
+        <v>8.1749616155990594</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>10435</v>
+        <v>10608</v>
       </c>
       <c r="B90" t="s">
         <v>179</v>
@@ -13158,12 +13161,12 @@
         <v>2014</v>
       </c>
       <c r="G90">
-        <v>8.3021285816483807</v>
+        <v>8.2880791547284307</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>10315</v>
+        <v>10486</v>
       </c>
       <c r="B91" t="s">
         <v>277</v>
@@ -13181,12 +13184,12 @@
         <v>2014</v>
       </c>
       <c r="G91">
-        <v>6.3404851970539502</v>
+        <v>7.5807728516316297</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>10375</v>
+        <v>10547</v>
       </c>
       <c r="B92" t="s">
         <v>257</v>
@@ -13204,12 +13207,12 @@
         <v>2014</v>
       </c>
       <c r="G92">
-        <v>7.8702694982575503</v>
+        <v>7.2118121929025598</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>9355</v>
+        <v>9510</v>
       </c>
       <c r="B93" t="s">
         <v>80</v>
@@ -13227,12 +13230,12 @@
         <v>2014</v>
       </c>
       <c r="G93">
-        <v>10.5895835357781</v>
+        <v>10.5896117702995</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>10555</v>
+        <v>10730</v>
       </c>
       <c r="B94" t="s">
         <v>78</v>
@@ -13250,12 +13253,12 @@
         <v>2014</v>
       </c>
       <c r="G94">
-        <v>11.7976259660288</v>
+        <v>11.775689118754901</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>10855</v>
+        <v>11035</v>
       </c>
       <c r="B95" t="s">
         <v>224</v>
@@ -13273,12 +13276,12 @@
         <v>2014</v>
       </c>
       <c r="G95">
-        <v>6.9447944148518097</v>
+        <v>6.4250315844702497</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>10975</v>
+        <v>11157</v>
       </c>
       <c r="B96" t="s">
         <v>244</v>
@@ -13296,12 +13299,12 @@
         <v>2014</v>
       </c>
       <c r="G96">
-        <v>9.9817837935229505</v>
+        <v>9.2096350525129793</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>11035</v>
+        <v>11218</v>
       </c>
       <c r="B97" t="s">
         <v>175</v>
@@ -13319,12 +13322,12 @@
         <v>2014</v>
       </c>
       <c r="G97">
-        <v>19.601615963386799</v>
+        <v>21.2038647179359</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>11635</v>
+        <v>11828</v>
       </c>
       <c r="B98" t="s">
         <v>161</v>
@@ -13342,12 +13345,12 @@
         <v>2014</v>
       </c>
       <c r="G98">
-        <v>14.668933465392</v>
+        <v>14.5906742116443</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>11095</v>
+        <v>11279</v>
       </c>
       <c r="B99" t="s">
         <v>163</v>
@@ -13365,12 +13368,12 @@
         <v>2014</v>
       </c>
       <c r="G99">
-        <v>15.8959064602442</v>
+        <v>14.5659749793173</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>11155</v>
+        <v>11340</v>
       </c>
       <c r="B100" t="s">
         <v>29</v>
@@ -13388,12 +13391,12 @@
         <v>2014</v>
       </c>
       <c r="G100">
-        <v>14.6126828603155</v>
+        <v>14.6762213765242</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>11335</v>
+        <v>11523</v>
       </c>
       <c r="B101" t="s">
         <v>110</v>
@@ -13411,12 +13414,12 @@
         <v>2014</v>
       </c>
       <c r="G101">
-        <v>10.355052378465899</v>
+        <v>10.355052378466</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>11575</v>
+        <v>11767</v>
       </c>
       <c r="B102" t="s">
         <v>108</v>
@@ -13434,12 +13437,12 @@
         <v>2014</v>
       </c>
       <c r="G102">
-        <v>14.1295033809615</v>
+        <v>14.127432762285199</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>11935</v>
+        <v>12133</v>
       </c>
       <c r="B103" t="s">
         <v>212</v>
@@ -13457,12 +13460,12 @@
         <v>2014</v>
       </c>
       <c r="G103">
-        <v>6.8799888249657499</v>
+        <v>7.2014055315453698</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>11995</v>
+        <v>12194</v>
       </c>
       <c r="B104" t="s">
         <v>106</v>
@@ -13480,12 +13483,12 @@
         <v>2014</v>
       </c>
       <c r="G104">
-        <v>12.957054352097501</v>
+        <v>12.9570154582313</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>12055</v>
+        <v>12255</v>
       </c>
       <c r="B105" t="s">
         <v>104</v>
@@ -13503,12 +13506,12 @@
         <v>2014</v>
       </c>
       <c r="G105">
-        <v>5.2920889117701497</v>
+        <v>5.2941714849891897</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>12235</v>
+        <v>12438</v>
       </c>
       <c r="B106" t="s">
         <v>216</v>
@@ -13526,12 +13529,12 @@
         <v>2014</v>
       </c>
       <c r="G106">
-        <v>7.6097087230025204</v>
+        <v>8.0694129254962004</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>12355</v>
+        <v>12560</v>
       </c>
       <c r="B107" t="s">
         <v>271</v>
@@ -13549,12 +13552,12 @@
         <v>2014</v>
       </c>
       <c r="G107">
-        <v>10.9846623422318</v>
+        <v>10.138222587159101</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>12775</v>
+        <v>12987</v>
       </c>
       <c r="B108" t="s">
         <v>102</v>
@@ -13572,12 +13575,12 @@
         <v>2014</v>
       </c>
       <c r="G108">
-        <v>7.8838939899120799</v>
+        <v>7.8838987651725301</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>12415</v>
+        <v>12621</v>
       </c>
       <c r="B109" t="s">
         <v>41</v>
@@ -13595,12 +13598,12 @@
         <v>2014</v>
       </c>
       <c r="G109">
-        <v>16.910351941122801</v>
+        <v>16.4830958205483</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>13195</v>
+        <v>13414</v>
       </c>
       <c r="B110" t="s">
         <v>100</v>
@@ -13618,12 +13621,12 @@
         <v>2014</v>
       </c>
       <c r="G110">
-        <v>9.8286814708089807</v>
+        <v>9.8503916168188006</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>13255</v>
+        <v>13475</v>
       </c>
       <c r="B111" t="s">
         <v>98</v>
@@ -13641,12 +13644,12 @@
         <v>2014</v>
       </c>
       <c r="G111">
-        <v>9.5310086141069199</v>
+        <v>9.5388665220377007</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>15715</v>
+        <v>15976</v>
       </c>
       <c r="B112" t="s">
         <v>283</v>
@@ -13664,12 +13667,12 @@
         <v>2014</v>
       </c>
       <c r="G112">
-        <v>4.8565692651680896</v>
+        <v>4.6451870597287499</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>12895</v>
+        <v>13109</v>
       </c>
       <c r="B113" t="s">
         <v>281</v>
@@ -13687,12 +13690,12 @@
         <v>2014</v>
       </c>
       <c r="G113">
-        <v>34.620217485778902</v>
+        <v>22.5424273452835</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>4135</v>
+        <v>4203</v>
       </c>
       <c r="B114" t="s">
         <v>96</v>
@@ -13710,12 +13713,12 @@
         <v>2014</v>
       </c>
       <c r="G114">
-        <v>13.677304429264501</v>
+        <v>13.6026856151363</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>8215</v>
+        <v>8351</v>
       </c>
       <c r="B115" t="s">
         <v>242</v>
@@ -13733,12 +13736,12 @@
         <v>2014</v>
       </c>
       <c r="G115">
-        <v>21.823605664389699</v>
+        <v>21.8363053072406</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>12295</v>
+        <v>12499</v>
       </c>
       <c r="B116" t="s">
         <v>275</v>
@@ -13756,12 +13759,12 @@
         <v>2014</v>
       </c>
       <c r="G116">
-        <v>11.143859711890601</v>
+        <v>11.9978632788909</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>13135</v>
+        <v>13353</v>
       </c>
       <c r="B117" t="s">
         <v>169</v>
@@ -13779,12 +13782,12 @@
         <v>2014</v>
       </c>
       <c r="G117">
-        <v>12.8419744425891</v>
+        <v>13.8386248241867</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>13315</v>
+        <v>13536</v>
       </c>
       <c r="B118" t="s">
         <v>94</v>
@@ -13802,12 +13805,12 @@
         <v>2014</v>
       </c>
       <c r="G118">
-        <v>9.3774402265855006</v>
+        <v>9.5007103448796197</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>2155</v>
+        <v>2190</v>
       </c>
       <c r="B119" t="s">
         <v>92</v>
@@ -13830,7 +13833,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>13975</v>
+        <v>14207</v>
       </c>
       <c r="B120" t="s">
         <v>90</v>
@@ -13848,12 +13851,12 @@
         <v>2014</v>
       </c>
       <c r="G120">
-        <v>8.0226275798468105</v>
+        <v>9.7192153740222906</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>14695</v>
+        <v>14939</v>
       </c>
       <c r="B121" t="s">
         <v>267</v>
@@ -13871,12 +13874,12 @@
         <v>2014</v>
       </c>
       <c r="G121">
-        <v>5.2352884386124998</v>
+        <v>4.3822156573238003</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>13915</v>
+        <v>14146</v>
       </c>
       <c r="B122" t="s">
         <v>49</v>
@@ -13894,12 +13897,12 @@
         <v>2014</v>
       </c>
       <c r="G122">
-        <v>7.9707074567669398</v>
+        <v>7.8619592883568101</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>13855</v>
+        <v>14085</v>
       </c>
       <c r="B123" t="s">
         <v>261</v>
@@ -13917,12 +13920,12 @@
         <v>2014</v>
       </c>
       <c r="G123">
-        <v>3.2524877994469401</v>
+        <v>2.8722298168001998</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>14455</v>
+        <v>14695</v>
       </c>
       <c r="B124" t="s">
         <v>171</v>
@@ -13940,12 +13943,12 @@
         <v>2014</v>
       </c>
       <c r="G124">
-        <v>2.2873256035985601</v>
+        <v>2.0676317080184798</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>14515</v>
+        <v>14756</v>
       </c>
       <c r="B125" t="s">
         <v>206</v>
@@ -13963,12 +13966,12 @@
         <v>2014</v>
       </c>
       <c r="G125">
-        <v>12.057296190985801</v>
+        <v>10.990166505343</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>14575</v>
+        <v>14817</v>
       </c>
       <c r="B126" t="s">
         <v>88</v>
@@ -13986,12 +13989,12 @@
         <v>2014</v>
       </c>
       <c r="G126">
-        <v>15.229634545109899</v>
+        <v>15.2296345449426</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>14035</v>
+        <v>14268</v>
       </c>
       <c r="B127" t="s">
         <v>86</v>
@@ -14009,12 +14012,12 @@
         <v>2014</v>
       </c>
       <c r="G127">
-        <v>3.0948861089844901</v>
+        <v>2.7569707468739102</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>14815</v>
+        <v>15061</v>
       </c>
       <c r="B128" t="s">
         <v>84</v>
@@ -14032,12 +14035,12 @@
         <v>2014</v>
       </c>
       <c r="G128">
-        <v>3.5442821519410601</v>
+        <v>4.3714363481506897</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B129" t="s">
         <v>208</v>
@@ -14055,12 +14058,12 @@
         <v>2014</v>
       </c>
       <c r="G129">
-        <v>8.6968363664082098</v>
+        <v>9.6254251479762694</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>4795</v>
+        <v>4874</v>
       </c>
       <c r="B130" t="s">
         <v>82</v>
@@ -14078,12 +14081,12 @@
         <v>2014</v>
       </c>
       <c r="G130">
-        <v>14.7172381997693</v>
+        <v>14.858234559761501</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>14995</v>
+        <v>15244</v>
       </c>
       <c r="B131" t="s">
         <v>231</v>
@@ -14106,7 +14109,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>14935</v>
+        <v>15183</v>
       </c>
       <c r="B132" t="s">
         <v>181</v>
@@ -14124,7 +14127,7 @@
         <v>2014</v>
       </c>
       <c r="G132">
-        <v>15.201246940512</v>
+        <v>14.4973749429689</v>
       </c>
     </row>
   </sheetData>
@@ -14148,13 +14151,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.28125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.570312" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.425781" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14165,7 +14169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="45">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -14190,17 +14194,17 @@
         <v>6</v>
       </c>
       <c r="B3" s="9">
-        <v>12.73296801962953</v>
+        <v>12.656583280946723</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9">
-        <v>10.913405994253029</v>
+        <v>10.297936077377576</v>
       </c>
       <c r="E3" s="9">
-        <v>7.5325284278024824</v>
+        <v>7.2219527331021203</v>
       </c>
       <c r="F3" s="9">
-        <v>11.086359426138619</v>
+        <v>10.783441436854755</v>
       </c>
     </row>
     <row r="4">
@@ -14208,19 +14212,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="9">
-        <v>11.816733672279364</v>
+        <v>11.825314981541485</v>
       </c>
       <c r="C4" s="9">
-        <v>8.0226275798468105</v>
+        <v>9.7192153740222906</v>
       </c>
       <c r="D4" s="9">
-        <v>5.0688652995059567</v>
+        <v>6.1977373826453261</v>
       </c>
       <c r="E4" s="9">
-        <v>8.6739400594788538</v>
+        <v>8.8481319928263602</v>
       </c>
       <c r="F4" s="9">
-        <v>10.268350151121844</v>
+        <v>10.437319976882117</v>
       </c>
     </row>
     <row r="5">
@@ -14228,19 +14232,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="9">
-        <v>10.101521393987996</v>
+        <v>10.196750518859716</v>
       </c>
       <c r="C5" s="9">
-        <v>4.4463864124600398</v>
+        <v>4.3663820614918603</v>
       </c>
       <c r="D5" s="9">
-        <v>8.8335512163033627</v>
+        <v>9.000572063965155</v>
       </c>
       <c r="E5" s="9">
-        <v>13.183637571614854</v>
+        <v>13.103120754772826</v>
       </c>
       <c r="F5" s="9">
-        <v>11.295084050317806</v>
+        <v>11.299539634951135</v>
       </c>
     </row>
     <row r="6">
@@ -14248,17 +14252,17 @@
         <v>9</v>
       </c>
       <c r="B6" s="9">
-        <v>9.2493214843821985</v>
+        <v>9.3630811449958191</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9">
-        <v>12.865100178584001</v>
+        <v>12.081030879981867</v>
       </c>
       <c r="E6" s="9">
-        <v>9.0889430627977763</v>
+        <v>8.7025558945404722</v>
       </c>
       <c r="F6" s="9">
-        <v>9.830795928682134</v>
+        <v>9.6095927745385286</v>
       </c>
     </row>
     <row r="7">
@@ -14266,13 +14270,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="9">
-        <v>6.8428739056882701</v>
+        <v>6.8497229963270954</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
-        <v>6.8428739056882701</v>
+        <v>6.8497229963270954</v>
       </c>
     </row>
     <row r="8">
@@ -14281,16 +14285,16 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9">
-        <v>5.8020339504492098</v>
+        <v>5.9694846146320897</v>
       </c>
       <c r="D8" s="9">
-        <v>11.015339978665173</v>
+        <v>10.707737550892446</v>
       </c>
       <c r="E8" s="9">
-        <v>21.823605664389699</v>
+        <v>21.8363053072406</v>
       </c>
       <c r="F8" s="9">
-        <v>12.134331910166884</v>
+        <v>11.985800514910006</v>
       </c>
     </row>
     <row r="9">
@@ -14299,16 +14303,16 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9">
-        <v>7.7937832760366339</v>
+        <v>6.5001476211621307</v>
       </c>
       <c r="D9" s="9">
-        <v>9.6583199496033032</v>
+        <v>9.98383987402228</v>
       </c>
       <c r="E9" s="9">
-        <v>11.042288448610266</v>
+        <v>10.522441971013192</v>
       </c>
       <c r="F9" s="9">
-        <v>9.2948449089897327</v>
+        <v>8.8394522586619786</v>
       </c>
     </row>
     <row r="10">
@@ -14316,19 +14320,19 @@
         <v>292</v>
       </c>
       <c r="B10" s="9">
-        <v>11.16374491235206</v>
+        <v>11.18585500393416</v>
       </c>
       <c r="C10" s="9">
-        <v>7.3292103773681028</v>
+        <v>6.5505693654039359</v>
       </c>
       <c r="D10" s="9">
-        <v>9.7657048427101376</v>
+        <v>9.7891127759077001</v>
       </c>
       <c r="E10" s="9">
-        <v>10.491929846015699</v>
+        <v>10.398541155147706</v>
       </c>
       <c r="F10" s="9">
-        <v>10.333095983973291</v>
+        <v>10.25032311325962</v>
       </c>
     </row>
   </sheetData>

--- a/Getting Started/ReadMe.xlsx
+++ b/Getting Started/ReadMe.xlsx
@@ -1105,10 +1105,10 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.61076762116707</c:v>
+                  <c:v>5.61076766078122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.55160110474637</c:v>
+                  <c:v>2.55160110425415</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.00613213814739</c:v>
@@ -1171,25 +1171,25 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10.783441436854755</c:v>
+                  <c:v>10.783441439496293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.437319976882115</c:v>
+                  <c:v>10.440121840703357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.299539634951133</c:v>
+                  <c:v>11.435900055214683</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.609592774538529</c:v>
+                  <c:v>9.647665170088715</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.849722996327095</c:v>
+                  <c:v>6.850945177017765</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11.985800514910006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.839452258661977</c:v>
+                  <c:v>8.938368695349968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,10 +1246,10 @@
                   <c:v>21.2038647179359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.7409428569756</c:v>
+                  <c:v>19.2781511768525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.90625948931535</c:v>
+                  <c:v>7.90870385069669</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>21.8363053072406</c:v>
@@ -1406,25 +1406,25 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10.783441436854755</c:v>
+                  <c:v>10.783441439496293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.437319976882115</c:v>
+                  <c:v>10.440121840703357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.299539634951133</c:v>
+                  <c:v>11.435900055214683</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.609592774538529</c:v>
+                  <c:v>9.647665170088715</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.849722996327095</c:v>
+                  <c:v>6.850945177017765</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11.985800514910006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.839452258661977</c:v>
+                  <c:v>8.938368695349968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1487,10 +1487,10 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.61076762116707</c:v>
+                  <c:v>5.61076766078122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.55160110474637</c:v>
+                  <c:v>2.55160110425415</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.00613213814739</c:v>
@@ -1562,10 +1562,10 @@
                   <c:v>21.2038647179359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.7409428569756</c:v>
+                  <c:v>19.2781511768525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.90625948931535</c:v>
+                  <c:v>7.90870385069669</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>21.8363053072406</c:v>
@@ -1746,7 +1746,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" refreshedDate="44152.61149504122" createdVersion="5" recordCount="131">
+<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" refreshedDate="44373.7743925157" createdVersion="5" recordCount="131">
   <cacheSource type="worksheet">
     <worksheetSource sheet="Energy use - Data" ref="$A$1:$G$132"/>
   </cacheSource>
@@ -2182,11 +2182,11 @@
     </cacheField>
     <cacheField name="Value" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.00613213814739" maxValue="27.8011105999282" count="131">
-        <n v="13.926853706187099"/>
-        <n v="9.7949868737997097"/>
+        <n v="13.926916164127499"/>
+        <n v="9.7950425332718094"/>
         <n v="15.0186485489535"/>
         <n v="9.6968078091358407"/>
-        <n v="9.8797048615707297"/>
+        <n v="9.8797048615707492"/>
         <n v="8.7878196826640007"/>
         <n v="12.967170741226001"/>
         <n v="11.6131627655112"/>
@@ -2195,124 +2195,124 @@
         <n v="6.4728619326794004"/>
         <n v="9.5428153253807597"/>
         <n v="6.7981682406095603"/>
-        <n v="9.0685064754372"/>
-        <n v="5.0883717472027303"/>
-        <n v="12.532967301796999"/>
+        <n v="9.0685064423310404"/>
+        <n v="5.0883983981671497"/>
+        <n v="12.532991462419799"/>
         <n v="10.510285890473501"/>
-        <n v="9.3822418081158201"/>
-        <n v="7.0855273238507399"/>
+        <n v="9.3822418081157402"/>
+        <n v="7.0879033974857704"/>
         <n v="7.6416606386720796"/>
         <n v="9.5028067445809601"/>
         <n v="5.7931865033388403"/>
         <n v="11.208749087227901"/>
-        <n v="5.6107676211670698"/>
+        <n v="5.61076766078122"/>
         <n v="18.3786365531125"/>
         <n v="2.1826126890305702"/>
-        <n v="8.4723448043506693"/>
+        <n v="10.6131826714263"/>
         <n v="15.2715482724736"/>
-        <n v="11.6248288668409"/>
+        <n v="11.6241271112136"/>
         <n v="2.00613213814739"/>
-        <n v="12.981743730680799"/>
-        <n v="8.2407100267253401"/>
+        <n v="12.997936068629199"/>
+        <n v="8.3017962746907905"/>
         <n v="5.1049203156887302"/>
         <n v="16.6754467983192"/>
-        <n v="17.923781625957002"/>
+        <n v="17.9237816257743"/>
         <n v="13.1761912785825"/>
         <n v="13.167350041173099"/>
-        <n v="11.1990339183287"/>
-        <n v="6.3440317023997199"/>
-        <n v="3.0695827472392501"/>
+        <n v="11.1990388750857"/>
+        <n v="6.34403185958592"/>
+        <n v="3.0695818643975401"/>
         <n v="6.7205855128900698"/>
         <n v="10.971047725797799"/>
         <n v="5.7051939841663204"/>
         <n v="9.8075188000238391"/>
         <n v="12.4386889136177"/>
         <n v="16.436698013656098"/>
-        <n v="12.636415027498"/>
-        <n v="8.9842198370747202"/>
-        <n v="4.3663820614918603"/>
+        <n v="12.636414999205901"/>
+        <n v="8.9842198169904393"/>
+        <n v="7.3594142194999002"/>
         <n v="7.4466687073662898"/>
         <n v="27.801110599928201"/>
-        <n v="11.0628765010226"/>
-        <n v="2.55160110474637"/>
+        <n v="11.0791083114324"/>
+        <n v="2.55160110425415"/>
         <n v="8.2219822855446605"/>
         <n v="11.627929853255401"/>
         <n v="4.9783588178640601"/>
-        <n v="9.9221296578637403"/>
-        <n v="18.627241229879701"/>
-        <n v="12.384749683531"/>
+        <n v="9.9221296582263498"/>
+        <n v="18.627241191634401"/>
+        <n v="12.384749682412799"/>
         <n v="14.9907284103395"/>
         <n v="8.7466406937768593"/>
         <n v="11.2883403894183"/>
-        <n v="9.8699009765868499"/>
+        <n v="10.010747260369801"/>
         <n v="5.5757576188729301"/>
         <n v="5.9712423800179897"/>
         <n v="6.6785130503533798"/>
-        <n v="7.41653866509645"/>
+        <n v="7.4165386650964598"/>
         <n v="7.6351779858525601"/>
         <n v="6.5833550833512504"/>
-        <n v="10.9536117071886"/>
-        <n v="12.5574674628511"/>
+        <n v="10.9350127954573"/>
+        <n v="12.5574674628512"/>
         <n v="5.0924915782773699"/>
-        <n v="11.794277384301999"/>
+        <n v="11.8061262465291"/>
         <n v="14.7640286995235"/>
         <n v="8.19313128978248"/>
-        <n v="18.7409428569756"/>
+        <n v="19.2781511768525"/>
         <n v="16.634585239776801"/>
-        <n v="11.5540630815391"/>
+        <n v="11.560982139641499"/>
         <n v="7.6384207164340401"/>
         <n v="6.0479679083672098"/>
-        <n v="9.9925116937175904"/>
+        <n v="9.9925524035291193"/>
         <n v="12.0855760934295"/>
-        <n v="2.5731716213785401"/>
+        <n v="2.5731704229219701"/>
         <n v="11.495900610069"/>
-        <n v="13.094276269597099"/>
+        <n v="13.0942763868767"/>
         <n v="5.9694846146320897"/>
         <n v="11.382024161288699"/>
         <n v="8.1749616155990594"/>
-        <n v="8.2880791547284307"/>
-        <n v="7.5807728516316297"/>
+        <n v="8.2880522806309909"/>
+        <n v="7.61608584433983"/>
         <n v="7.2118121929025598"/>
-        <n v="10.5896117702995"/>
+        <n v="10.589643856229999"/>
         <n v="11.775689118754901"/>
-        <n v="6.4250315844702497"/>
+        <n v="6.3941564713252896"/>
         <n v="9.2096350525129793"/>
         <n v="21.2038647179359"/>
         <n v="14.5906742116443"/>
         <n v="14.5659749793173"/>
-        <n v="14.6762213765242"/>
-        <n v="10.355052378466"/>
+        <n v="14.676221376533199"/>
+        <n v="10.2997629966552"/>
         <n v="14.127432762285199"/>
-        <n v="7.2014055315453698"/>
-        <n v="12.9570154582313"/>
+        <n v="7.2014011068052"/>
+        <n v="12.978656035037901"/>
         <n v="5.2941714849891897"/>
-        <n v="8.0694129254962004"/>
+        <n v="8.0694129253580194"/>
         <n v="10.138222587159101"/>
-        <n v="7.8838987651725301"/>
+        <n v="7.8839295869798303"/>
         <n v="16.4830958205483"/>
-        <n v="9.8503916168188006"/>
+        <n v="9.8521927114168797"/>
         <n v="9.5388665220377007"/>
         <n v="4.6451870597287499"/>
         <n v="22.5424273452835"/>
         <n v="13.6026856151363"/>
         <n v="21.8363053072406"/>
-        <n v="11.9978632788909"/>
+        <n v="11.9978518231501"/>
         <n v="13.8386248241867"/>
         <n v="9.5007103448796197"/>
         <n v="20.229882995354298"/>
         <n v="9.7192153740222906"/>
-        <n v="4.3822156573238003"/>
+        <n v="4.3822156638124197"/>
         <n v="7.8619592883568101"/>
         <n v="2.8722298168001998"/>
         <n v="2.0676317080184798"/>
         <n v="10.990166505343"/>
-        <n v="15.2296345449426"/>
+        <n v="15.3073442373303"/>
         <n v="2.7569707468739102"/>
         <n v="4.3714363481506897"/>
         <n v="9.6254251479762694"/>
         <n v="14.858234559761501"/>
-        <n v="7.9062594893153504"/>
-        <n v="14.4973749429689"/>
+        <n v="7.90870385069669"/>
+        <n v="14.497374943370099"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -3952,7 +3952,6 @@
         <item x="125"/>
         <item x="121"/>
         <item x="39"/>
-        <item x="48"/>
         <item x="126"/>
         <item x="119"/>
         <item x="110"/>
@@ -3979,6 +3978,7 @@
         <item x="18"/>
         <item x="101"/>
         <item x="90"/>
+        <item x="48"/>
         <item x="66"/>
         <item x="49"/>
         <item x="89"/>
@@ -3992,9 +3992,8 @@
         <item x="87"/>
         <item x="74"/>
         <item x="53"/>
+        <item x="88"/>
         <item x="31"/>
-        <item x="88"/>
-        <item x="26"/>
         <item x="60"/>
         <item x="5"/>
         <item x="47"/>
@@ -4011,14 +4010,15 @@
         <item x="1"/>
         <item x="43"/>
         <item x="108"/>
-        <item x="62"/>
         <item x="4"/>
         <item x="56"/>
         <item x="80"/>
+        <item x="62"/>
         <item x="105"/>
         <item x="99"/>
         <item x="16"/>
         <item x="91"/>
+        <item x="26"/>
         <item x="69"/>
         <item x="41"/>
         <item x="123"/>
@@ -4041,8 +4041,8 @@
         <item x="15"/>
         <item x="70"/>
         <item x="46"/>
+        <item x="6"/>
         <item x="102"/>
-        <item x="6"/>
         <item x="30"/>
         <item x="84"/>
         <item x="36"/>
@@ -4060,8 +4060,8 @@
         <item x="128"/>
         <item x="59"/>
         <item x="2"/>
+        <item x="27"/>
         <item x="124"/>
-        <item x="27"/>
         <item x="45"/>
         <item x="107"/>
         <item x="76"/>
@@ -4510,19 +4510,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>5.6107676211670698</v>
+        <v>5.61076766078122</v>
       </c>
       <c r="C2">
         <v>27.801110599928201</v>
       </c>
       <c r="D2">
-        <v>10.783441436854755</v>
+        <v>10.783441439496293</v>
       </c>
       <c r="E2">
         <v>8.7878196826640007</v>
       </c>
       <c r="F2">
-        <v>5.6227460687895539</v>
+        <v>5.6227460661869122</v>
       </c>
     </row>
     <row r="3">
@@ -4530,19 +4530,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>2.55160110474637</v>
+        <v>2.55160110425415</v>
       </c>
       <c r="C3">
         <v>20.229882995354298</v>
       </c>
       <c r="D3">
-        <v>10.437319976882115</v>
+        <v>10.440121840703357</v>
       </c>
       <c r="E3">
-        <v>10.47233207438275</v>
+        <v>10.444703426442601</v>
       </c>
       <c r="F3">
-        <v>3.8526298348193393</v>
+        <v>3.8545745794223212</v>
       </c>
     </row>
     <row r="4">
@@ -4556,13 +4556,13 @@
         <v>21.2038647179359</v>
       </c>
       <c r="D4">
-        <v>11.299539634951133</v>
+        <v>11.435900055214683</v>
       </c>
       <c r="E4">
-        <v>11.203891502778301</v>
+        <v>11.203893981156799</v>
       </c>
       <c r="F4">
-        <v>4.9438313166687946</v>
+        <v>4.7825147981437404</v>
       </c>
     </row>
     <row r="5">
@@ -4573,16 +4573,16 @@
         <v>4.8225034441192998</v>
       </c>
       <c r="C5">
-        <v>18.7409428569756</v>
+        <v>19.2781511768525</v>
       </c>
       <c r="D5">
-        <v>9.6095927745385286</v>
+        <v>9.6476651700887146</v>
       </c>
       <c r="E5">
-        <v>9.7949868737997097</v>
+        <v>9.7950425332718094</v>
       </c>
       <c r="F5">
-        <v>3.6024922761623217</v>
+        <v>3.6913144879107462</v>
       </c>
     </row>
     <row r="6">
@@ -4593,16 +4593,16 @@
         <v>5.7931865033388403</v>
       </c>
       <c r="C6">
-        <v>7.9062594893153504</v>
+        <v>7.90870385069669</v>
       </c>
       <c r="D6">
-        <v>6.8497229963270954</v>
+        <v>6.8509451770177652</v>
       </c>
       <c r="E6">
-        <v>6.8497229963270954</v>
+        <v>6.8509451770177652</v>
       </c>
       <c r="F6">
-        <v>1.4941682375260967</v>
+        <v>1.4958966620345124</v>
       </c>
     </row>
     <row r="7">
@@ -4636,13 +4636,13 @@
         <v>22.5424273452835</v>
       </c>
       <c r="D8">
-        <v>8.8394522586619768</v>
+        <v>8.9383686953499684</v>
       </c>
       <c r="E8">
-        <v>7.3962925222670943</v>
+        <v>7.4139490186211949</v>
       </c>
       <c r="F8">
-        <v>5.4281189733475612</v>
+        <v>5.4399867152376622</v>
       </c>
     </row>
   </sheetData>
@@ -4700,13 +4700,13 @@
         <v>22.5424273452835</v>
       </c>
       <c r="D2">
-        <v>6.5505693654039359</v>
+        <v>6.8258732813954426</v>
       </c>
       <c r="E2">
-        <v>4.3822156573238003</v>
+        <v>5.9694846146320897</v>
       </c>
       <c r="F2">
-        <v>5.8073982391740753</v>
+        <v>5.7652632723128443</v>
       </c>
     </row>
     <row r="3">
@@ -4720,13 +4720,13 @@
         <v>16.436698013656098</v>
       </c>
       <c r="D3">
-        <v>9.7891127759077001</v>
+        <v>9.8684018300150029</v>
       </c>
       <c r="E3">
-        <v>9.2096350525129793</v>
+        <v>9.5028067445809601</v>
       </c>
       <c r="F3">
-        <v>3.2210640392601899</v>
+        <v>3.2137451625161555</v>
       </c>
     </row>
     <row r="4">
@@ -4740,13 +4740,13 @@
         <v>21.8363053072406</v>
       </c>
       <c r="D4">
-        <v>10.398541155147704</v>
+        <v>10.404349628828015</v>
       </c>
       <c r="E4">
-        <v>9.8797048615707297</v>
+        <v>9.9221296582263498</v>
       </c>
       <c r="F4">
-        <v>4.2572130144990954</v>
+        <v>4.2592758959838619</v>
       </c>
     </row>
     <row r="5">
@@ -4760,13 +4760,13 @@
         <v>27.801110599928201</v>
       </c>
       <c r="D5">
-        <v>11.185855003934162</v>
+        <v>11.196681874667236</v>
       </c>
       <c r="E5">
-        <v>11.0169621134102</v>
+        <v>11.025078018615099</v>
       </c>
       <c r="F5">
-        <v>4.9372266635138065</v>
+        <v>4.9547437366039784</v>
       </c>
     </row>
   </sheetData>
@@ -4860,7 +4860,7 @@
         <v>2014</v>
       </c>
       <c r="G3" s="3">
-        <v>5.6107676211670698</v>
+        <v>5.61076766078122</v>
       </c>
     </row>
     <row r="4" outlineLevel="2">
@@ -4906,7 +4906,7 @@
         <v>2014</v>
       </c>
       <c r="G5" s="3">
-        <v>14.6762213765242</v>
+        <v>14.676221376533199</v>
       </c>
     </row>
     <row r="6" outlineLevel="2">
@@ -4975,7 +4975,7 @@
         <v>2014</v>
       </c>
       <c r="G8" s="2">
-        <v>9.3822418081158201</v>
+        <v>9.3822418081157402</v>
       </c>
     </row>
     <row r="9" outlineLevel="2">
@@ -5173,7 +5173,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2">
         <f>SUBTOTAL(1,G2:G16)</f>
-        <v>10.783441436854757</v>
+        <v>10.783441439496295</v>
       </c>
     </row>
     <row r="18" outlineLevel="2">
@@ -5196,7 +5196,7 @@
         <v>2014</v>
       </c>
       <c r="G18" s="3">
-        <v>9.9925116937175904</v>
+        <v>9.9925524035291193</v>
       </c>
     </row>
     <row r="19" outlineLevel="2">
@@ -5219,7 +5219,7 @@
         <v>2014</v>
       </c>
       <c r="G19" s="2">
-        <v>11.0628765010226</v>
+        <v>11.0791083114324</v>
       </c>
     </row>
     <row r="20" outlineLevel="2">
@@ -5242,7 +5242,7 @@
         <v>2014</v>
       </c>
       <c r="G20" s="3">
-        <v>2.55160110474637</v>
+        <v>2.55160110425415</v>
       </c>
     </row>
     <row r="21" outlineLevel="2">
@@ -5265,7 +5265,7 @@
         <v>2014</v>
       </c>
       <c r="G21" s="2">
-        <v>18.627241229879701</v>
+        <v>18.627241191634401</v>
       </c>
     </row>
     <row r="22" outlineLevel="2">
@@ -5357,7 +5357,7 @@
         <v>2014</v>
       </c>
       <c r="G25" s="2">
-        <v>11.794277384301999</v>
+        <v>11.8061262465291</v>
       </c>
     </row>
     <row r="26" outlineLevel="2">
@@ -5380,7 +5380,7 @@
         <v>2014</v>
       </c>
       <c r="G26" s="3">
-        <v>10.9536117071886</v>
+        <v>10.9350127954573</v>
       </c>
     </row>
     <row r="27" outlineLevel="2">
@@ -5449,7 +5449,7 @@
         <v>2014</v>
       </c>
       <c r="G29" s="2">
-        <v>7.41653866509645</v>
+        <v>7.4165386650964598</v>
       </c>
     </row>
     <row r="30" outlineLevel="2">
@@ -5495,7 +5495,7 @@
         <v>2014</v>
       </c>
       <c r="G31" s="2">
-        <v>10.5896117702995</v>
+        <v>10.589643856229999</v>
       </c>
     </row>
     <row r="32" outlineLevel="2">
@@ -5587,7 +5587,7 @@
         <v>2014</v>
       </c>
       <c r="G35" s="2">
-        <v>15.2296345449426</v>
+        <v>15.3073442373303</v>
       </c>
     </row>
     <row r="36" outlineLevel="2">
@@ -5725,7 +5725,7 @@
         <v>2014</v>
       </c>
       <c r="G41" s="2">
-        <v>9.8503916168188006</v>
+        <v>9.8521927114168797</v>
       </c>
     </row>
     <row r="42" outlineLevel="2">
@@ -5748,7 +5748,7 @@
         <v>2014</v>
       </c>
       <c r="G42" s="3">
-        <v>7.8838987651725301</v>
+        <v>7.8839295869798303</v>
       </c>
     </row>
     <row r="43" outlineLevel="2">
@@ -5794,7 +5794,7 @@
         <v>2014</v>
       </c>
       <c r="G44" s="3">
-        <v>12.9570154582313</v>
+        <v>12.978656035037901</v>
       </c>
     </row>
     <row r="45" outlineLevel="2">
@@ -5840,7 +5840,7 @@
         <v>2014</v>
       </c>
       <c r="G46" s="3">
-        <v>10.355052378466</v>
+        <v>10.2997629966552</v>
       </c>
     </row>
     <row r="47" outlineLevel="2">
@@ -5886,7 +5886,7 @@
         <v>2014</v>
       </c>
       <c r="G48" s="3">
-        <v>12.636415027498</v>
+        <v>12.636414999205901</v>
       </c>
     </row>
     <row r="49" outlineLevel="2">
@@ -5909,7 +5909,7 @@
         <v>2014</v>
       </c>
       <c r="G49" s="2">
-        <v>13.926853706187099</v>
+        <v>13.926916164127499</v>
       </c>
     </row>
     <row r="50" outlineLevel="2">
@@ -5932,7 +5932,7 @@
         <v>2014</v>
       </c>
       <c r="G50" s="3">
-        <v>6.3440317023997199</v>
+        <v>6.34403185958592</v>
       </c>
     </row>
     <row r="51" outlineLevel="2">
@@ -5955,7 +5955,7 @@
         <v>2014</v>
       </c>
       <c r="G51" s="2">
-        <v>7.0855273238507399</v>
+        <v>7.0879033974857704</v>
       </c>
     </row>
     <row r="52" outlineLevel="2">
@@ -5978,7 +5978,7 @@
         <v>2014</v>
       </c>
       <c r="G52" s="3">
-        <v>5.0883717472027303</v>
+        <v>5.0883983981671497</v>
       </c>
     </row>
     <row r="53" outlineLevel="2">
@@ -6001,7 +6001,7 @@
         <v>2014</v>
       </c>
       <c r="G53" s="2">
-        <v>12.981743730680799</v>
+        <v>12.997936068629199</v>
       </c>
     </row>
     <row r="54" outlineLevel="2">
@@ -6024,7 +6024,7 @@
         <v>2014</v>
       </c>
       <c r="G54" s="3">
-        <v>11.6248288668409</v>
+        <v>11.6241271112136</v>
       </c>
     </row>
     <row r="55" outlineLevel="2">
@@ -6231,7 +6231,7 @@
         <v>2014</v>
       </c>
       <c r="G63" s="2">
-        <v>9.8797048615707297</v>
+        <v>9.8797048615707492</v>
       </c>
     </row>
     <row r="64" outlineLevel="2">
@@ -6254,7 +6254,7 @@
         <v>2014</v>
       </c>
       <c r="G64" s="3">
-        <v>8.2407100267253401</v>
+        <v>8.3017962746907905</v>
       </c>
     </row>
     <row r="65" outlineLevel="2">
@@ -6291,7 +6291,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2">
         <f>SUBTOTAL(1,G18:G65)</f>
-        <v>10.437319976882121</v>
+        <v>10.440121840703357</v>
       </c>
     </row>
     <row r="67" outlineLevel="2">
@@ -6406,7 +6406,7 @@
         <v>2014</v>
       </c>
       <c r="G71" s="3">
-        <v>8.9842198370747202</v>
+        <v>8.9842198169904393</v>
       </c>
     </row>
     <row r="72" outlineLevel="2">
@@ -6498,7 +6498,7 @@
         <v>2014</v>
       </c>
       <c r="G75" s="3">
-        <v>9.0685064754372</v>
+        <v>9.0685064423310404</v>
       </c>
     </row>
     <row r="76" outlineLevel="2">
@@ -6613,7 +6613,7 @@
         <v>2014</v>
       </c>
       <c r="G80" s="2">
-        <v>11.5540630815391</v>
+        <v>11.560982139641499</v>
       </c>
     </row>
     <row r="81" outlineLevel="2">
@@ -6636,7 +6636,7 @@
         <v>2014</v>
       </c>
       <c r="G81" s="3">
-        <v>8.2880791547284307</v>
+        <v>8.2880522806309909</v>
       </c>
     </row>
     <row r="82" outlineLevel="2">
@@ -6659,7 +6659,7 @@
         <v>2014</v>
       </c>
       <c r="G82" s="2">
-        <v>14.4973749429689</v>
+        <v>14.497374943370099</v>
       </c>
     </row>
     <row r="83" outlineLevel="2">
@@ -6705,7 +6705,7 @@
         <v>2014</v>
       </c>
       <c r="G84" s="2">
-        <v>17.923781625957002</v>
+        <v>17.9237816257743</v>
       </c>
     </row>
     <row r="85" outlineLevel="2">
@@ -6728,7 +6728,7 @@
         <v>2014</v>
       </c>
       <c r="G85" s="3">
-        <v>4.3663820614918603</v>
+        <v>7.3594142194999002</v>
       </c>
     </row>
     <row r="86" outlineLevel="2">
@@ -6774,7 +6774,7 @@
         <v>2014</v>
       </c>
       <c r="G87" s="3">
-        <v>11.1990339183287</v>
+        <v>11.1990388750857</v>
       </c>
     </row>
     <row r="88" outlineLevel="2">
@@ -6811,7 +6811,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2">
         <f>SUBTOTAL(1,G67:G88)</f>
-        <v>11.299539634951135</v>
+        <v>11.435900055214685</v>
       </c>
     </row>
     <row r="90" outlineLevel="2">
@@ -6834,7 +6834,7 @@
         <v>2014</v>
       </c>
       <c r="G90" s="3">
-        <v>9.8699009765868499</v>
+        <v>10.010747260369801</v>
       </c>
     </row>
     <row r="91" outlineLevel="2">
@@ -6857,7 +6857,7 @@
         <v>2014</v>
       </c>
       <c r="G91" s="2">
-        <v>12.384749683531</v>
+        <v>12.384749682412799</v>
       </c>
     </row>
     <row r="92" outlineLevel="2">
@@ -6880,7 +6880,7 @@
         <v>2014</v>
       </c>
       <c r="G92" s="3">
-        <v>9.9221296578637403</v>
+        <v>9.9221296582263498</v>
       </c>
     </row>
     <row r="93" outlineLevel="2">
@@ -6995,7 +6995,7 @@
         <v>2014</v>
       </c>
       <c r="G97" s="2">
-        <v>9.7949868737997097</v>
+        <v>9.7950425332718094</v>
       </c>
     </row>
     <row r="98" outlineLevel="2">
@@ -7018,7 +7018,7 @@
         <v>2014</v>
       </c>
       <c r="G98" s="3">
-        <v>7.2014055315453698</v>
+        <v>7.2014011068052</v>
       </c>
     </row>
     <row r="99" outlineLevel="2">
@@ -7064,7 +7064,7 @@
         <v>2014</v>
       </c>
       <c r="G100" s="3">
-        <v>8.0694129254962004</v>
+        <v>8.0694129253580194</v>
       </c>
     </row>
     <row r="101" outlineLevel="2">
@@ -7087,7 +7087,7 @@
         <v>2014</v>
       </c>
       <c r="G101" s="2">
-        <v>18.7409428569756</v>
+        <v>19.2781511768525</v>
       </c>
     </row>
     <row r="102" outlineLevel="2">
@@ -7156,7 +7156,7 @@
         <v>2014</v>
       </c>
       <c r="G104" s="3">
-        <v>6.4250315844702497</v>
+        <v>6.3941564713252896</v>
       </c>
     </row>
     <row r="105" outlineLevel="2">
@@ -7179,7 +7179,7 @@
         <v>2014</v>
       </c>
       <c r="G105" s="2">
-        <v>12.5574674628511</v>
+        <v>12.5574674628512</v>
       </c>
     </row>
     <row r="106" outlineLevel="2">
@@ -7216,7 +7216,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3">
         <f>SUBTOTAL(1,G90:G106)</f>
-        <v>9.6095927745385286</v>
+        <v>9.6476651700887128</v>
       </c>
     </row>
     <row r="108" outlineLevel="2">
@@ -7239,7 +7239,7 @@
         <v>2014</v>
       </c>
       <c r="G108" s="2">
-        <v>7.9062594893153504</v>
+        <v>7.90870385069669</v>
       </c>
     </row>
     <row r="109" outlineLevel="2">
@@ -7276,7 +7276,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3">
         <f>SUBTOTAL(1,G108:G109)</f>
-        <v>6.8497229963270954</v>
+        <v>6.8509451770177652</v>
       </c>
     </row>
     <row r="111" outlineLevel="2">
@@ -7520,7 +7520,7 @@
         <v>2014</v>
       </c>
       <c r="G121" s="3">
-        <v>2.5731716213785401</v>
+        <v>2.5731704229219701</v>
       </c>
     </row>
     <row r="122" outlineLevel="2">
@@ -7612,7 +7612,7 @@
         <v>2014</v>
       </c>
       <c r="G125" s="3">
-        <v>12.532967301796999</v>
+        <v>12.532991462419799</v>
       </c>
     </row>
     <row r="126" outlineLevel="2">
@@ -7658,7 +7658,7 @@
         <v>2014</v>
       </c>
       <c r="G127" s="3">
-        <v>4.3822156573238003</v>
+        <v>4.3822156638124197</v>
       </c>
     </row>
     <row r="128" outlineLevel="2">
@@ -7727,7 +7727,7 @@
         <v>2014</v>
       </c>
       <c r="G130" s="2">
-        <v>8.4723448043506693</v>
+        <v>10.6131826714263</v>
       </c>
     </row>
     <row r="131" outlineLevel="2">
@@ -7750,7 +7750,7 @@
         <v>2014</v>
       </c>
       <c r="G131" s="3">
-        <v>11.9978632788909</v>
+        <v>11.9978518231501</v>
       </c>
     </row>
     <row r="132" outlineLevel="2">
@@ -7773,7 +7773,7 @@
         <v>2014</v>
       </c>
       <c r="G132" s="2">
-        <v>7.5807728516316297</v>
+        <v>7.61608584433983</v>
       </c>
     </row>
     <row r="133" outlineLevel="2">
@@ -7865,7 +7865,7 @@
         <v>2014</v>
       </c>
       <c r="G136" s="2">
-        <v>3.0695827472392501</v>
+        <v>3.0695818643975401</v>
       </c>
     </row>
     <row r="137" outlineLevel="2">
@@ -7888,7 +7888,7 @@
         <v>2014</v>
       </c>
       <c r="G137" s="3">
-        <v>13.094276269597099</v>
+        <v>13.0942763868767</v>
       </c>
     </row>
     <row r="138" outlineLevel="2">
@@ -7925,7 +7925,7 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5">
         <f>SUBTOTAL(1,G117:G138)</f>
-        <v>8.8394522586619768</v>
+        <v>8.9383686953499684</v>
       </c>
     </row>
     <row r="140">
@@ -7939,7 +7939,7 @@
       <c r="F140" s="5"/>
       <c r="G140" s="5">
         <f>SUBTOTAL(1,G2:G138)</f>
-        <v>10.250323113259618</v>
+        <v>10.295821246402452</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>2014</v>
       </c>
       <c r="G4" s="2">
-        <v>11.794277384301999</v>
+        <v>11.8061262465291</v>
       </c>
     </row>
     <row r="5" outlineLevel="2">
@@ -8077,7 +8077,7 @@
         <v>2014</v>
       </c>
       <c r="G5" s="3">
-        <v>10.9536117071886</v>
+        <v>10.9350127954573</v>
       </c>
     </row>
     <row r="6" outlineLevel="2">
@@ -8123,7 +8123,7 @@
         <v>2014</v>
       </c>
       <c r="G7" s="3">
-        <v>7.9062594893153504</v>
+        <v>7.90870385069669</v>
       </c>
     </row>
     <row r="8" outlineLevel="2">
@@ -8192,7 +8192,7 @@
         <v>2014</v>
       </c>
       <c r="G10" s="2">
-        <v>12.384749683531</v>
+        <v>12.384749682412799</v>
       </c>
     </row>
     <row r="11" outlineLevel="2">
@@ -8215,7 +8215,7 @@
         <v>2014</v>
       </c>
       <c r="G11" s="3">
-        <v>18.627241229879701</v>
+        <v>18.627241191634401</v>
       </c>
     </row>
     <row r="12" outlineLevel="2">
@@ -8238,7 +8238,7 @@
         <v>2014</v>
       </c>
       <c r="G12" s="2">
-        <v>2.55160110474637</v>
+        <v>2.55160110425415</v>
       </c>
     </row>
     <row r="13" outlineLevel="2">
@@ -8261,7 +8261,7 @@
         <v>2014</v>
       </c>
       <c r="G13" s="3">
-        <v>11.0628765010226</v>
+        <v>11.0791083114324</v>
       </c>
     </row>
     <row r="14" outlineLevel="2">
@@ -8307,7 +8307,7 @@
         <v>2014</v>
       </c>
       <c r="G15" s="3">
-        <v>12.636415027498</v>
+        <v>12.636414999205901</v>
       </c>
     </row>
     <row r="16" outlineLevel="2">
@@ -8376,7 +8376,7 @@
         <v>2014</v>
       </c>
       <c r="G18" s="2">
-        <v>18.7409428569756</v>
+        <v>19.2781511768525</v>
       </c>
     </row>
     <row r="19" outlineLevel="2">
@@ -8629,7 +8629,7 @@
         <v>2014</v>
       </c>
       <c r="G29" s="3">
-        <v>9.8503916168188006</v>
+        <v>9.8521927114168797</v>
       </c>
     </row>
     <row r="30" outlineLevel="2">
@@ -8675,7 +8675,7 @@
         <v>2014</v>
       </c>
       <c r="G31" s="3">
-        <v>8.0694129254962004</v>
+        <v>8.0694129253580194</v>
       </c>
     </row>
     <row r="32" outlineLevel="2">
@@ -8698,7 +8698,7 @@
         <v>2014</v>
       </c>
       <c r="G32" s="2">
-        <v>7.2014055315453698</v>
+        <v>7.2014011068052</v>
       </c>
     </row>
     <row r="33" outlineLevel="2">
@@ -8744,7 +8744,7 @@
         <v>2014</v>
       </c>
       <c r="G34" s="2">
-        <v>10.355052378466</v>
+        <v>10.2997629966552</v>
       </c>
     </row>
     <row r="35" outlineLevel="2">
@@ -8790,7 +8790,7 @@
         <v>2014</v>
       </c>
       <c r="G36" s="2">
-        <v>6.4250315844702497</v>
+        <v>6.3941564713252896</v>
       </c>
     </row>
     <row r="37" outlineLevel="2">
@@ -8836,7 +8836,7 @@
         <v>2014</v>
       </c>
       <c r="G38" s="2">
-        <v>6.3440317023997199</v>
+        <v>6.34403185958592</v>
       </c>
     </row>
     <row r="39" outlineLevel="2">
@@ -8859,7 +8859,7 @@
         <v>2014</v>
       </c>
       <c r="G39" s="3">
-        <v>14.4973749429689</v>
+        <v>14.497374943370099</v>
       </c>
     </row>
     <row r="40" outlineLevel="2">
@@ -8905,7 +8905,7 @@
         <v>2014</v>
       </c>
       <c r="G41" s="3">
-        <v>9.3822418081158201</v>
+        <v>9.3822418081157402</v>
       </c>
     </row>
     <row r="42" outlineLevel="2">
@@ -9020,7 +9020,7 @@
         <v>2014</v>
       </c>
       <c r="G46" s="2">
-        <v>11.6248288668409</v>
+        <v>11.6241271112136</v>
       </c>
     </row>
     <row r="47" outlineLevel="2">
@@ -9066,7 +9066,7 @@
         <v>2014</v>
       </c>
       <c r="G48" s="2">
-        <v>12.981743730680799</v>
+        <v>12.997936068629199</v>
       </c>
     </row>
     <row r="49" outlineLevel="2">
@@ -9089,7 +9089,7 @@
         <v>2014</v>
       </c>
       <c r="G49" s="3">
-        <v>8.2407100267253401</v>
+        <v>8.3017962746907905</v>
       </c>
     </row>
     <row r="50" outlineLevel="2">
@@ -9149,7 +9149,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3">
         <f>SUBTOTAL(1,G2:G51)</f>
-        <v>11.18585500393416</v>
+        <v>11.196681874667236</v>
       </c>
     </row>
     <row r="53" outlineLevel="2">
@@ -9218,7 +9218,7 @@
         <v>2014</v>
       </c>
       <c r="G55" s="2">
-        <v>2.5731716213785401</v>
+        <v>2.5731704229219701</v>
       </c>
     </row>
     <row r="56" outlineLevel="2">
@@ -9287,7 +9287,7 @@
         <v>2014</v>
       </c>
       <c r="G58" s="3">
-        <v>4.3822156573238003</v>
+        <v>4.3822156638124197</v>
       </c>
     </row>
     <row r="59" outlineLevel="2">
@@ -9333,7 +9333,7 @@
         <v>2014</v>
       </c>
       <c r="G60" s="3">
-        <v>3.0695827472392501</v>
+        <v>3.0695818643975401</v>
       </c>
     </row>
     <row r="61" outlineLevel="2">
@@ -9356,7 +9356,7 @@
         <v>2014</v>
       </c>
       <c r="G61" s="2">
-        <v>4.3663820614918603</v>
+        <v>7.3594142194999002</v>
       </c>
     </row>
     <row r="62" outlineLevel="2">
@@ -9379,7 +9379,7 @@
         <v>2014</v>
       </c>
       <c r="G62" s="3">
-        <v>7.5807728516316297</v>
+        <v>7.61608584433983</v>
       </c>
     </row>
     <row r="63" outlineLevel="2">
@@ -9416,7 +9416,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2">
         <f>SUBTOTAL(1,G53:G63)</f>
-        <v>6.5505693654039359</v>
+        <v>6.8258732813954444</v>
       </c>
     </row>
     <row r="65" outlineLevel="2">
@@ -9439,7 +9439,7 @@
         <v>2014</v>
       </c>
       <c r="G65" s="3">
-        <v>8.2880791547284307</v>
+        <v>8.2880522806309909</v>
       </c>
     </row>
     <row r="66" outlineLevel="2">
@@ -9554,7 +9554,7 @@
         <v>2014</v>
       </c>
       <c r="G70" s="2">
-        <v>11.1990339183287</v>
+        <v>11.1990388750857</v>
       </c>
     </row>
     <row r="71" outlineLevel="2">
@@ -9600,7 +9600,7 @@
         <v>2014</v>
       </c>
       <c r="G72" s="2">
-        <v>14.6762213765242</v>
+        <v>14.676221376533199</v>
       </c>
     </row>
     <row r="73" outlineLevel="2">
@@ -9646,7 +9646,7 @@
         <v>2014</v>
       </c>
       <c r="G74" s="2">
-        <v>9.0685064754372</v>
+        <v>9.0685064423310404</v>
       </c>
     </row>
     <row r="75" outlineLevel="2">
@@ -9945,7 +9945,7 @@
         <v>2014</v>
       </c>
       <c r="G87" s="3">
-        <v>8.4723448043506693</v>
+        <v>10.6131826714263</v>
       </c>
     </row>
     <row r="88" outlineLevel="2">
@@ -10037,7 +10037,7 @@
         <v>2014</v>
       </c>
       <c r="G91" s="3">
-        <v>11.9978632788909</v>
+        <v>11.9978518231501</v>
       </c>
     </row>
     <row r="92" outlineLevel="1">
@@ -10051,7 +10051,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3">
         <f>SUBTOTAL(1,G65:G91)</f>
-        <v>9.7891127759077037</v>
+        <v>9.86840183001501</v>
       </c>
     </row>
     <row r="93" outlineLevel="2">
@@ -10074,7 +10074,7 @@
         <v>2014</v>
       </c>
       <c r="G93" s="2">
-        <v>15.2296345449426</v>
+        <v>15.3073442373303</v>
       </c>
     </row>
     <row r="94" outlineLevel="2">
@@ -10097,7 +10097,7 @@
         <v>2014</v>
       </c>
       <c r="G94" s="3">
-        <v>12.9570154582313</v>
+        <v>12.978656035037901</v>
       </c>
     </row>
     <row r="95" outlineLevel="2">
@@ -10189,7 +10189,7 @@
         <v>2014</v>
       </c>
       <c r="G98" s="3">
-        <v>7.8838987651725301</v>
+        <v>7.8839295869798303</v>
       </c>
     </row>
     <row r="99" outlineLevel="2">
@@ -10304,7 +10304,7 @@
         <v>2014</v>
       </c>
       <c r="G103" s="2">
-        <v>9.7949868737997097</v>
+        <v>9.7950425332718094</v>
       </c>
     </row>
     <row r="104" outlineLevel="2">
@@ -10373,7 +10373,7 @@
         <v>2014</v>
       </c>
       <c r="G106" s="3">
-        <v>9.8797048615707297</v>
+        <v>9.8797048615707492</v>
       </c>
     </row>
     <row r="107" outlineLevel="2">
@@ -10396,7 +10396,7 @@
         <v>2014</v>
       </c>
       <c r="G107" s="2">
-        <v>13.094276269597099</v>
+        <v>13.0942763868767</v>
       </c>
     </row>
     <row r="108" outlineLevel="2">
@@ -10465,7 +10465,7 @@
         <v>2014</v>
       </c>
       <c r="G110" s="3">
-        <v>17.923781625957002</v>
+        <v>17.9237816257743</v>
       </c>
     </row>
     <row r="111" outlineLevel="2">
@@ -10534,7 +10534,7 @@
         <v>2014</v>
       </c>
       <c r="G113" s="2">
-        <v>8.9842198370747202</v>
+        <v>8.9842198169904393</v>
       </c>
     </row>
     <row r="114" outlineLevel="2">
@@ -10580,7 +10580,7 @@
         <v>2014</v>
       </c>
       <c r="G115" s="2">
-        <v>9.9221296578637403</v>
+        <v>9.9221296582263498</v>
       </c>
     </row>
     <row r="116" outlineLevel="2">
@@ -10649,7 +10649,7 @@
         <v>2014</v>
       </c>
       <c r="G118" s="3">
-        <v>9.8699009765868499</v>
+        <v>10.010747260369801</v>
       </c>
     </row>
     <row r="119" outlineLevel="2">
@@ -10718,7 +10718,7 @@
         <v>2014</v>
       </c>
       <c r="G121" s="2">
-        <v>7.41653866509645</v>
+        <v>7.4165386650964598</v>
       </c>
     </row>
     <row r="122" outlineLevel="2">
@@ -10741,7 +10741,7 @@
         <v>2014</v>
       </c>
       <c r="G122" s="3">
-        <v>5.6107676211670698</v>
+        <v>5.61076766078122</v>
       </c>
     </row>
     <row r="123" outlineLevel="2">
@@ -10764,7 +10764,7 @@
         <v>2014</v>
       </c>
       <c r="G123" s="2">
-        <v>12.5574674628511</v>
+        <v>12.5574674628512</v>
       </c>
     </row>
     <row r="124" outlineLevel="2">
@@ -10856,7 +10856,7 @@
         <v>2014</v>
       </c>
       <c r="G127" s="2">
-        <v>11.5540630815391</v>
+        <v>11.560982139641499</v>
       </c>
     </row>
     <row r="128" outlineLevel="2">
@@ -10879,7 +10879,7 @@
         <v>2014</v>
       </c>
       <c r="G128" s="3">
-        <v>9.9925116937175904</v>
+        <v>9.9925524035291193</v>
       </c>
     </row>
     <row r="129" outlineLevel="2">
@@ -10902,7 +10902,7 @@
         <v>2014</v>
       </c>
       <c r="G129" s="2">
-        <v>7.0855273238507399</v>
+        <v>7.0879033974857704</v>
       </c>
     </row>
     <row r="130" outlineLevel="2">
@@ -10925,7 +10925,7 @@
         <v>2014</v>
       </c>
       <c r="G130" s="3">
-        <v>10.5896117702995</v>
+        <v>10.589643856229999</v>
       </c>
     </row>
     <row r="131" outlineLevel="2">
@@ -10971,7 +10971,7 @@
         <v>2014</v>
       </c>
       <c r="G132" s="3">
-        <v>12.532967301796999</v>
+        <v>12.532991462419799</v>
       </c>
     </row>
     <row r="133" outlineLevel="2">
@@ -10994,7 +10994,7 @@
         <v>2014</v>
       </c>
       <c r="G133" s="2">
-        <v>5.0883717472027303</v>
+        <v>5.0883983981671497</v>
       </c>
     </row>
     <row r="134" outlineLevel="2">
@@ -11040,7 +11040,7 @@
         <v>2014</v>
       </c>
       <c r="G135" s="2">
-        <v>13.926853706187099</v>
+        <v>13.926916164127499</v>
       </c>
     </row>
     <row r="136" outlineLevel="1">
@@ -11054,7 +11054,7 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5">
         <f>SUBTOTAL(1,G93:G135)</f>
-        <v>10.398541155147706</v>
+        <v>10.404349628828015</v>
       </c>
     </row>
     <row r="137">
@@ -11068,7 +11068,7 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5">
         <f>SUBTOTAL(1,G2:G135)</f>
-        <v>10.250323113259626</v>
+        <v>10.295821246402456</v>
       </c>
     </row>
   </sheetData>
@@ -11137,7 +11137,7 @@
         <v>2014</v>
       </c>
       <c r="G2">
-        <v>13.926853706187099</v>
+        <v>13.926916164127499</v>
       </c>
     </row>
     <row r="3">
@@ -11160,7 +11160,7 @@
         <v>2014</v>
       </c>
       <c r="G3">
-        <v>9.7949868737997097</v>
+        <v>9.7950425332718094</v>
       </c>
     </row>
     <row r="4">
@@ -11229,7 +11229,7 @@
         <v>2014</v>
       </c>
       <c r="G6">
-        <v>9.8797048615707297</v>
+        <v>9.8797048615707492</v>
       </c>
     </row>
     <row r="7">
@@ -11436,7 +11436,7 @@
         <v>2014</v>
       </c>
       <c r="G15">
-        <v>9.0685064754372</v>
+        <v>9.0685064423310404</v>
       </c>
     </row>
     <row r="16">
@@ -11459,7 +11459,7 @@
         <v>2014</v>
       </c>
       <c r="G16">
-        <v>5.0883717472027303</v>
+        <v>5.0883983981671497</v>
       </c>
     </row>
     <row r="17">
@@ -11482,7 +11482,7 @@
         <v>2014</v>
       </c>
       <c r="G17">
-        <v>12.532967301796999</v>
+        <v>12.532991462419799</v>
       </c>
     </row>
     <row r="18">
@@ -11528,7 +11528,7 @@
         <v>2014</v>
       </c>
       <c r="G19">
-        <v>9.3822418081158201</v>
+        <v>9.3822418081157402</v>
       </c>
     </row>
     <row r="20">
@@ -11551,7 +11551,7 @@
         <v>2014</v>
       </c>
       <c r="G20">
-        <v>7.0855273238507399</v>
+        <v>7.0879033974857704</v>
       </c>
     </row>
     <row r="21">
@@ -11666,7 +11666,7 @@
         <v>2014</v>
       </c>
       <c r="G25">
-        <v>5.6107676211670698</v>
+        <v>5.61076766078122</v>
       </c>
     </row>
     <row r="26">
@@ -11735,7 +11735,7 @@
         <v>2014</v>
       </c>
       <c r="G28">
-        <v>8.4723448043506693</v>
+        <v>10.6131826714263</v>
       </c>
     </row>
     <row r="29">
@@ -11781,7 +11781,7 @@
         <v>2014</v>
       </c>
       <c r="G30">
-        <v>11.6248288668409</v>
+        <v>11.6241271112136</v>
       </c>
     </row>
     <row r="31">
@@ -11827,7 +11827,7 @@
         <v>2014</v>
       </c>
       <c r="G32">
-        <v>12.981743730680799</v>
+        <v>12.997936068629199</v>
       </c>
     </row>
     <row r="33">
@@ -11850,7 +11850,7 @@
         <v>2014</v>
       </c>
       <c r="G33">
-        <v>8.2407100267253401</v>
+        <v>8.3017962746907905</v>
       </c>
     </row>
     <row r="34">
@@ -11919,7 +11919,7 @@
         <v>2014</v>
       </c>
       <c r="G36">
-        <v>17.923781625957002</v>
+        <v>17.9237816257743</v>
       </c>
     </row>
     <row r="37">
@@ -11988,7 +11988,7 @@
         <v>2014</v>
       </c>
       <c r="G39">
-        <v>11.1990339183287</v>
+        <v>11.1990388750857</v>
       </c>
     </row>
     <row r="40">
@@ -12011,7 +12011,7 @@
         <v>2014</v>
       </c>
       <c r="G40">
-        <v>6.3440317023997199</v>
+        <v>6.34403185958592</v>
       </c>
     </row>
     <row r="41">
@@ -12034,7 +12034,7 @@
         <v>2014</v>
       </c>
       <c r="G41">
-        <v>3.0695827472392501</v>
+        <v>3.0695818643975401</v>
       </c>
     </row>
     <row r="42">
@@ -12195,7 +12195,7 @@
         <v>2014</v>
       </c>
       <c r="G48">
-        <v>12.636415027498</v>
+        <v>12.636414999205901</v>
       </c>
     </row>
     <row r="49">
@@ -12218,7 +12218,7 @@
         <v>2014</v>
       </c>
       <c r="G49">
-        <v>8.9842198370747202</v>
+        <v>8.9842198169904393</v>
       </c>
     </row>
     <row r="50">
@@ -12241,7 +12241,7 @@
         <v>2014</v>
       </c>
       <c r="G50">
-        <v>4.3663820614918603</v>
+        <v>7.3594142194999002</v>
       </c>
     </row>
     <row r="51">
@@ -12310,7 +12310,7 @@
         <v>2014</v>
       </c>
       <c r="G53">
-        <v>11.0628765010226</v>
+        <v>11.0791083114324</v>
       </c>
     </row>
     <row r="54">
@@ -12333,7 +12333,7 @@
         <v>2014</v>
       </c>
       <c r="G54">
-        <v>2.55160110474637</v>
+        <v>2.55160110425415</v>
       </c>
     </row>
     <row r="55">
@@ -12425,7 +12425,7 @@
         <v>2014</v>
       </c>
       <c r="G58">
-        <v>9.9221296578637403</v>
+        <v>9.9221296582263498</v>
       </c>
     </row>
     <row r="59">
@@ -12448,7 +12448,7 @@
         <v>2014</v>
       </c>
       <c r="G59">
-        <v>18.627241229879701</v>
+        <v>18.627241191634401</v>
       </c>
     </row>
     <row r="60">
@@ -12471,7 +12471,7 @@
         <v>2014</v>
       </c>
       <c r="G60">
-        <v>12.384749683531</v>
+        <v>12.384749682412799</v>
       </c>
     </row>
     <row r="61">
@@ -12563,7 +12563,7 @@
         <v>2014</v>
       </c>
       <c r="G64">
-        <v>9.8699009765868499</v>
+        <v>10.010747260369801</v>
       </c>
     </row>
     <row r="65">
@@ -12655,7 +12655,7 @@
         <v>2014</v>
       </c>
       <c r="G68">
-        <v>7.41653866509645</v>
+        <v>7.4165386650964598</v>
       </c>
     </row>
     <row r="69">
@@ -12724,7 +12724,7 @@
         <v>2014</v>
       </c>
       <c r="G71">
-        <v>10.9536117071886</v>
+        <v>10.9350127954573</v>
       </c>
     </row>
     <row r="72">
@@ -12747,7 +12747,7 @@
         <v>2014</v>
       </c>
       <c r="G72">
-        <v>12.5574674628511</v>
+        <v>12.5574674628512</v>
       </c>
     </row>
     <row r="73">
@@ -12793,7 +12793,7 @@
         <v>2014</v>
       </c>
       <c r="G74">
-        <v>11.794277384301999</v>
+        <v>11.8061262465291</v>
       </c>
     </row>
     <row r="75">
@@ -12862,7 +12862,7 @@
         <v>2014</v>
       </c>
       <c r="G77">
-        <v>18.7409428569756</v>
+        <v>19.2781511768525</v>
       </c>
     </row>
     <row r="78">
@@ -12908,7 +12908,7 @@
         <v>2014</v>
       </c>
       <c r="G79">
-        <v>11.5540630815391</v>
+        <v>11.560982139641499</v>
       </c>
     </row>
     <row r="80">
@@ -12977,7 +12977,7 @@
         <v>2014</v>
       </c>
       <c r="G82">
-        <v>9.9925116937175904</v>
+        <v>9.9925524035291193</v>
       </c>
     </row>
     <row r="83">
@@ -13023,7 +13023,7 @@
         <v>2014</v>
       </c>
       <c r="G84">
-        <v>2.5731716213785401</v>
+        <v>2.5731704229219701</v>
       </c>
     </row>
     <row r="85">
@@ -13069,7 +13069,7 @@
         <v>2014</v>
       </c>
       <c r="G86">
-        <v>13.094276269597099</v>
+        <v>13.0942763868767</v>
       </c>
     </row>
     <row r="87">
@@ -13161,7 +13161,7 @@
         <v>2014</v>
       </c>
       <c r="G90">
-        <v>8.2880791547284307</v>
+        <v>8.2880522806309909</v>
       </c>
     </row>
     <row r="91">
@@ -13184,7 +13184,7 @@
         <v>2014</v>
       </c>
       <c r="G91">
-        <v>7.5807728516316297</v>
+        <v>7.61608584433983</v>
       </c>
     </row>
     <row r="92">
@@ -13230,7 +13230,7 @@
         <v>2014</v>
       </c>
       <c r="G93">
-        <v>10.5896117702995</v>
+        <v>10.589643856229999</v>
       </c>
     </row>
     <row r="94">
@@ -13276,7 +13276,7 @@
         <v>2014</v>
       </c>
       <c r="G95">
-        <v>6.4250315844702497</v>
+        <v>6.3941564713252896</v>
       </c>
     </row>
     <row r="96">
@@ -13391,7 +13391,7 @@
         <v>2014</v>
       </c>
       <c r="G100">
-        <v>14.6762213765242</v>
+        <v>14.676221376533199</v>
       </c>
     </row>
     <row r="101">
@@ -13414,7 +13414,7 @@
         <v>2014</v>
       </c>
       <c r="G101">
-        <v>10.355052378466</v>
+        <v>10.2997629966552</v>
       </c>
     </row>
     <row r="102">
@@ -13460,7 +13460,7 @@
         <v>2014</v>
       </c>
       <c r="G103">
-        <v>7.2014055315453698</v>
+        <v>7.2014011068052</v>
       </c>
     </row>
     <row r="104">
@@ -13483,7 +13483,7 @@
         <v>2014</v>
       </c>
       <c r="G104">
-        <v>12.9570154582313</v>
+        <v>12.978656035037901</v>
       </c>
     </row>
     <row r="105">
@@ -13529,7 +13529,7 @@
         <v>2014</v>
       </c>
       <c r="G106">
-        <v>8.0694129254962004</v>
+        <v>8.0694129253580194</v>
       </c>
     </row>
     <row r="107">
@@ -13575,7 +13575,7 @@
         <v>2014</v>
       </c>
       <c r="G108">
-        <v>7.8838987651725301</v>
+        <v>7.8839295869798303</v>
       </c>
     </row>
     <row r="109">
@@ -13621,7 +13621,7 @@
         <v>2014</v>
       </c>
       <c r="G110">
-        <v>9.8503916168188006</v>
+        <v>9.8521927114168797</v>
       </c>
     </row>
     <row r="111">
@@ -13759,7 +13759,7 @@
         <v>2014</v>
       </c>
       <c r="G116">
-        <v>11.9978632788909</v>
+        <v>11.9978518231501</v>
       </c>
     </row>
     <row r="117">
@@ -13874,7 +13874,7 @@
         <v>2014</v>
       </c>
       <c r="G121">
-        <v>4.3822156573238003</v>
+        <v>4.3822156638124197</v>
       </c>
     </row>
     <row r="122">
@@ -13989,7 +13989,7 @@
         <v>2014</v>
       </c>
       <c r="G126">
-        <v>15.2296345449426</v>
+        <v>15.3073442373303</v>
       </c>
     </row>
     <row r="127">
@@ -14104,7 +14104,7 @@
         <v>2014</v>
       </c>
       <c r="G131">
-        <v>7.9062594893153504</v>
+        <v>7.90870385069669</v>
       </c>
     </row>
     <row r="132">
@@ -14127,7 +14127,7 @@
         <v>2014</v>
       </c>
       <c r="G132">
-        <v>14.4973749429689</v>
+        <v>14.497374943370099</v>
       </c>
     </row>
   </sheetData>
@@ -14194,17 +14194,17 @@
         <v>6</v>
       </c>
       <c r="B3" s="9">
-        <v>12.656583280946723</v>
+        <v>12.656583280946711</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9">
-        <v>10.297936077377576</v>
+        <v>10.297936077379378</v>
       </c>
       <c r="E3" s="9">
-        <v>7.2219527331021203</v>
+        <v>7.2219527463068367</v>
       </c>
       <c r="F3" s="9">
-        <v>10.783441436854755</v>
+        <v>10.783441439496293</v>
       </c>
     </row>
     <row r="4">
@@ -14212,7 +14212,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="9">
-        <v>11.825314981541485</v>
+        <v>11.826478209903486</v>
       </c>
       <c r="C4" s="9">
         <v>9.7192153740222906</v>
@@ -14221,10 +14221,10 @@
         <v>6.1977373826453261</v>
       </c>
       <c r="E4" s="9">
-        <v>8.8481319928263602</v>
+        <v>8.8545019346565788</v>
       </c>
       <c r="F4" s="9">
-        <v>10.437319976882117</v>
+        <v>10.440121840703357</v>
       </c>
     </row>
     <row r="5">
@@ -14232,19 +14232,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="9">
-        <v>10.196750518859716</v>
+        <v>10.196750518939954</v>
       </c>
       <c r="C5" s="9">
-        <v>4.3663820614918603</v>
+        <v>7.3594142194999002</v>
       </c>
       <c r="D5" s="9">
-        <v>9.000572063965155</v>
+        <v>9.0005665763535045</v>
       </c>
       <c r="E5" s="9">
-        <v>13.103120754772826</v>
+        <v>13.103697341259114</v>
       </c>
       <c r="F5" s="9">
-        <v>11.299539634951135</v>
+        <v>11.435900055214686</v>
       </c>
     </row>
     <row r="6">
@@ -14252,17 +14252,17 @@
         <v>9</v>
       </c>
       <c r="B6" s="9">
-        <v>9.3630811449958191</v>
+        <v>9.4263722425877425</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9">
         <v>12.081030879981867</v>
       </c>
       <c r="E6" s="9">
-        <v>8.7025558945404722</v>
+        <v>8.7260395518100982</v>
       </c>
       <c r="F6" s="9">
-        <v>9.6095927745385286</v>
+        <v>9.6476651700887146</v>
       </c>
     </row>
     <row r="7">
@@ -14270,13 +14270,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="9">
-        <v>6.8497229963270954</v>
+        <v>6.8509451770177652</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
-        <v>6.8497229963270954</v>
+        <v>6.8509451770177652</v>
       </c>
     </row>
     <row r="8">
@@ -14303,16 +14303,16 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9">
-        <v>6.5001476211621307</v>
+        <v>6.5045614858994485</v>
       </c>
       <c r="D9" s="9">
-        <v>9.98383987402228</v>
+        <v>10.221709475281706</v>
       </c>
       <c r="E9" s="9">
-        <v>10.522441971013192</v>
+        <v>10.522446826593674</v>
       </c>
       <c r="F9" s="9">
-        <v>8.8394522586619786</v>
+        <v>8.9383686953499666</v>
       </c>
     </row>
     <row r="10">
@@ -14320,19 +14320,19 @@
         <v>292</v>
       </c>
       <c r="B10" s="9">
-        <v>11.18585500393416</v>
+        <v>11.196681874667238</v>
       </c>
       <c r="C10" s="9">
-        <v>6.5505693654039359</v>
+        <v>6.8258732813954426</v>
       </c>
       <c r="D10" s="9">
-        <v>9.7891127759077001</v>
+        <v>9.8684018300150047</v>
       </c>
       <c r="E10" s="9">
-        <v>10.398541155147706</v>
+        <v>10.404349628828015</v>
       </c>
       <c r="F10" s="9">
-        <v>10.25032311325962</v>
+        <v>10.295821246402458</v>
       </c>
     </row>
   </sheetData>
